--- a/data/analysis/social_media_analytics/pivot_tables/region-size/museum_activity_groups__var2-region-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/region-size/museum_activity_groups__var2-region-size.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -479,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -517,111 +520,165 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="E4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -633,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -651,16 +708,16 @@
         <v>25</v>
       </c>
       <c r="O4">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -672,37 +729,76 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>4</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB4">
         <v>-1.7</v>
       </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="D5">
-        <v>183.3</v>
+        <v>133.3</v>
       </c>
       <c r="E5">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -717,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="L5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -732,16 +828,16 @@
         <v>11.1</v>
       </c>
       <c r="O5">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="P5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="Q5">
-        <v>68.8</v>
+        <v>49.7</v>
       </c>
       <c r="R5">
-        <v>206.3</v>
+        <v>149</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -756,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X5">
         <v>9</v>
       </c>
       <c r="Y5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -771,22 +867,61 @@
         <v>11.1</v>
       </c>
       <c r="AB5">
+        <v>-2.4</v>
+      </c>
+      <c r="AC5">
+        <v>619</v>
+      </c>
+      <c r="AD5">
+        <v>68.8</v>
+      </c>
+      <c r="AE5">
+        <v>206.3</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>619</v>
+      </c>
+      <c r="AK5">
+        <v>9</v>
+      </c>
+      <c r="AL5">
+        <v>619</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>11.1</v>
+      </c>
+      <c r="AO5">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D6">
-        <v>54.8</v>
+        <v>46.5</v>
       </c>
       <c r="E6">
-        <v>109.5</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -798,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>54.8</v>
+        <v>46.5</v>
       </c>
       <c r="J6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -816,16 +951,16 @@
         <v>25</v>
       </c>
       <c r="O6">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -837,37 +972,76 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
+      <c r="Y6">
+        <v>33</v>
+      </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB6">
         <v>-1.7</v>
       </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>38.6</v>
+        <v>31.7</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -882,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>7</v>
       </c>
       <c r="L7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -897,16 +1071,16 @@
         <v>14.3</v>
       </c>
       <c r="O7">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="P7">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="Q7">
-        <v>31.9</v>
+        <v>2.3</v>
       </c>
       <c r="R7">
-        <v>84.3</v>
+        <v>6</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -921,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="X7">
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -936,192 +1110,309 @@
         <v>14.3</v>
       </c>
       <c r="AB7">
+        <v>-2.3</v>
+      </c>
+      <c r="AC7">
+        <v>223</v>
+      </c>
+      <c r="AD7">
+        <v>31.9</v>
+      </c>
+      <c r="AE7">
+        <v>84.3</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>223</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>223</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>14.3</v>
+      </c>
+      <c r="AO7">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>57258</v>
+        <v>34690</v>
       </c>
       <c r="D8">
-        <v>1908.6</v>
+        <v>1156.3</v>
       </c>
       <c r="E8">
-        <v>2913.1</v>
+        <v>1582.8</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>1025</v>
+        <v>690</v>
       </c>
       <c r="I8">
-        <v>2117.8</v>
+        <v>1351</v>
       </c>
       <c r="J8">
-        <v>13909</v>
+        <v>6379</v>
       </c>
       <c r="K8">
         <v>30</v>
       </c>
       <c r="L8">
-        <v>2385.8</v>
+        <v>1508.3</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="O8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P8">
-        <v>17625</v>
+        <v>8587</v>
       </c>
       <c r="Q8">
-        <v>587.5</v>
+        <v>286.2</v>
       </c>
       <c r="R8">
-        <v>652.9</v>
+        <v>372.5</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>13.8</v>
+        <v>5.8</v>
       </c>
       <c r="U8">
-        <v>385</v>
+        <v>134</v>
       </c>
       <c r="V8">
-        <v>853</v>
+        <v>383.2</v>
       </c>
       <c r="W8">
-        <v>2727</v>
+        <v>1307</v>
       </c>
       <c r="X8">
         <v>30</v>
       </c>
       <c r="Y8">
+        <v>373.3</v>
+      </c>
+      <c r="Z8">
+        <v>23</v>
+      </c>
+      <c r="AA8">
+        <v>76.7</v>
+      </c>
+      <c r="AB8">
+        <v>0.8</v>
+      </c>
+      <c r="AC8">
+        <v>17625</v>
+      </c>
+      <c r="AD8">
+        <v>587.5</v>
+      </c>
+      <c r="AE8">
+        <v>652.9</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>13.8</v>
+      </c>
+      <c r="AH8">
+        <v>385</v>
+      </c>
+      <c r="AI8">
+        <v>853</v>
+      </c>
+      <c r="AJ8">
+        <v>2727</v>
+      </c>
+      <c r="AK8">
+        <v>30</v>
+      </c>
+      <c r="AL8">
         <v>801.1</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>22</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>73.3</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>95710</v>
+        <v>59166</v>
       </c>
       <c r="D9">
-        <v>1622.2</v>
+        <v>1002.8</v>
       </c>
       <c r="E9">
-        <v>3932.3</v>
+        <v>2511.7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>20.5</v>
+        <v>6.5</v>
       </c>
       <c r="H9">
-        <v>511</v>
+        <v>328</v>
       </c>
       <c r="I9">
-        <v>1062.5</v>
+        <v>886.5</v>
       </c>
       <c r="J9">
-        <v>25152</v>
+        <v>17279</v>
       </c>
       <c r="K9">
         <v>59</v>
       </c>
       <c r="L9">
-        <v>1914.2</v>
+        <v>1286.2</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N9">
-        <v>84.7</v>
+        <v>78</v>
       </c>
       <c r="O9">
         <v>0.9</v>
       </c>
       <c r="P9">
-        <v>28396</v>
+        <v>15681</v>
       </c>
       <c r="Q9">
-        <v>481.3</v>
+        <v>265.8</v>
       </c>
       <c r="R9">
-        <v>703</v>
+        <v>1047.6</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="V9">
-        <v>692</v>
+        <v>108</v>
       </c>
       <c r="W9">
-        <v>3252</v>
+        <v>7809</v>
       </c>
       <c r="X9">
         <v>59</v>
       </c>
       <c r="Y9">
+        <v>333.6</v>
+      </c>
+      <c r="Z9">
+        <v>47</v>
+      </c>
+      <c r="AA9">
+        <v>79.7</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>28396</v>
+      </c>
+      <c r="AD9">
+        <v>481.3</v>
+      </c>
+      <c r="AE9">
+        <v>703</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>174</v>
+      </c>
+      <c r="AI9">
+        <v>692</v>
+      </c>
+      <c r="AJ9">
+        <v>3252</v>
+      </c>
+      <c r="AK9">
+        <v>59</v>
+      </c>
+      <c r="AL9">
         <v>887.4</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>32</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>54.2</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>99038</v>
+        <v>29094</v>
       </c>
       <c r="D10">
-        <v>750.3</v>
+        <v>220.4</v>
       </c>
       <c r="E10">
-        <v>2667.6</v>
+        <v>552.6</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1130,37 +1421,37 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>283</v>
+        <v>181.2</v>
       </c>
       <c r="J10">
-        <v>19457</v>
+        <v>3200</v>
       </c>
       <c r="K10">
         <v>132</v>
       </c>
       <c r="L10">
-        <v>1456.4</v>
+        <v>477</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N10">
-        <v>51.5</v>
+        <v>46.2</v>
       </c>
       <c r="O10">
         <v>-0.7</v>
       </c>
       <c r="P10">
-        <v>14979</v>
+        <v>11224</v>
       </c>
       <c r="Q10">
-        <v>113.5</v>
+        <v>85</v>
       </c>
       <c r="R10">
-        <v>300.2</v>
+        <v>274.3</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1172,40 +1463,79 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="W10">
-        <v>1676</v>
+        <v>1547</v>
       </c>
       <c r="X10">
         <v>132</v>
       </c>
       <c r="Y10">
+        <v>181</v>
+      </c>
+      <c r="Z10">
+        <v>62</v>
+      </c>
+      <c r="AA10">
+        <v>47</v>
+      </c>
+      <c r="AB10">
+        <v>-0.6</v>
+      </c>
+      <c r="AC10">
+        <v>14979</v>
+      </c>
+      <c r="AD10">
+        <v>113.5</v>
+      </c>
+      <c r="AE10">
+        <v>300.2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1676</v>
+      </c>
+      <c r="AK10">
+        <v>132</v>
+      </c>
+      <c r="AL10">
         <v>554.8</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>27</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>20.5</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>8245</v>
+        <v>3415</v>
       </c>
       <c r="D11">
-        <v>1030.6</v>
+        <v>426.9</v>
       </c>
       <c r="E11">
-        <v>1888.4</v>
+        <v>978.8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1214,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="I11">
-        <v>982.8</v>
+        <v>163.5</v>
       </c>
       <c r="J11">
-        <v>4367</v>
+        <v>2806</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
       <c r="L11">
-        <v>1649</v>
+        <v>683</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1235,16 +1565,16 @@
         <v>62.5</v>
       </c>
       <c r="O11">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P11">
-        <v>4524</v>
+        <v>4800</v>
       </c>
       <c r="Q11">
-        <v>565.5</v>
+        <v>600</v>
       </c>
       <c r="R11">
-        <v>955.6</v>
+        <v>1340.2</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1253,66 +1583,105 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>877</v>
+        <v>250.2</v>
       </c>
       <c r="W11">
-        <v>2696</v>
+        <v>3807</v>
       </c>
       <c r="X11">
         <v>8</v>
       </c>
       <c r="Y11">
+        <v>960</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>62.5</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>4524</v>
+      </c>
+      <c r="AD11">
+        <v>565.5</v>
+      </c>
+      <c r="AE11">
+        <v>955.6</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>877</v>
+      </c>
+      <c r="AJ11">
+        <v>2696</v>
+      </c>
+      <c r="AK11">
+        <v>8</v>
+      </c>
+      <c r="AL11">
         <v>1508</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>3</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>37.5</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>59034</v>
+        <v>44334</v>
       </c>
       <c r="D12">
-        <v>1967.8</v>
+        <v>1477.8</v>
       </c>
       <c r="E12">
-        <v>1890.1</v>
+        <v>1432.6</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>561.8</v>
+        <v>440.5</v>
       </c>
       <c r="H12">
-        <v>1229.5</v>
+        <v>848</v>
       </c>
       <c r="I12">
-        <v>2749.2</v>
+        <v>2298.2</v>
       </c>
       <c r="J12">
-        <v>7686</v>
+        <v>5468</v>
       </c>
       <c r="K12">
         <v>30</v>
       </c>
       <c r="L12">
-        <v>2108.4</v>
+        <v>1583.4</v>
       </c>
       <c r="M12">
         <v>28</v>
@@ -1321,145 +1690,223 @@
         <v>93.3</v>
       </c>
       <c r="O12">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="P12">
-        <v>16922</v>
+        <v>14657</v>
       </c>
       <c r="Q12">
-        <v>564.1</v>
+        <v>488.6</v>
       </c>
       <c r="R12">
-        <v>597.3</v>
+        <v>576.6</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="U12">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="V12">
-        <v>876.5</v>
+        <v>484.5</v>
       </c>
       <c r="W12">
-        <v>2371</v>
+        <v>2205</v>
       </c>
       <c r="X12">
         <v>30</v>
       </c>
       <c r="Y12">
+        <v>523.5</v>
+      </c>
+      <c r="Z12">
+        <v>28</v>
+      </c>
+      <c r="AA12">
+        <v>93.3</v>
+      </c>
+      <c r="AB12">
+        <v>1.6</v>
+      </c>
+      <c r="AC12">
+        <v>16922</v>
+      </c>
+      <c r="AD12">
+        <v>564.1</v>
+      </c>
+      <c r="AE12">
+        <v>597.3</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>453</v>
+      </c>
+      <c r="AI12">
+        <v>876.5</v>
+      </c>
+      <c r="AJ12">
+        <v>2371</v>
+      </c>
+      <c r="AK12">
+        <v>30</v>
+      </c>
+      <c r="AL12">
         <v>846.1</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>20</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>66.7</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>151988</v>
+        <v>56735</v>
       </c>
       <c r="D13">
-        <v>2026.5</v>
+        <v>756.5</v>
       </c>
       <c r="E13">
-        <v>4828.9</v>
+        <v>1784.8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="I13">
-        <v>1461</v>
+        <v>927</v>
       </c>
       <c r="J13">
-        <v>27245</v>
+        <v>14162</v>
       </c>
       <c r="K13">
         <v>75</v>
       </c>
       <c r="L13">
-        <v>2451.4</v>
+        <v>1031.5</v>
       </c>
       <c r="M13">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N13">
-        <v>82.7</v>
+        <v>73.3</v>
       </c>
       <c r="O13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P13">
-        <v>25865</v>
+        <v>15860</v>
       </c>
       <c r="Q13">
-        <v>344.9</v>
+        <v>211.5</v>
       </c>
       <c r="R13">
-        <v>794.9</v>
+        <v>789</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V13">
-        <v>546</v>
+        <v>152</v>
       </c>
       <c r="W13">
-        <v>6335</v>
+        <v>6662</v>
       </c>
       <c r="X13">
         <v>75</v>
       </c>
       <c r="Y13">
+        <v>278.2</v>
+      </c>
+      <c r="Z13">
+        <v>57</v>
+      </c>
+      <c r="AA13">
+        <v>76</v>
+      </c>
+      <c r="AB13">
+        <v>0.8</v>
+      </c>
+      <c r="AC13">
+        <v>25865</v>
+      </c>
+      <c r="AD13">
+        <v>344.9</v>
+      </c>
+      <c r="AE13">
+        <v>794.9</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>546</v>
+      </c>
+      <c r="AJ13">
+        <v>6335</v>
+      </c>
+      <c r="AK13">
+        <v>75</v>
+      </c>
+      <c r="AL13">
         <v>760.7</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>34</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>45.3</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>216415</v>
+        <v>89216</v>
       </c>
       <c r="D14">
-        <v>988.2</v>
+        <v>407.4</v>
       </c>
       <c r="E14">
-        <v>3520.5</v>
+        <v>948.2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1468,37 +1915,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>441</v>
+        <v>308.5</v>
       </c>
       <c r="J14">
-        <v>40453</v>
+        <v>6108</v>
       </c>
       <c r="K14">
         <v>219</v>
       </c>
       <c r="L14">
-        <v>1677.6</v>
+        <v>749.7</v>
       </c>
       <c r="M14">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N14">
-        <v>58.9</v>
+        <v>54.3</v>
       </c>
       <c r="O14">
         <v>-0.3</v>
       </c>
       <c r="P14">
-        <v>26182</v>
+        <v>27043</v>
       </c>
       <c r="Q14">
-        <v>119.6</v>
+        <v>123.5</v>
       </c>
       <c r="R14">
-        <v>387.6</v>
+        <v>455.2</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1507,43 +1954,82 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="W14">
-        <v>3292</v>
+        <v>4541</v>
       </c>
       <c r="X14">
         <v>219</v>
       </c>
       <c r="Y14">
+        <v>229.2</v>
+      </c>
+      <c r="Z14">
+        <v>118</v>
+      </c>
+      <c r="AA14">
+        <v>53.9</v>
+      </c>
+      <c r="AB14">
+        <v>-0.3</v>
+      </c>
+      <c r="AC14">
+        <v>26182</v>
+      </c>
+      <c r="AD14">
+        <v>119.6</v>
+      </c>
+      <c r="AE14">
+        <v>387.6</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>3292</v>
+      </c>
+      <c r="AK14">
+        <v>219</v>
+      </c>
+      <c r="AL14">
         <v>654.6</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>40</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>18.3</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>3632</v>
+        <v>3056</v>
       </c>
       <c r="D15">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="E15">
-        <v>579.4</v>
+        <v>488.1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1552,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>99</v>
+        <v>90.5</v>
       </c>
       <c r="I15">
-        <v>1052.8</v>
+        <v>841.2</v>
       </c>
       <c r="J15">
-        <v>1241</v>
+        <v>1088</v>
       </c>
       <c r="K15">
         <v>8</v>
       </c>
       <c r="L15">
-        <v>908</v>
+        <v>764</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -1573,16 +2059,16 @@
         <v>50</v>
       </c>
       <c r="O15">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="P15">
-        <v>795</v>
+        <v>572</v>
       </c>
       <c r="Q15">
-        <v>99.40000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="R15">
-        <v>281.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1591,63 +2077,102 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="W15">
-        <v>795</v>
+        <v>221</v>
       </c>
       <c r="X15">
         <v>8</v>
       </c>
       <c r="Y15">
+        <v>143</v>
+      </c>
+      <c r="Z15">
+        <v>4</v>
+      </c>
+      <c r="AA15">
+        <v>50</v>
+      </c>
+      <c r="AB15">
+        <v>-0.5</v>
+      </c>
+      <c r="AC15">
         <v>795</v>
       </c>
-      <c r="Z15">
+      <c r="AD15">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>281.1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>795</v>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+      <c r="AL15">
+        <v>795</v>
+      </c>
+      <c r="AM15">
         <v>1</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>12.5</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="D16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="F16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="G16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="H16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="I16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="J16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1656,55 +2181,91 @@
         <v>100</v>
       </c>
       <c r="O16">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
+      <c r="Y16">
+        <v>411</v>
+      </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1716,16 +2277,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="J17">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1734,16 +2295,16 @@
         <v>25</v>
       </c>
       <c r="O17">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1755,37 +2316,76 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X17">
         <v>4</v>
       </c>
+      <c r="Y17">
+        <v>16</v>
+      </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB17">
         <v>-1.7</v>
       </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>4</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1797,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1815,16 +2415,16 @@
         <v>33.3</v>
       </c>
       <c r="O18">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1836,37 +2436,76 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <v>3</v>
       </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB18">
+        <v>-1.3</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>70817</v>
+        <v>49204</v>
       </c>
       <c r="D19">
-        <v>10116.7</v>
+        <v>7029.1</v>
       </c>
       <c r="E19">
-        <v>25877.1</v>
+        <v>17887.6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1878,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="J19">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K19">
         <v>7</v>
       </c>
       <c r="L19">
-        <v>35408.5</v>
+        <v>24602</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -1896,16 +2535,16 @@
         <v>28.6</v>
       </c>
       <c r="O19">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="P19">
-        <v>675</v>
+        <v>21295</v>
       </c>
       <c r="Q19">
-        <v>96.40000000000001</v>
+        <v>3042.1</v>
       </c>
       <c r="R19">
-        <v>255.1</v>
+        <v>7869</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1917,333 +2556,489 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>205.5</v>
       </c>
       <c r="W19">
-        <v>675</v>
+        <v>20884</v>
       </c>
       <c r="X19">
         <v>7</v>
       </c>
       <c r="Y19">
+        <v>10647.5</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>28.6</v>
+      </c>
+      <c r="AB19">
+        <v>-1.6</v>
+      </c>
+      <c r="AC19">
         <v>675</v>
       </c>
-      <c r="Z19">
+      <c r="AD19">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>255.1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>675</v>
+      </c>
+      <c r="AK19">
+        <v>7</v>
+      </c>
+      <c r="AL19">
+        <v>675</v>
+      </c>
+      <c r="AM19">
         <v>1</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>14.3</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>102565</v>
+        <v>31393</v>
       </c>
       <c r="D20">
-        <v>10256.5</v>
+        <v>3139.3</v>
       </c>
       <c r="E20">
-        <v>7972.5</v>
+        <v>3334.9</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5734.8</v>
+        <v>375</v>
       </c>
       <c r="H20">
-        <v>9856</v>
+        <v>2555.5</v>
       </c>
       <c r="I20">
-        <v>13079.8</v>
+        <v>4353.8</v>
       </c>
       <c r="J20">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K20">
         <v>10</v>
       </c>
       <c r="L20">
-        <v>11396.1</v>
+        <v>4484.7</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O20">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="P20">
-        <v>10253</v>
+        <v>56883</v>
       </c>
       <c r="Q20">
-        <v>1025.3</v>
+        <v>5688.3</v>
       </c>
       <c r="R20">
-        <v>995.4</v>
+        <v>5945.6</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>72.8</v>
+        <v>687.8</v>
       </c>
       <c r="U20">
-        <v>992</v>
+        <v>4321</v>
       </c>
       <c r="V20">
-        <v>1514.5</v>
+        <v>7609.8</v>
       </c>
       <c r="W20">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X20">
         <v>10</v>
       </c>
       <c r="Y20">
+        <v>7110.4</v>
+      </c>
+      <c r="Z20">
+        <v>8</v>
+      </c>
+      <c r="AA20">
+        <v>80</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>10253</v>
+      </c>
+      <c r="AD20">
+        <v>1025.3</v>
+      </c>
+      <c r="AE20">
+        <v>995.4</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>72.8</v>
+      </c>
+      <c r="AH20">
+        <v>992</v>
+      </c>
+      <c r="AI20">
+        <v>1514.5</v>
+      </c>
+      <c r="AJ20">
+        <v>2991</v>
+      </c>
+      <c r="AK20">
+        <v>10</v>
+      </c>
+      <c r="AL20">
         <v>1464.7</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>7</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>70</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>194449</v>
+        <v>120283</v>
       </c>
       <c r="D21">
-        <v>4629.7</v>
+        <v>2863.9</v>
       </c>
       <c r="E21">
-        <v>7168.2</v>
+        <v>4508.3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>542.5</v>
+        <v>199.5</v>
       </c>
       <c r="H21">
-        <v>1570.5</v>
+        <v>1089.5</v>
       </c>
       <c r="I21">
-        <v>5097.5</v>
+        <v>3101.8</v>
       </c>
       <c r="J21">
-        <v>31042</v>
+        <v>19900</v>
       </c>
       <c r="K21">
         <v>42</v>
       </c>
       <c r="L21">
-        <v>5255.4</v>
+        <v>3537.7</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N21">
-        <v>88.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P21">
-        <v>27006</v>
+        <v>71786</v>
       </c>
       <c r="Q21">
-        <v>643</v>
+        <v>1709.2</v>
       </c>
       <c r="R21">
-        <v>640.9</v>
+        <v>3564.4</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="U21">
-        <v>555</v>
+        <v>341.5</v>
       </c>
       <c r="V21">
-        <v>1054</v>
+        <v>1921.2</v>
       </c>
       <c r="W21">
-        <v>2421</v>
+        <v>20111</v>
       </c>
       <c r="X21">
         <v>42</v>
       </c>
       <c r="Y21">
+        <v>1994.1</v>
+      </c>
+      <c r="Z21">
+        <v>36</v>
+      </c>
+      <c r="AA21">
+        <v>85.7</v>
+      </c>
+      <c r="AB21">
+        <v>1.3</v>
+      </c>
+      <c r="AC21">
+        <v>27006</v>
+      </c>
+      <c r="AD21">
+        <v>643</v>
+      </c>
+      <c r="AE21">
+        <v>640.9</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>555</v>
+      </c>
+      <c r="AI21">
+        <v>1054</v>
+      </c>
+      <c r="AJ21">
+        <v>2421</v>
+      </c>
+      <c r="AK21">
+        <v>42</v>
+      </c>
+      <c r="AL21">
         <v>900.2</v>
       </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>30</v>
       </c>
-      <c r="AA21">
+      <c r="AN21">
         <v>71.40000000000001</v>
       </c>
-      <c r="AB21">
+      <c r="AO21">
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>132060</v>
+        <v>68998</v>
       </c>
       <c r="D22">
-        <v>2539.6</v>
+        <v>1326.9</v>
       </c>
       <c r="E22">
-        <v>4134.9</v>
+        <v>1160.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>715.5</v>
+        <v>480.5</v>
       </c>
       <c r="H22">
-        <v>1736.5</v>
+        <v>1131</v>
       </c>
       <c r="I22">
-        <v>2416.8</v>
+        <v>1707.5</v>
       </c>
       <c r="J22">
-        <v>23831</v>
+        <v>5179</v>
       </c>
       <c r="K22">
         <v>52</v>
       </c>
       <c r="L22">
-        <v>2641.2</v>
+        <v>1437.5</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N22">
-        <v>96.2</v>
+        <v>92.3</v>
       </c>
       <c r="O22">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="P22">
-        <v>20808</v>
+        <v>19838</v>
       </c>
       <c r="Q22">
-        <v>400.2</v>
+        <v>381.5</v>
       </c>
       <c r="R22">
-        <v>465.2</v>
+        <v>427.9</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>83.8</v>
       </c>
       <c r="U22">
-        <v>379.5</v>
+        <v>255.5</v>
       </c>
       <c r="V22">
-        <v>701.5</v>
+        <v>492.2</v>
       </c>
       <c r="W22">
-        <v>1678</v>
+        <v>1945</v>
       </c>
       <c r="X22">
         <v>52</v>
       </c>
       <c r="Y22">
+        <v>413.3</v>
+      </c>
+      <c r="Z22">
+        <v>48</v>
+      </c>
+      <c r="AA22">
+        <v>92.3</v>
+      </c>
+      <c r="AB22">
+        <v>1.6</v>
+      </c>
+      <c r="AC22">
+        <v>20808</v>
+      </c>
+      <c r="AD22">
+        <v>400.2</v>
+      </c>
+      <c r="AE22">
+        <v>465.2</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>379.5</v>
+      </c>
+      <c r="AI22">
+        <v>701.5</v>
+      </c>
+      <c r="AJ22">
+        <v>1678</v>
+      </c>
+      <c r="AK22">
+        <v>52</v>
+      </c>
+      <c r="AL22">
         <v>717.5</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>29</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>55.8</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>357062</v>
+        <v>100042</v>
       </c>
       <c r="D23">
-        <v>2975.5</v>
+        <v>833.7</v>
       </c>
       <c r="E23">
-        <v>5953.3</v>
+        <v>1198</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>688.5</v>
+        <v>309</v>
       </c>
       <c r="I23">
-        <v>2821</v>
+        <v>1282.8</v>
       </c>
       <c r="J23">
-        <v>38400</v>
+        <v>5627</v>
       </c>
       <c r="K23">
         <v>120</v>
       </c>
       <c r="L23">
-        <v>3923.8</v>
+        <v>1282.6</v>
       </c>
       <c r="M23">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N23">
-        <v>75.8</v>
+        <v>65</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P23">
-        <v>41014</v>
+        <v>47804</v>
       </c>
       <c r="Q23">
-        <v>341.8</v>
+        <v>398.4</v>
       </c>
       <c r="R23">
-        <v>825</v>
+        <v>1266.1</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2252,43 +3047,82 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V23">
-        <v>498.5</v>
+        <v>234.5</v>
       </c>
       <c r="W23">
-        <v>7154</v>
+        <v>9196</v>
       </c>
       <c r="X23">
         <v>120</v>
       </c>
       <c r="Y23">
+        <v>612.9</v>
+      </c>
+      <c r="Z23">
+        <v>78</v>
+      </c>
+      <c r="AA23">
+        <v>65</v>
+      </c>
+      <c r="AB23">
+        <v>0.2</v>
+      </c>
+      <c r="AC23">
+        <v>41014</v>
+      </c>
+      <c r="AD23">
+        <v>341.8</v>
+      </c>
+      <c r="AE23">
+        <v>825</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>498.5</v>
+      </c>
+      <c r="AJ23">
+        <v>7154</v>
+      </c>
+      <c r="AK23">
+        <v>120</v>
+      </c>
+      <c r="AL23">
         <v>891.6</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>46</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>38.3</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>-0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>14662</v>
+        <v>4303</v>
       </c>
       <c r="D24">
-        <v>1047.3</v>
+        <v>307.4</v>
       </c>
       <c r="E24">
-        <v>2447</v>
+        <v>468</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2297,37 +3131,37 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>1118.2</v>
+        <v>610</v>
       </c>
       <c r="J24">
-        <v>9326</v>
+        <v>1343</v>
       </c>
       <c r="K24">
         <v>14</v>
       </c>
       <c r="L24">
-        <v>1629.1</v>
+        <v>537.9</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>64.3</v>
+        <v>57.1</v>
       </c>
       <c r="O24">
         <v>-0.1</v>
       </c>
       <c r="P24">
-        <v>16576</v>
+        <v>1023</v>
       </c>
       <c r="Q24">
-        <v>1184</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="R24">
-        <v>2932.9</v>
+        <v>144.3</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2336,66 +3170,105 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>23.2</v>
+        <v>94.5</v>
       </c>
       <c r="W24">
-        <v>8880</v>
+        <v>531</v>
       </c>
       <c r="X24">
         <v>14</v>
       </c>
       <c r="Y24">
-        <v>4144</v>
+        <v>146.1</v>
       </c>
       <c r="Z24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA24">
-        <v>28.6</v>
+        <v>50</v>
       </c>
       <c r="AB24">
         <v>-0.5</v>
       </c>
+      <c r="AC24">
+        <v>16576</v>
+      </c>
+      <c r="AD24">
+        <v>1184</v>
+      </c>
+      <c r="AE24">
+        <v>2932.9</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>23.2</v>
+      </c>
+      <c r="AJ24">
+        <v>8880</v>
+      </c>
+      <c r="AK24">
+        <v>14</v>
+      </c>
+      <c r="AL24">
+        <v>4144</v>
+      </c>
+      <c r="AM24">
+        <v>4</v>
+      </c>
+      <c r="AN24">
+        <v>28.6</v>
+      </c>
+      <c r="AO24">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>38846</v>
+        <v>26445</v>
       </c>
       <c r="D25">
-        <v>1253.1</v>
+        <v>853.1</v>
       </c>
       <c r="E25">
-        <v>1170</v>
+        <v>799.5</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>74.5</v>
+        <v>64.5</v>
       </c>
       <c r="H25">
-        <v>1125</v>
+        <v>898</v>
       </c>
       <c r="I25">
-        <v>1898.5</v>
+        <v>1237</v>
       </c>
       <c r="J25">
-        <v>3384</v>
+        <v>2868</v>
       </c>
       <c r="K25">
         <v>31</v>
       </c>
       <c r="L25">
-        <v>1689</v>
+        <v>1149.8</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -2404,145 +3277,223 @@
         <v>74.2</v>
       </c>
       <c r="O25">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P25">
-        <v>16513</v>
+        <v>12271</v>
       </c>
       <c r="Q25">
-        <v>532.7</v>
+        <v>395.8</v>
       </c>
       <c r="R25">
-        <v>476.4</v>
+        <v>542</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U25">
-        <v>537</v>
+        <v>220</v>
       </c>
       <c r="V25">
-        <v>773.5</v>
+        <v>442.5</v>
       </c>
       <c r="W25">
-        <v>1515</v>
+        <v>1866</v>
       </c>
       <c r="X25">
         <v>31</v>
       </c>
       <c r="Y25">
+        <v>533.5</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+      <c r="AA25">
+        <v>74.2</v>
+      </c>
+      <c r="AB25">
+        <v>0.7</v>
+      </c>
+      <c r="AC25">
+        <v>16513</v>
+      </c>
+      <c r="AD25">
+        <v>532.7</v>
+      </c>
+      <c r="AE25">
+        <v>476.4</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>537</v>
+      </c>
+      <c r="AI25">
+        <v>773.5</v>
+      </c>
+      <c r="AJ25">
+        <v>1515</v>
+      </c>
+      <c r="AK25">
+        <v>31</v>
+      </c>
+      <c r="AL25">
         <v>786.3</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>21</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>67.7</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>13094</v>
+        <v>10939</v>
       </c>
       <c r="D26">
-        <v>503.6</v>
+        <v>420.7</v>
       </c>
       <c r="E26">
-        <v>648</v>
+        <v>567</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>303.5</v>
+        <v>242</v>
       </c>
       <c r="I26">
-        <v>706.8</v>
+        <v>557.5</v>
       </c>
       <c r="J26">
-        <v>2288</v>
+        <v>2057</v>
       </c>
       <c r="K26">
         <v>26</v>
       </c>
       <c r="L26">
-        <v>689.2</v>
+        <v>643.5</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N26">
-        <v>73.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="O26">
         <v>0.3</v>
       </c>
       <c r="P26">
-        <v>8870</v>
+        <v>2109</v>
       </c>
       <c r="Q26">
-        <v>341.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="R26">
-        <v>475.1</v>
+        <v>120.7</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U26">
-        <v>42.5</v>
+        <v>27.5</v>
       </c>
       <c r="V26">
-        <v>564</v>
+        <v>109.8</v>
       </c>
       <c r="W26">
-        <v>1492</v>
+        <v>452</v>
       </c>
       <c r="X26">
         <v>26</v>
       </c>
       <c r="Y26">
+        <v>111</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+      <c r="AA26">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="AB26">
+        <v>0.6</v>
+      </c>
+      <c r="AC26">
+        <v>8870</v>
+      </c>
+      <c r="AD26">
+        <v>341.2</v>
+      </c>
+      <c r="AE26">
+        <v>475.1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>42.5</v>
+      </c>
+      <c r="AI26">
+        <v>564</v>
+      </c>
+      <c r="AJ26">
+        <v>1492</v>
+      </c>
+      <c r="AK26">
+        <v>26</v>
+      </c>
+      <c r="AL26">
         <v>682.3</v>
       </c>
-      <c r="Z26">
+      <c r="AM26">
         <v>13</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>50</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>97383</v>
+        <v>20980</v>
       </c>
       <c r="D27">
-        <v>2562.7</v>
+        <v>552.1</v>
       </c>
       <c r="E27">
-        <v>5434</v>
+        <v>1030.6</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2551,37 +3502,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>277</v>
+        <v>79.5</v>
       </c>
       <c r="I27">
-        <v>1551.5</v>
+        <v>560</v>
       </c>
       <c r="J27">
-        <v>26102</v>
+        <v>4347</v>
       </c>
       <c r="K27">
         <v>38</v>
       </c>
       <c r="L27">
-        <v>3895.3</v>
+        <v>1049</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>65.8</v>
+        <v>52.6</v>
       </c>
       <c r="O27">
-        <v>-0</v>
+        <v>-0.4</v>
       </c>
       <c r="P27">
-        <v>8995</v>
+        <v>4718</v>
       </c>
       <c r="Q27">
-        <v>236.7</v>
+        <v>124.2</v>
       </c>
       <c r="R27">
-        <v>519.6</v>
+        <v>245.4</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2590,213 +3541,330 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>81</v>
+        <v>58.2</v>
       </c>
       <c r="W27">
-        <v>1774</v>
+        <v>898</v>
       </c>
       <c r="X27">
         <v>38</v>
       </c>
       <c r="Y27">
+        <v>224.7</v>
+      </c>
+      <c r="Z27">
+        <v>21</v>
+      </c>
+      <c r="AA27">
+        <v>55.3</v>
+      </c>
+      <c r="AB27">
+        <v>-0.2</v>
+      </c>
+      <c r="AC27">
+        <v>8995</v>
+      </c>
+      <c r="AD27">
+        <v>236.7</v>
+      </c>
+      <c r="AE27">
+        <v>519.6</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>81</v>
+      </c>
+      <c r="AJ27">
+        <v>1774</v>
+      </c>
+      <c r="AK27">
+        <v>38</v>
+      </c>
+      <c r="AL27">
         <v>899.5</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>10</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>26.3</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>87295</v>
+        <v>10828</v>
       </c>
       <c r="D28">
-        <v>8729.5</v>
+        <v>1082.8</v>
       </c>
       <c r="E28">
-        <v>23272.5</v>
+        <v>2441</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>13.8</v>
+        <v>1.2</v>
       </c>
       <c r="H28">
-        <v>120.5</v>
+        <v>49.5</v>
       </c>
       <c r="I28">
-        <v>2323</v>
+        <v>249</v>
       </c>
       <c r="J28">
-        <v>74441</v>
+        <v>7613</v>
       </c>
       <c r="K28">
         <v>10</v>
       </c>
       <c r="L28">
-        <v>10911.9</v>
+        <v>1546.9</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O28">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P28">
-        <v>1059</v>
+        <v>2018</v>
       </c>
       <c r="Q28">
-        <v>105.9</v>
+        <v>201.8</v>
       </c>
       <c r="R28">
-        <v>223.8</v>
+        <v>518</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="V28">
-        <v>91.5</v>
+        <v>24.8</v>
       </c>
       <c r="W28">
-        <v>702</v>
+        <v>1654</v>
       </c>
       <c r="X28">
         <v>10</v>
       </c>
       <c r="Y28">
+        <v>288.3</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>70</v>
+      </c>
+      <c r="AB28">
+        <v>0.5</v>
+      </c>
+      <c r="AC28">
+        <v>1059</v>
+      </c>
+      <c r="AD28">
+        <v>105.9</v>
+      </c>
+      <c r="AE28">
+        <v>223.8</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>91.5</v>
+      </c>
+      <c r="AJ28">
+        <v>702</v>
+      </c>
+      <c r="AK28">
+        <v>10</v>
+      </c>
+      <c r="AL28">
         <v>353</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>3</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>30</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>145263</v>
+        <v>89453</v>
       </c>
       <c r="D29">
-        <v>2905.3</v>
+        <v>1789.1</v>
       </c>
       <c r="E29">
-        <v>3932.4</v>
+        <v>1870</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>722.2</v>
+        <v>416.8</v>
       </c>
       <c r="H29">
-        <v>1798</v>
+        <v>1097</v>
       </c>
       <c r="I29">
-        <v>3482.8</v>
+        <v>2668.8</v>
       </c>
       <c r="J29">
-        <v>22875</v>
+        <v>7874</v>
       </c>
       <c r="K29">
         <v>50</v>
       </c>
       <c r="L29">
-        <v>3157.9</v>
+        <v>2129.8</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N29">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O29">
         <v>1.2</v>
       </c>
       <c r="P29">
-        <v>32228</v>
+        <v>49334</v>
       </c>
       <c r="Q29">
-        <v>644.6</v>
+        <v>986.7</v>
       </c>
       <c r="R29">
-        <v>765.3</v>
+        <v>2828.9</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>106.2</v>
       </c>
       <c r="U29">
-        <v>539</v>
+        <v>329</v>
       </c>
       <c r="V29">
-        <v>797.2</v>
+        <v>763.2</v>
       </c>
       <c r="W29">
-        <v>4241</v>
+        <v>19557</v>
       </c>
       <c r="X29">
         <v>50</v>
       </c>
       <c r="Y29">
+        <v>1096.3</v>
+      </c>
+      <c r="Z29">
+        <v>45</v>
+      </c>
+      <c r="AA29">
+        <v>90</v>
+      </c>
+      <c r="AB29">
+        <v>1.5</v>
+      </c>
+      <c r="AC29">
+        <v>32228</v>
+      </c>
+      <c r="AD29">
+        <v>644.6</v>
+      </c>
+      <c r="AE29">
+        <v>765.3</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>539</v>
+      </c>
+      <c r="AI29">
+        <v>797.2</v>
+      </c>
+      <c r="AJ29">
+        <v>4241</v>
+      </c>
+      <c r="AK29">
+        <v>50</v>
+      </c>
+      <c r="AL29">
         <v>895.2</v>
       </c>
-      <c r="Z29">
+      <c r="AM29">
         <v>36</v>
       </c>
-      <c r="AA29">
+      <c r="AN29">
         <v>72</v>
       </c>
-      <c r="AB29">
+      <c r="AO29">
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>121552</v>
+        <v>55642</v>
       </c>
       <c r="D30">
-        <v>1464.5</v>
+        <v>670.4</v>
       </c>
       <c r="E30">
-        <v>2535.1</v>
+        <v>1053.1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2805,37 +3873,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="I30">
-        <v>1693</v>
+        <v>955.5</v>
       </c>
       <c r="J30">
-        <v>15154</v>
+        <v>4331</v>
       </c>
       <c r="K30">
         <v>83</v>
       </c>
       <c r="L30">
-        <v>2132.5</v>
+        <v>1112.8</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>68.7</v>
+        <v>60.2</v>
       </c>
       <c r="O30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>47452</v>
+        <v>15884</v>
       </c>
       <c r="Q30">
-        <v>571.7</v>
+        <v>191.4</v>
       </c>
       <c r="R30">
-        <v>1065.7</v>
+        <v>364.4</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2844,43 +3912,82 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="V30">
-        <v>670</v>
+        <v>187</v>
       </c>
       <c r="W30">
-        <v>6327</v>
+        <v>1766</v>
       </c>
       <c r="X30">
         <v>83</v>
       </c>
       <c r="Y30">
+        <v>317.7</v>
+      </c>
+      <c r="Z30">
+        <v>50</v>
+      </c>
+      <c r="AA30">
+        <v>60.2</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>47452</v>
+      </c>
+      <c r="AD30">
+        <v>571.7</v>
+      </c>
+      <c r="AE30">
+        <v>1065.7</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>96</v>
+      </c>
+      <c r="AI30">
+        <v>670</v>
+      </c>
+      <c r="AJ30">
+        <v>6327</v>
+      </c>
+      <c r="AK30">
+        <v>83</v>
+      </c>
+      <c r="AL30">
         <v>1129.8</v>
       </c>
-      <c r="Z30">
+      <c r="AM30">
         <v>42</v>
       </c>
-      <c r="AA30">
+      <c r="AN30">
         <v>50.6</v>
       </c>
-      <c r="AB30">
+      <c r="AO30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:41">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>165474</v>
+        <v>62653</v>
       </c>
       <c r="D31">
-        <v>1518.1</v>
+        <v>574.8</v>
       </c>
       <c r="E31">
-        <v>3566.4</v>
+        <v>1535.8</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2889,37 +3996,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="I31">
-        <v>1067</v>
+        <v>593</v>
       </c>
       <c r="J31">
-        <v>20276</v>
+        <v>14101</v>
       </c>
       <c r="K31">
         <v>109</v>
       </c>
       <c r="L31">
-        <v>2094.6</v>
+        <v>935.1</v>
       </c>
       <c r="M31">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N31">
-        <v>72.5</v>
+        <v>61.5</v>
       </c>
       <c r="O31">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P31">
-        <v>34480</v>
+        <v>15061</v>
       </c>
       <c r="Q31">
-        <v>316.3</v>
+        <v>138.2</v>
       </c>
       <c r="R31">
-        <v>554.6</v>
+        <v>334</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2928,82 +4035,121 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V31">
-        <v>458</v>
+        <v>88</v>
       </c>
       <c r="W31">
-        <v>3550</v>
+        <v>1921</v>
       </c>
       <c r="X31">
         <v>109</v>
       </c>
       <c r="Y31">
+        <v>212.1</v>
+      </c>
+      <c r="Z31">
+        <v>71</v>
+      </c>
+      <c r="AA31">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AB31">
+        <v>0.2</v>
+      </c>
+      <c r="AC31">
+        <v>34480</v>
+      </c>
+      <c r="AD31">
+        <v>316.3</v>
+      </c>
+      <c r="AE31">
+        <v>554.6</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>458</v>
+      </c>
+      <c r="AJ31">
+        <v>3550</v>
+      </c>
+      <c r="AK31">
+        <v>109</v>
+      </c>
+      <c r="AL31">
         <v>676.1</v>
       </c>
-      <c r="Z31">
+      <c r="AM31">
         <v>51</v>
       </c>
-      <c r="AA31">
+      <c r="AN31">
         <v>46.8</v>
       </c>
-      <c r="AB31">
+      <c r="AO31">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:41">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>48541</v>
+        <v>1060</v>
       </c>
       <c r="D32">
-        <v>9708.200000000001</v>
+        <v>212</v>
       </c>
       <c r="E32">
-        <v>20937.3</v>
+        <v>235.5</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="I32">
-        <v>845</v>
+        <v>257</v>
       </c>
       <c r="J32">
-        <v>47158</v>
+        <v>572</v>
       </c>
       <c r="K32">
         <v>5</v>
       </c>
       <c r="L32">
-        <v>12135.2</v>
+        <v>353.3</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O32">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>21467</v>
+        <v>323</v>
       </c>
       <c r="Q32">
-        <v>4293.4</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="R32">
-        <v>8927.5</v>
+        <v>118.3</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3012,19 +4158,19 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="V32">
-        <v>1012</v>
+        <v>42</v>
       </c>
       <c r="W32">
-        <v>20246</v>
+        <v>274</v>
       </c>
       <c r="X32">
         <v>5</v>
       </c>
       <c r="Y32">
-        <v>7155.7</v>
+        <v>107.7</v>
       </c>
       <c r="Z32">
         <v>3</v>
@@ -3033,45 +4179,84 @@
         <v>60</v>
       </c>
       <c r="AB32">
+        <v>-0</v>
+      </c>
+      <c r="AC32">
+        <v>21467</v>
+      </c>
+      <c r="AD32">
+        <v>4293.4</v>
+      </c>
+      <c r="AE32">
+        <v>8927.5</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>209</v>
+      </c>
+      <c r="AI32">
+        <v>1012</v>
+      </c>
+      <c r="AJ32">
+        <v>20246</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>7155.7</v>
+      </c>
+      <c r="AM32">
+        <v>3</v>
+      </c>
+      <c r="AN32">
+        <v>60</v>
+      </c>
+      <c r="AO32">
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>8333</v>
+        <v>5968</v>
       </c>
       <c r="D33">
-        <v>1190.4</v>
+        <v>852.6</v>
       </c>
       <c r="E33">
-        <v>898.8</v>
+        <v>564.6</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>666</v>
+        <v>566.5</v>
       </c>
       <c r="H33">
-        <v>1073</v>
+        <v>874</v>
       </c>
       <c r="I33">
-        <v>1686</v>
+        <v>1096</v>
       </c>
       <c r="J33">
-        <v>2556</v>
+        <v>1769</v>
       </c>
       <c r="K33">
         <v>7</v>
       </c>
       <c r="L33">
-        <v>1388.8</v>
+        <v>994.7</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -3080,37 +4265,37 @@
         <v>85.7</v>
       </c>
       <c r="O33">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="P33">
-        <v>4692</v>
+        <v>2354</v>
       </c>
       <c r="Q33">
-        <v>670.3</v>
+        <v>336.3</v>
       </c>
       <c r="R33">
-        <v>396.1</v>
+        <v>363.1</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>519</v>
+        <v>96</v>
       </c>
       <c r="U33">
-        <v>736</v>
+        <v>199</v>
       </c>
       <c r="V33">
-        <v>813</v>
+        <v>524</v>
       </c>
       <c r="W33">
-        <v>1292</v>
+        <v>915</v>
       </c>
       <c r="X33">
         <v>7</v>
       </c>
       <c r="Y33">
-        <v>782</v>
+        <v>392.3</v>
       </c>
       <c r="Z33">
         <v>6</v>
@@ -3119,22 +4304,61 @@
         <v>85.7</v>
       </c>
       <c r="AB33">
+        <v>1.3</v>
+      </c>
+      <c r="AC33">
+        <v>4692</v>
+      </c>
+      <c r="AD33">
+        <v>670.3</v>
+      </c>
+      <c r="AE33">
+        <v>396.1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>519</v>
+      </c>
+      <c r="AH33">
+        <v>736</v>
+      </c>
+      <c r="AI33">
+        <v>813</v>
+      </c>
+      <c r="AJ33">
+        <v>1292</v>
+      </c>
+      <c r="AK33">
+        <v>7</v>
+      </c>
+      <c r="AL33">
+        <v>782</v>
+      </c>
+      <c r="AM33">
+        <v>6</v>
+      </c>
+      <c r="AN33">
+        <v>85.7</v>
+      </c>
+      <c r="AO33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:41">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>61369</v>
+        <v>18917</v>
       </c>
       <c r="D34">
-        <v>3068.4</v>
+        <v>945.8</v>
       </c>
       <c r="E34">
-        <v>6311.6</v>
+        <v>3297.5</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3143,37 +4367,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1969.8</v>
+        <v>448</v>
       </c>
       <c r="J34">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K34">
         <v>20</v>
       </c>
       <c r="L34">
-        <v>4720.7</v>
+        <v>2101.9</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N34">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O34">
-        <v>-0</v>
+        <v>-0.7</v>
       </c>
       <c r="P34">
-        <v>14717</v>
+        <v>11195</v>
       </c>
       <c r="Q34">
-        <v>735.8</v>
+        <v>559.8</v>
       </c>
       <c r="R34">
-        <v>1863.3</v>
+        <v>2322.5</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3185,40 +4409,79 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>458.2</v>
+        <v>58.8</v>
       </c>
       <c r="W34">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X34">
         <v>20</v>
       </c>
       <c r="Y34">
+        <v>1243.9</v>
+      </c>
+      <c r="Z34">
+        <v>9</v>
+      </c>
+      <c r="AA34">
+        <v>45</v>
+      </c>
+      <c r="AB34">
+        <v>-0.7</v>
+      </c>
+      <c r="AC34">
+        <v>14717</v>
+      </c>
+      <c r="AD34">
+        <v>735.8</v>
+      </c>
+      <c r="AE34">
+        <v>1863.3</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>458.2</v>
+      </c>
+      <c r="AJ34">
+        <v>6887</v>
+      </c>
+      <c r="AK34">
+        <v>20</v>
+      </c>
+      <c r="AL34">
         <v>2102.4</v>
       </c>
-      <c r="Z34">
+      <c r="AM34">
         <v>7</v>
       </c>
-      <c r="AA34">
+      <c r="AN34">
         <v>35</v>
       </c>
-      <c r="AB34">
+      <c r="AO34">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:41">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>73829</v>
+        <v>15544</v>
       </c>
       <c r="D35">
-        <v>1295.2</v>
+        <v>272.7</v>
       </c>
       <c r="E35">
-        <v>4383.8</v>
+        <v>769.7</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3230,34 +4493,34 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="J35">
-        <v>24940</v>
+        <v>4946</v>
       </c>
       <c r="K35">
         <v>57</v>
       </c>
       <c r="L35">
-        <v>2636.8</v>
+        <v>647.7</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>49.1</v>
+        <v>42.1</v>
       </c>
       <c r="O35">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="P35">
-        <v>15200</v>
+        <v>2546</v>
       </c>
       <c r="Q35">
-        <v>266.7</v>
+        <v>44.7</v>
       </c>
       <c r="R35">
-        <v>975</v>
+        <v>103.6</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3269,79 +4532,118 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W35">
-        <v>6887</v>
+        <v>428</v>
       </c>
       <c r="X35">
         <v>57</v>
       </c>
       <c r="Y35">
+        <v>110.7</v>
+      </c>
+      <c r="Z35">
+        <v>23</v>
+      </c>
+      <c r="AA35">
+        <v>40.4</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
+        <v>15200</v>
+      </c>
+      <c r="AD35">
+        <v>266.7</v>
+      </c>
+      <c r="AE35">
+        <v>975</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>6887</v>
+      </c>
+      <c r="AK35">
+        <v>57</v>
+      </c>
+      <c r="AL35">
         <v>1266.7</v>
       </c>
-      <c r="Z35">
+      <c r="AM35">
         <v>12</v>
       </c>
-      <c r="AA35">
+      <c r="AN35">
         <v>21.1</v>
       </c>
-      <c r="AB35">
+      <c r="AO35">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:41">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>38135</v>
+        <v>11337</v>
       </c>
       <c r="D36">
-        <v>3813.5</v>
+        <v>1133.7</v>
       </c>
       <c r="E36">
-        <v>6953.3</v>
+        <v>1795.9</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>138.8</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1390</v>
+        <v>218.5</v>
       </c>
       <c r="I36">
-        <v>3054.2</v>
+        <v>1752</v>
       </c>
       <c r="J36">
-        <v>22835</v>
+        <v>5535</v>
       </c>
       <c r="K36">
         <v>10</v>
       </c>
       <c r="L36">
-        <v>4766.9</v>
+        <v>1889.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O36">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>12079</v>
+        <v>2061</v>
       </c>
       <c r="Q36">
-        <v>1207.9</v>
+        <v>206.1</v>
       </c>
       <c r="R36">
-        <v>2323.9</v>
+        <v>291.2</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3350,150 +4652,228 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>546</v>
+        <v>42</v>
       </c>
       <c r="V36">
-        <v>1061.2</v>
+        <v>428</v>
       </c>
       <c r="W36">
-        <v>7664</v>
+        <v>692</v>
       </c>
       <c r="X36">
         <v>10</v>
       </c>
       <c r="Y36">
+        <v>412.2</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+      <c r="AA36">
+        <v>50</v>
+      </c>
+      <c r="AB36">
+        <v>-0.5</v>
+      </c>
+      <c r="AC36">
+        <v>12079</v>
+      </c>
+      <c r="AD36">
+        <v>1207.9</v>
+      </c>
+      <c r="AE36">
+        <v>2323.9</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>546</v>
+      </c>
+      <c r="AI36">
+        <v>1061.2</v>
+      </c>
+      <c r="AJ36">
+        <v>7664</v>
+      </c>
+      <c r="AK36">
+        <v>10</v>
+      </c>
+      <c r="AL36">
         <v>2013.2</v>
       </c>
-      <c r="Z36">
+      <c r="AM36">
         <v>6</v>
       </c>
-      <c r="AA36">
+      <c r="AN36">
         <v>60</v>
       </c>
-      <c r="AB36">
+      <c r="AO36">
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>8528</v>
+        <v>1171</v>
       </c>
       <c r="D37">
-        <v>4264</v>
+        <v>585.5</v>
       </c>
       <c r="E37">
-        <v>3163.6</v>
+        <v>828</v>
       </c>
       <c r="F37">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>3145.5</v>
+        <v>292.8</v>
       </c>
       <c r="H37">
-        <v>4264</v>
+        <v>585.5</v>
       </c>
       <c r="I37">
-        <v>5382.5</v>
+        <v>878.2</v>
       </c>
       <c r="J37">
-        <v>6501</v>
+        <v>1171</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37">
-        <v>4264</v>
+        <v>1171</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O37">
-        <v>1.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P37">
-        <v>1455</v>
+        <v>847</v>
       </c>
       <c r="Q37">
-        <v>727.5</v>
+        <v>423.5</v>
       </c>
       <c r="R37">
-        <v>470.2</v>
+        <v>598.9</v>
       </c>
       <c r="S37">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>561.2</v>
+        <v>211.8</v>
       </c>
       <c r="U37">
-        <v>727.5</v>
+        <v>423.5</v>
       </c>
       <c r="V37">
-        <v>893.8</v>
+        <v>635.2</v>
       </c>
       <c r="W37">
-        <v>1060</v>
+        <v>847</v>
       </c>
       <c r="X37">
         <v>2</v>
       </c>
       <c r="Y37">
+        <v>847</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>50</v>
+      </c>
+      <c r="AB37">
+        <v>-0.5</v>
+      </c>
+      <c r="AC37">
+        <v>1455</v>
+      </c>
+      <c r="AD37">
         <v>727.5</v>
       </c>
-      <c r="Z37">
+      <c r="AE37">
+        <v>470.2</v>
+      </c>
+      <c r="AF37">
+        <v>395</v>
+      </c>
+      <c r="AG37">
+        <v>561.2</v>
+      </c>
+      <c r="AH37">
+        <v>727.5</v>
+      </c>
+      <c r="AI37">
+        <v>893.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1060</v>
+      </c>
+      <c r="AK37">
         <v>2</v>
       </c>
-      <c r="AA37">
+      <c r="AL37">
+        <v>727.5</v>
+      </c>
+      <c r="AM37">
+        <v>2</v>
+      </c>
+      <c r="AN37">
         <v>100</v>
       </c>
-      <c r="AB37">
+      <c r="AO37">
         <v>2.6</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:41">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>122622</v>
+        <v>82170</v>
       </c>
       <c r="D38">
-        <v>2452.4</v>
+        <v>1643.4</v>
       </c>
       <c r="E38">
-        <v>4184.1</v>
+        <v>2352.7</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>829</v>
+        <v>579.5</v>
       </c>
       <c r="I38">
-        <v>2577.2</v>
+        <v>1929</v>
       </c>
       <c r="J38">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K38">
         <v>50</v>
       </c>
       <c r="L38">
-        <v>3144.2</v>
+        <v>2106.9</v>
       </c>
       <c r="M38">
         <v>39</v>
@@ -3502,61 +4882,100 @@
         <v>78</v>
       </c>
       <c r="O38">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="P38">
-        <v>27953</v>
+        <v>39967</v>
       </c>
       <c r="Q38">
-        <v>559.1</v>
+        <v>799.3</v>
       </c>
       <c r="R38">
-        <v>699</v>
+        <v>1984.7</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U38">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="V38">
-        <v>980.2</v>
+        <v>593</v>
       </c>
       <c r="W38">
-        <v>3210</v>
+        <v>9692</v>
       </c>
       <c r="X38">
         <v>50</v>
       </c>
       <c r="Y38">
+        <v>1051.8</v>
+      </c>
+      <c r="Z38">
+        <v>38</v>
+      </c>
+      <c r="AA38">
+        <v>76</v>
+      </c>
+      <c r="AB38">
+        <v>0.8</v>
+      </c>
+      <c r="AC38">
+        <v>27953</v>
+      </c>
+      <c r="AD38">
+        <v>559.1</v>
+      </c>
+      <c r="AE38">
+        <v>699</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>247</v>
+      </c>
+      <c r="AI38">
+        <v>980.2</v>
+      </c>
+      <c r="AJ38">
+        <v>3210</v>
+      </c>
+      <c r="AK38">
+        <v>50</v>
+      </c>
+      <c r="AL38">
         <v>1035.3</v>
       </c>
-      <c r="Z38">
+      <c r="AM38">
         <v>27</v>
       </c>
-      <c r="AA38">
+      <c r="AN38">
         <v>54</v>
       </c>
-      <c r="AB38">
+      <c r="AO38">
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:41">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>199939</v>
+        <v>61392</v>
       </c>
       <c r="D39">
-        <v>2019.6</v>
+        <v>620.1</v>
       </c>
       <c r="E39">
-        <v>7314.4</v>
+        <v>978</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3565,37 +4984,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>432</v>
+        <v>122</v>
       </c>
       <c r="I39">
-        <v>1397.5</v>
+        <v>875</v>
       </c>
       <c r="J39">
-        <v>68140</v>
+        <v>5691</v>
       </c>
       <c r="K39">
         <v>99</v>
       </c>
       <c r="L39">
-        <v>2984.2</v>
+        <v>1040.5</v>
       </c>
       <c r="M39">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N39">
-        <v>67.7</v>
+        <v>59.6</v>
       </c>
       <c r="O39">
-        <v>0.1</v>
+        <v>-0</v>
       </c>
       <c r="P39">
-        <v>28993</v>
+        <v>11157</v>
       </c>
       <c r="Q39">
-        <v>292.9</v>
+        <v>112.7</v>
       </c>
       <c r="R39">
-        <v>776.1</v>
+        <v>185.9</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3604,43 +5023,82 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V39">
-        <v>350.5</v>
+        <v>164</v>
       </c>
       <c r="W39">
-        <v>6448</v>
+        <v>956</v>
       </c>
       <c r="X39">
         <v>99</v>
       </c>
       <c r="Y39">
+        <v>186</v>
+      </c>
+      <c r="Z39">
+        <v>60</v>
+      </c>
+      <c r="AA39">
+        <v>60.6</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>28993</v>
+      </c>
+      <c r="AD39">
+        <v>292.9</v>
+      </c>
+      <c r="AE39">
+        <v>776.1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>350.5</v>
+      </c>
+      <c r="AJ39">
+        <v>6448</v>
+      </c>
+      <c r="AK39">
+        <v>99</v>
+      </c>
+      <c r="AL39">
         <v>906</v>
       </c>
-      <c r="Z39">
+      <c r="AM39">
         <v>32</v>
       </c>
-      <c r="AA39">
+      <c r="AN39">
         <v>32.3</v>
       </c>
-      <c r="AB39">
+      <c r="AO39">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:41">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>293103</v>
+        <v>155103</v>
       </c>
       <c r="D40">
-        <v>930.5</v>
+        <v>492.4</v>
       </c>
       <c r="E40">
-        <v>3973.8</v>
+        <v>2822.7</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3652,34 +5110,34 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>414.5</v>
+        <v>251.5</v>
       </c>
       <c r="J40">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K40">
         <v>315</v>
       </c>
       <c r="L40">
-        <v>1878.9</v>
+        <v>1115.8</v>
       </c>
       <c r="M40">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="N40">
-        <v>49.5</v>
+        <v>44.1</v>
       </c>
       <c r="O40">
         <v>-0.8</v>
       </c>
       <c r="P40">
-        <v>98493</v>
+        <v>43964</v>
       </c>
       <c r="Q40">
-        <v>312.7</v>
+        <v>139.6</v>
       </c>
       <c r="R40">
-        <v>2147.6</v>
+        <v>689.7</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3691,40 +5149,79 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="W40">
-        <v>36858</v>
+        <v>8505</v>
       </c>
       <c r="X40">
         <v>315</v>
       </c>
       <c r="Y40">
+        <v>305.3</v>
+      </c>
+      <c r="Z40">
+        <v>144</v>
+      </c>
+      <c r="AA40">
+        <v>45.7</v>
+      </c>
+      <c r="AB40">
+        <v>-0.7</v>
+      </c>
+      <c r="AC40">
+        <v>98493</v>
+      </c>
+      <c r="AD40">
+        <v>312.7</v>
+      </c>
+      <c r="AE40">
+        <v>2147.6</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>36858</v>
+      </c>
+      <c r="AK40">
+        <v>315</v>
+      </c>
+      <c r="AL40">
         <v>1492.3</v>
       </c>
-      <c r="Z40">
+      <c r="AM40">
         <v>66</v>
       </c>
-      <c r="AA40">
+      <c r="AN40">
         <v>21</v>
       </c>
-      <c r="AB40">
+      <c r="AO40">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:41">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>20953</v>
+        <v>15705</v>
       </c>
       <c r="D41">
-        <v>748.3</v>
+        <v>560.9</v>
       </c>
       <c r="E41">
-        <v>1405.4</v>
+        <v>952.3</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3733,19 +5230,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>986.5</v>
+        <v>901.8</v>
       </c>
       <c r="J41">
-        <v>6555</v>
+        <v>4124</v>
       </c>
       <c r="K41">
         <v>28</v>
       </c>
       <c r="L41">
-        <v>1396.9</v>
+        <v>1047</v>
       </c>
       <c r="M41">
         <v>15</v>
@@ -3754,16 +5251,16 @@
         <v>53.6</v>
       </c>
       <c r="O41">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="P41">
-        <v>4009</v>
+        <v>5190</v>
       </c>
       <c r="Q41">
-        <v>143.2</v>
+        <v>185.4</v>
       </c>
       <c r="R41">
-        <v>317.6</v>
+        <v>475.5</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3772,213 +5269,330 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V41">
-        <v>15</v>
+        <v>91.5</v>
       </c>
       <c r="W41">
-        <v>1206</v>
+        <v>2400</v>
       </c>
       <c r="X41">
         <v>28</v>
       </c>
       <c r="Y41">
+        <v>346</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+      <c r="AA41">
+        <v>53.6</v>
+      </c>
+      <c r="AB41">
+        <v>-0.3</v>
+      </c>
+      <c r="AC41">
+        <v>4009</v>
+      </c>
+      <c r="AD41">
+        <v>143.2</v>
+      </c>
+      <c r="AE41">
+        <v>317.6</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>15</v>
+      </c>
+      <c r="AJ41">
+        <v>1206</v>
+      </c>
+      <c r="AK41">
+        <v>28</v>
+      </c>
+      <c r="AL41">
         <v>572.7</v>
       </c>
-      <c r="Z41">
+      <c r="AM41">
         <v>7</v>
       </c>
-      <c r="AA41">
+      <c r="AN41">
         <v>25</v>
       </c>
-      <c r="AB41">
+      <c r="AO41">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:41">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>199355</v>
+        <v>117581</v>
       </c>
       <c r="D42">
-        <v>2491.9</v>
+        <v>1469.8</v>
       </c>
       <c r="E42">
-        <v>4105.6</v>
+        <v>2094.6</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>411.8</v>
+        <v>225.8</v>
       </c>
       <c r="H42">
-        <v>765</v>
+        <v>533</v>
       </c>
       <c r="I42">
-        <v>2882.5</v>
+        <v>1915.2</v>
       </c>
       <c r="J42">
-        <v>25838</v>
+        <v>14118</v>
       </c>
       <c r="K42">
         <v>80</v>
       </c>
       <c r="L42">
-        <v>2807.8</v>
+        <v>1729.1</v>
       </c>
       <c r="M42">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N42">
-        <v>88.8</v>
+        <v>85</v>
       </c>
       <c r="O42">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="P42">
-        <v>41183</v>
+        <v>39502</v>
       </c>
       <c r="Q42">
-        <v>514.8</v>
+        <v>493.8</v>
       </c>
       <c r="R42">
-        <v>528.7</v>
+        <v>756.9</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="U42">
-        <v>337</v>
+        <v>200.5</v>
       </c>
       <c r="V42">
-        <v>1030</v>
+        <v>717.2</v>
       </c>
       <c r="W42">
-        <v>1678</v>
+        <v>4156</v>
       </c>
       <c r="X42">
         <v>80</v>
       </c>
       <c r="Y42">
+        <v>572.5</v>
+      </c>
+      <c r="Z42">
+        <v>69</v>
+      </c>
+      <c r="AA42">
+        <v>86.2</v>
+      </c>
+      <c r="AB42">
+        <v>1.3</v>
+      </c>
+      <c r="AC42">
+        <v>41183</v>
+      </c>
+      <c r="AD42">
+        <v>514.8</v>
+      </c>
+      <c r="AE42">
+        <v>528.7</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>337</v>
+      </c>
+      <c r="AI42">
+        <v>1030</v>
+      </c>
+      <c r="AJ42">
+        <v>1678</v>
+      </c>
+      <c r="AK42">
+        <v>80</v>
+      </c>
+      <c r="AL42">
         <v>807.5</v>
       </c>
-      <c r="Z42">
+      <c r="AM42">
         <v>51</v>
       </c>
-      <c r="AA42">
+      <c r="AN42">
         <v>63.7</v>
       </c>
-      <c r="AB42">
+      <c r="AO42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:41">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43">
-        <v>283997</v>
+        <v>151020</v>
       </c>
       <c r="D43">
-        <v>2253.9</v>
+        <v>1198.6</v>
       </c>
       <c r="E43">
-        <v>7128</v>
+        <v>4087.7</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>19.5</v>
+        <v>11.2</v>
       </c>
       <c r="H43">
-        <v>438.5</v>
+        <v>239</v>
       </c>
       <c r="I43">
-        <v>1535.5</v>
+        <v>1083.5</v>
       </c>
       <c r="J43">
-        <v>60386</v>
+        <v>43003</v>
       </c>
       <c r="K43">
         <v>126</v>
       </c>
       <c r="L43">
-        <v>2757.3</v>
+        <v>1556.9</v>
       </c>
       <c r="M43">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N43">
-        <v>81.7</v>
+        <v>77</v>
       </c>
       <c r="O43">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P43">
-        <v>43232</v>
+        <v>76778</v>
       </c>
       <c r="Q43">
-        <v>343.1</v>
+        <v>609.3</v>
       </c>
       <c r="R43">
-        <v>720.7</v>
+        <v>4200.3</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="V43">
-        <v>540</v>
+        <v>200.8</v>
       </c>
       <c r="W43">
-        <v>4996</v>
+        <v>46992</v>
       </c>
       <c r="X43">
         <v>126</v>
       </c>
       <c r="Y43">
+        <v>791.5</v>
+      </c>
+      <c r="Z43">
+        <v>97</v>
+      </c>
+      <c r="AA43">
+        <v>77</v>
+      </c>
+      <c r="AB43">
+        <v>0.8</v>
+      </c>
+      <c r="AC43">
+        <v>43232</v>
+      </c>
+      <c r="AD43">
+        <v>343.1</v>
+      </c>
+      <c r="AE43">
+        <v>720.7</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>540</v>
+      </c>
+      <c r="AJ43">
+        <v>4996</v>
+      </c>
+      <c r="AK43">
+        <v>126</v>
+      </c>
+      <c r="AL43">
         <v>900.7</v>
       </c>
-      <c r="Z43">
+      <c r="AM43">
         <v>48</v>
       </c>
-      <c r="AA43">
+      <c r="AN43">
         <v>38.1</v>
       </c>
-      <c r="AB43">
+      <c r="AO43">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:41">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>377243</v>
+        <v>133468</v>
       </c>
       <c r="D44">
-        <v>1467.9</v>
+        <v>519.3</v>
       </c>
       <c r="E44">
-        <v>6104.2</v>
+        <v>1351.9</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3987,37 +5601,37 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I44">
-        <v>690</v>
+        <v>441</v>
       </c>
       <c r="J44">
-        <v>72982</v>
+        <v>13896</v>
       </c>
       <c r="K44">
         <v>257</v>
       </c>
       <c r="L44">
-        <v>2357.8</v>
+        <v>920.5</v>
       </c>
       <c r="M44">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N44">
-        <v>62.3</v>
+        <v>56.4</v>
       </c>
       <c r="O44">
         <v>-0.2</v>
       </c>
       <c r="P44">
-        <v>46032</v>
+        <v>38267</v>
       </c>
       <c r="Q44">
-        <v>179.1</v>
+        <v>148.9</v>
       </c>
       <c r="R44">
-        <v>558.1</v>
+        <v>533</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4026,43 +5640,82 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="W44">
-        <v>6047</v>
+        <v>6504</v>
       </c>
       <c r="X44">
         <v>257</v>
       </c>
       <c r="Y44">
+        <v>265.7</v>
+      </c>
+      <c r="Z44">
+        <v>144</v>
+      </c>
+      <c r="AA44">
+        <v>56</v>
+      </c>
+      <c r="AB44">
+        <v>-0.2</v>
+      </c>
+      <c r="AC44">
+        <v>46032</v>
+      </c>
+      <c r="AD44">
+        <v>179.1</v>
+      </c>
+      <c r="AE44">
+        <v>558.1</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>6047</v>
+      </c>
+      <c r="AK44">
+        <v>257</v>
+      </c>
+      <c r="AL44">
         <v>807.6</v>
       </c>
-      <c r="Z44">
+      <c r="AM44">
         <v>57</v>
       </c>
-      <c r="AA44">
+      <c r="AN44">
         <v>22.2</v>
       </c>
-      <c r="AB44">
+      <c r="AO44">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:41">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>5008</v>
+        <v>4341</v>
       </c>
       <c r="D45">
-        <v>417.3</v>
+        <v>361.8</v>
       </c>
       <c r="E45">
-        <v>564.5</v>
+        <v>485.6</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4071,19 +5724,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>57.5</v>
+        <v>52.5</v>
       </c>
       <c r="I45">
-        <v>711.2</v>
+        <v>647</v>
       </c>
       <c r="J45">
-        <v>1403</v>
+        <v>1261</v>
       </c>
       <c r="K45">
         <v>12</v>
       </c>
       <c r="L45">
-        <v>715.4</v>
+        <v>620.1</v>
       </c>
       <c r="M45">
         <v>7</v>
@@ -4092,16 +5745,16 @@
         <v>58.3</v>
       </c>
       <c r="O45">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="P45">
-        <v>3899</v>
+        <v>662</v>
       </c>
       <c r="Q45">
-        <v>324.9</v>
+        <v>55.2</v>
       </c>
       <c r="R45">
-        <v>518.9</v>
+        <v>90.5</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4110,129 +5763,207 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V45">
-        <v>592.2</v>
+        <v>71.8</v>
       </c>
       <c r="W45">
-        <v>1367</v>
+        <v>300</v>
       </c>
       <c r="X45">
         <v>12</v>
       </c>
       <c r="Y45">
+        <v>110.3</v>
+      </c>
+      <c r="Z45">
+        <v>6</v>
+      </c>
+      <c r="AA45">
+        <v>50</v>
+      </c>
+      <c r="AB45">
+        <v>-0.5</v>
+      </c>
+      <c r="AC45">
+        <v>3899</v>
+      </c>
+      <c r="AD45">
+        <v>324.9</v>
+      </c>
+      <c r="AE45">
+        <v>518.9</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>592.2</v>
+      </c>
+      <c r="AJ45">
+        <v>1367</v>
+      </c>
+      <c r="AK45">
+        <v>12</v>
+      </c>
+      <c r="AL45">
         <v>974.8</v>
       </c>
-      <c r="Z45">
+      <c r="AM45">
         <v>4</v>
       </c>
-      <c r="AA45">
+      <c r="AN45">
         <v>33.3</v>
       </c>
-      <c r="AB45">
+      <c r="AO45">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>66939</v>
+        <v>45944</v>
       </c>
       <c r="D46">
-        <v>1154.1</v>
+        <v>792.1</v>
       </c>
       <c r="E46">
-        <v>1624.5</v>
+        <v>868.1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>65</v>
+        <v>52.5</v>
       </c>
       <c r="H46">
-        <v>688.5</v>
+        <v>500</v>
       </c>
       <c r="I46">
-        <v>1401.2</v>
+        <v>1043.5</v>
       </c>
       <c r="J46">
-        <v>10420</v>
+        <v>4076</v>
       </c>
       <c r="K46">
         <v>58</v>
       </c>
       <c r="L46">
-        <v>1424.2</v>
+        <v>1021</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N46">
-        <v>81</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="O46">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P46">
-        <v>25989</v>
+        <v>20823</v>
       </c>
       <c r="Q46">
-        <v>448.1</v>
+        <v>359</v>
       </c>
       <c r="R46">
-        <v>492.1</v>
+        <v>1008.4</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="U46">
-        <v>416.5</v>
+        <v>132.5</v>
       </c>
       <c r="V46">
-        <v>729.8</v>
+        <v>369.5</v>
       </c>
       <c r="W46">
-        <v>2597</v>
+        <v>7636</v>
       </c>
       <c r="X46">
         <v>58</v>
       </c>
       <c r="Y46">
+        <v>443</v>
+      </c>
+      <c r="Z46">
+        <v>47</v>
+      </c>
+      <c r="AA46">
+        <v>81</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>25989</v>
+      </c>
+      <c r="AD46">
+        <v>448.1</v>
+      </c>
+      <c r="AE46">
+        <v>492.1</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>416.5</v>
+      </c>
+      <c r="AI46">
+        <v>729.8</v>
+      </c>
+      <c r="AJ46">
+        <v>2597</v>
+      </c>
+      <c r="AK46">
+        <v>58</v>
+      </c>
+      <c r="AL46">
         <v>683.9</v>
       </c>
-      <c r="Z46">
+      <c r="AM46">
         <v>38</v>
       </c>
-      <c r="AA46">
+      <c r="AN46">
         <v>65.5</v>
       </c>
-      <c r="AB46">
+      <c r="AO46">
         <v>1.1</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:41">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>86389</v>
+        <v>55374</v>
       </c>
       <c r="D47">
-        <v>757.8</v>
+        <v>485.7</v>
       </c>
       <c r="E47">
-        <v>1459.4</v>
+        <v>807.9</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4241,37 +5972,37 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>132</v>
+        <v>85.5</v>
       </c>
       <c r="I47">
-        <v>823.2</v>
+        <v>599.2</v>
       </c>
       <c r="J47">
-        <v>10869</v>
+        <v>3391</v>
       </c>
       <c r="K47">
         <v>114</v>
       </c>
       <c r="L47">
-        <v>1121.9</v>
+        <v>769.1</v>
       </c>
       <c r="M47">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N47">
-        <v>67.5</v>
+        <v>63.2</v>
       </c>
       <c r="O47">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P47">
-        <v>74796</v>
+        <v>10465</v>
       </c>
       <c r="Q47">
-        <v>656.1</v>
+        <v>91.8</v>
       </c>
       <c r="R47">
-        <v>3476.1</v>
+        <v>186.5</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -4280,43 +6011,82 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V47">
-        <v>587.5</v>
+        <v>103.8</v>
       </c>
       <c r="W47">
-        <v>36948</v>
+        <v>1458</v>
       </c>
       <c r="X47">
         <v>114</v>
       </c>
       <c r="Y47">
+        <v>143.4</v>
+      </c>
+      <c r="Z47">
+        <v>73</v>
+      </c>
+      <c r="AA47">
+        <v>64</v>
+      </c>
+      <c r="AB47">
+        <v>0.2</v>
+      </c>
+      <c r="AC47">
+        <v>74796</v>
+      </c>
+      <c r="AD47">
+        <v>656.1</v>
+      </c>
+      <c r="AE47">
+        <v>3476.1</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>587.5</v>
+      </c>
+      <c r="AJ47">
+        <v>36948</v>
+      </c>
+      <c r="AK47">
+        <v>114</v>
+      </c>
+      <c r="AL47">
         <v>1662.1</v>
       </c>
-      <c r="Z47">
+      <c r="AM47">
         <v>45</v>
       </c>
-      <c r="AA47">
+      <c r="AN47">
         <v>39.5</v>
       </c>
-      <c r="AB47">
+      <c r="AO47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:41">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>133138</v>
+        <v>83091</v>
       </c>
       <c r="D48">
-        <v>564.1</v>
+        <v>352.1</v>
       </c>
       <c r="E48">
-        <v>1743.2</v>
+        <v>907</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4325,37 +6095,37 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>481.2</v>
+        <v>417</v>
       </c>
       <c r="J48">
-        <v>19694</v>
+        <v>8769</v>
       </c>
       <c r="K48">
         <v>236</v>
       </c>
       <c r="L48">
-        <v>979</v>
+        <v>664.7</v>
       </c>
       <c r="M48">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="N48">
-        <v>57.6</v>
+        <v>53</v>
       </c>
       <c r="O48">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P48">
-        <v>35881</v>
+        <v>17086</v>
       </c>
       <c r="Q48">
-        <v>152</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="R48">
-        <v>462.6</v>
+        <v>215.1</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -4364,43 +6134,82 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="W48">
-        <v>3705</v>
+        <v>1782</v>
       </c>
       <c r="X48">
         <v>236</v>
       </c>
       <c r="Y48">
+        <v>135.6</v>
+      </c>
+      <c r="Z48">
+        <v>126</v>
+      </c>
+      <c r="AA48">
+        <v>53.4</v>
+      </c>
+      <c r="AB48">
+        <v>-0.3</v>
+      </c>
+      <c r="AC48">
+        <v>35881</v>
+      </c>
+      <c r="AD48">
+        <v>152</v>
+      </c>
+      <c r="AE48">
+        <v>462.6</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>3705</v>
+      </c>
+      <c r="AK48">
+        <v>236</v>
+      </c>
+      <c r="AL48">
         <v>780</v>
       </c>
-      <c r="Z48">
+      <c r="AM48">
         <v>46</v>
       </c>
-      <c r="AA48">
+      <c r="AN48">
         <v>19.5</v>
       </c>
-      <c r="AB48">
+      <c r="AO48">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:41">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>9824</v>
+        <v>7604</v>
       </c>
       <c r="D49">
-        <v>701.7</v>
+        <v>543.1</v>
       </c>
       <c r="E49">
-        <v>1250.2</v>
+        <v>945.2</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4412,16 +6221,16 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>871</v>
+        <v>781.2</v>
       </c>
       <c r="J49">
-        <v>3853</v>
+        <v>2802</v>
       </c>
       <c r="K49">
         <v>14</v>
       </c>
       <c r="L49">
-        <v>1637.3</v>
+        <v>1267.3</v>
       </c>
       <c r="M49">
         <v>6</v>
@@ -4430,16 +6239,16 @@
         <v>42.9</v>
       </c>
       <c r="O49">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="P49">
-        <v>3612</v>
+        <v>2212</v>
       </c>
       <c r="Q49">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="R49">
-        <v>575.4</v>
+        <v>314.9</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -4451,165 +6260,243 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="W49">
-        <v>1930</v>
+        <v>1050</v>
       </c>
       <c r="X49">
         <v>14</v>
       </c>
       <c r="Y49">
-        <v>1204</v>
+        <v>368.7</v>
       </c>
       <c r="Z49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA49">
-        <v>21.4</v>
+        <v>42.9</v>
       </c>
       <c r="AB49">
         <v>-0.8</v>
       </c>
+      <c r="AC49">
+        <v>3612</v>
+      </c>
+      <c r="AD49">
+        <v>258</v>
+      </c>
+      <c r="AE49">
+        <v>575.4</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>1930</v>
+      </c>
+      <c r="AK49">
+        <v>14</v>
+      </c>
+      <c r="AL49">
+        <v>1204</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+      <c r="AN49">
+        <v>21.4</v>
+      </c>
+      <c r="AO49">
+        <v>-0.8</v>
+      </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:41">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>36843</v>
+        <v>25671</v>
       </c>
       <c r="D50">
-        <v>1473.7</v>
+        <v>1026.8</v>
       </c>
       <c r="E50">
-        <v>1936.4</v>
+        <v>1446</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="H50">
-        <v>856</v>
+        <v>496</v>
       </c>
       <c r="I50">
-        <v>1573</v>
+        <v>1045</v>
       </c>
       <c r="J50">
-        <v>6854</v>
+        <v>5793</v>
       </c>
       <c r="K50">
         <v>25</v>
       </c>
       <c r="L50">
-        <v>1754.4</v>
+        <v>1283.6</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>9825</v>
+        <v>4275</v>
       </c>
       <c r="Q50">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="R50">
-        <v>436.2</v>
+        <v>224.7</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U50">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="V50">
-        <v>602</v>
+        <v>238</v>
       </c>
       <c r="W50">
-        <v>1651</v>
+        <v>938</v>
       </c>
       <c r="X50">
         <v>25</v>
       </c>
       <c r="Y50">
+        <v>213.8</v>
+      </c>
+      <c r="Z50">
+        <v>20</v>
+      </c>
+      <c r="AA50">
+        <v>80</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>9825</v>
+      </c>
+      <c r="AD50">
+        <v>393</v>
+      </c>
+      <c r="AE50">
+        <v>436.2</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>326</v>
+      </c>
+      <c r="AI50">
+        <v>602</v>
+      </c>
+      <c r="AJ50">
+        <v>1651</v>
+      </c>
+      <c r="AK50">
+        <v>25</v>
+      </c>
+      <c r="AL50">
         <v>655</v>
       </c>
-      <c r="Z50">
+      <c r="AM50">
         <v>15</v>
       </c>
-      <c r="AA50">
+      <c r="AN50">
         <v>60</v>
       </c>
-      <c r="AB50">
+      <c r="AO50">
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:41">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51">
-        <v>117396</v>
+        <v>32245</v>
       </c>
       <c r="D51">
-        <v>2174</v>
+        <v>597.1</v>
       </c>
       <c r="E51">
-        <v>5278.5</v>
+        <v>914.3</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>330</v>
+        <v>94.5</v>
       </c>
       <c r="I51">
-        <v>1778.8</v>
+        <v>828.8</v>
       </c>
       <c r="J51">
-        <v>30621</v>
+        <v>3155</v>
       </c>
       <c r="K51">
         <v>54</v>
       </c>
       <c r="L51">
-        <v>2730.1</v>
+        <v>895.7</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N51">
-        <v>79.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="O51">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P51">
-        <v>39434</v>
+        <v>4479</v>
       </c>
       <c r="Q51">
-        <v>730.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="R51">
-        <v>2080.9</v>
+        <v>191.7</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4618,43 +6505,82 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V51">
-        <v>555</v>
+        <v>76</v>
       </c>
       <c r="W51">
-        <v>13336</v>
+        <v>1236</v>
       </c>
       <c r="X51">
         <v>54</v>
       </c>
       <c r="Y51">
+        <v>124.4</v>
+      </c>
+      <c r="Z51">
+        <v>36</v>
+      </c>
+      <c r="AA51">
+        <v>66.7</v>
+      </c>
+      <c r="AB51">
+        <v>0.3</v>
+      </c>
+      <c r="AC51">
+        <v>39434</v>
+      </c>
+      <c r="AD51">
+        <v>730.3</v>
+      </c>
+      <c r="AE51">
+        <v>2080.9</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>555</v>
+      </c>
+      <c r="AJ51">
+        <v>13336</v>
+      </c>
+      <c r="AK51">
+        <v>54</v>
+      </c>
+      <c r="AL51">
         <v>1714.5</v>
       </c>
-      <c r="Z51">
+      <c r="AM51">
         <v>23</v>
       </c>
-      <c r="AA51">
+      <c r="AN51">
         <v>42.6</v>
       </c>
-      <c r="AB51">
+      <c r="AO51">
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:41">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>170737</v>
+        <v>35503</v>
       </c>
       <c r="D52">
-        <v>1376.9</v>
+        <v>286.3</v>
       </c>
       <c r="E52">
-        <v>4395.4</v>
+        <v>672</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4663,37 +6589,37 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>697</v>
+        <v>255</v>
       </c>
       <c r="J52">
-        <v>30621</v>
+        <v>4906</v>
       </c>
       <c r="K52">
         <v>124</v>
       </c>
       <c r="L52">
-        <v>2404.7</v>
+        <v>612.1</v>
       </c>
       <c r="M52">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N52">
-        <v>57.3</v>
+        <v>46.8</v>
       </c>
       <c r="O52">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="P52">
-        <v>52751</v>
+        <v>10239</v>
       </c>
       <c r="Q52">
-        <v>425.4</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="R52">
-        <v>1356.2</v>
+        <v>325.1</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4705,40 +6631,79 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>306.8</v>
+        <v>25</v>
       </c>
       <c r="W52">
-        <v>13336</v>
+        <v>3183</v>
       </c>
       <c r="X52">
         <v>124</v>
       </c>
       <c r="Y52">
+        <v>173.5</v>
+      </c>
+      <c r="Z52">
+        <v>59</v>
+      </c>
+      <c r="AA52">
+        <v>47.6</v>
+      </c>
+      <c r="AB52">
+        <v>-0.6</v>
+      </c>
+      <c r="AC52">
+        <v>52751</v>
+      </c>
+      <c r="AD52">
+        <v>425.4</v>
+      </c>
+      <c r="AE52">
+        <v>1356.2</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>306.8</v>
+      </c>
+      <c r="AJ52">
+        <v>13336</v>
+      </c>
+      <c r="AK52">
+        <v>124</v>
+      </c>
+      <c r="AL52">
         <v>1034.3</v>
       </c>
-      <c r="Z52">
+      <c r="AM52">
         <v>51</v>
       </c>
-      <c r="AA52">
+      <c r="AN52">
         <v>41.1</v>
       </c>
-      <c r="AB52">
+      <c r="AO52">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:41">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>4118</v>
+        <v>3884</v>
       </c>
       <c r="D53">
-        <v>1029.5</v>
+        <v>971</v>
       </c>
       <c r="E53">
-        <v>2056.3</v>
+        <v>1940</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4747,19 +6712,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I53">
-        <v>1031.5</v>
+        <v>972.5</v>
       </c>
       <c r="J53">
-        <v>4114</v>
+        <v>3881</v>
       </c>
       <c r="K53">
         <v>4</v>
       </c>
       <c r="L53">
-        <v>2059</v>
+        <v>1942</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -4768,16 +6733,16 @@
         <v>50</v>
       </c>
       <c r="O53">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="P53">
-        <v>2866</v>
+        <v>236</v>
       </c>
       <c r="Q53">
-        <v>716.5</v>
+        <v>59</v>
       </c>
       <c r="R53">
-        <v>1433</v>
+        <v>117.3</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4786,129 +6751,207 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V53">
-        <v>716.5</v>
+        <v>59.5</v>
       </c>
       <c r="W53">
-        <v>2866</v>
+        <v>235</v>
       </c>
       <c r="X53">
         <v>4</v>
       </c>
       <c r="Y53">
+        <v>118</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>50</v>
+      </c>
+      <c r="AB53">
+        <v>-0.5</v>
+      </c>
+      <c r="AC53">
         <v>2866</v>
       </c>
-      <c r="Z53">
+      <c r="AD53">
+        <v>716.5</v>
+      </c>
+      <c r="AE53">
+        <v>1433</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>716.5</v>
+      </c>
+      <c r="AJ53">
+        <v>2866</v>
+      </c>
+      <c r="AK53">
+        <v>4</v>
+      </c>
+      <c r="AL53">
+        <v>2866</v>
+      </c>
+      <c r="AM53">
         <v>1</v>
       </c>
-      <c r="AA53">
+      <c r="AN53">
         <v>25</v>
       </c>
-      <c r="AB53">
+      <c r="AO53">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:41">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54">
-        <v>121794</v>
+        <v>81543</v>
       </c>
       <c r="D54">
-        <v>2899.9</v>
+        <v>1941.5</v>
       </c>
       <c r="E54">
-        <v>5150.7</v>
+        <v>3715.9</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>403.2</v>
+        <v>280</v>
       </c>
       <c r="H54">
-        <v>1261</v>
+        <v>910.5</v>
       </c>
       <c r="I54">
-        <v>2489</v>
+        <v>1630.8</v>
       </c>
       <c r="J54">
-        <v>22952</v>
+        <v>18330</v>
       </c>
       <c r="K54">
         <v>42</v>
       </c>
       <c r="L54">
-        <v>3383.2</v>
+        <v>2329.8</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N54">
-        <v>85.7</v>
+        <v>83.3</v>
       </c>
       <c r="O54">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="P54">
-        <v>18112</v>
+        <v>21890</v>
       </c>
       <c r="Q54">
-        <v>431.2</v>
+        <v>521.2</v>
       </c>
       <c r="R54">
-        <v>473.6</v>
+        <v>933.1</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="U54">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="V54">
-        <v>768.2</v>
+        <v>478.5</v>
       </c>
       <c r="W54">
-        <v>1636</v>
+        <v>4588</v>
       </c>
       <c r="X54">
         <v>42</v>
       </c>
       <c r="Y54">
+        <v>625.4</v>
+      </c>
+      <c r="Z54">
+        <v>35</v>
+      </c>
+      <c r="AA54">
+        <v>83.3</v>
+      </c>
+      <c r="AB54">
+        <v>1.1</v>
+      </c>
+      <c r="AC54">
+        <v>18112</v>
+      </c>
+      <c r="AD54">
+        <v>431.2</v>
+      </c>
+      <c r="AE54">
+        <v>473.6</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>448</v>
+      </c>
+      <c r="AI54">
+        <v>768.2</v>
+      </c>
+      <c r="AJ54">
+        <v>1636</v>
+      </c>
+      <c r="AK54">
+        <v>42</v>
+      </c>
+      <c r="AL54">
         <v>823.3</v>
       </c>
-      <c r="Z54">
+      <c r="AM54">
         <v>22</v>
       </c>
-      <c r="AA54">
+      <c r="AN54">
         <v>52.4</v>
       </c>
-      <c r="AB54">
+      <c r="AO54">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:41">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>113458</v>
+        <v>44005</v>
       </c>
       <c r="D55">
-        <v>1575.8</v>
+        <v>611.2</v>
       </c>
       <c r="E55">
-        <v>3687.2</v>
+        <v>876.8</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4917,37 +6960,37 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>248</v>
+        <v>133.5</v>
       </c>
       <c r="I55">
-        <v>1520.5</v>
+        <v>1100.8</v>
       </c>
       <c r="J55">
-        <v>21901</v>
+        <v>3894</v>
       </c>
       <c r="K55">
         <v>72</v>
       </c>
       <c r="L55">
-        <v>2140.7</v>
+        <v>1000.1</v>
       </c>
       <c r="M55">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N55">
-        <v>73.59999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="O55">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P55">
-        <v>26180</v>
+        <v>8348</v>
       </c>
       <c r="Q55">
-        <v>363.6</v>
+        <v>115.9</v>
       </c>
       <c r="R55">
-        <v>775.3</v>
+        <v>192.4</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4956,43 +6999,82 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V55">
-        <v>471.5</v>
+        <v>126.5</v>
       </c>
       <c r="W55">
-        <v>5694</v>
+        <v>797</v>
       </c>
       <c r="X55">
         <v>72</v>
       </c>
       <c r="Y55">
+        <v>173.9</v>
+      </c>
+      <c r="Z55">
+        <v>48</v>
+      </c>
+      <c r="AA55">
+        <v>66.7</v>
+      </c>
+      <c r="AB55">
+        <v>0.3</v>
+      </c>
+      <c r="AC55">
+        <v>26180</v>
+      </c>
+      <c r="AD55">
+        <v>363.6</v>
+      </c>
+      <c r="AE55">
+        <v>775.3</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>471.5</v>
+      </c>
+      <c r="AJ55">
+        <v>5694</v>
+      </c>
+      <c r="AK55">
+        <v>72</v>
+      </c>
+      <c r="AL55">
         <v>844.5</v>
       </c>
-      <c r="Z55">
+      <c r="AM55">
         <v>31</v>
       </c>
-      <c r="AA55">
+      <c r="AN55">
         <v>43.1</v>
       </c>
-      <c r="AB55">
+      <c r="AO55">
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:41">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>169167</v>
+        <v>33692</v>
       </c>
       <c r="D56">
-        <v>1537.9</v>
+        <v>306.3</v>
       </c>
       <c r="E56">
-        <v>5393</v>
+        <v>739.9</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5001,37 +7083,37 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>337.2</v>
+        <v>152.8</v>
       </c>
       <c r="J56">
-        <v>38597</v>
+        <v>4765</v>
       </c>
       <c r="K56">
         <v>110</v>
       </c>
       <c r="L56">
-        <v>3020.8</v>
+        <v>701.9</v>
       </c>
       <c r="M56">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N56">
-        <v>50.9</v>
+        <v>43.6</v>
       </c>
       <c r="O56">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="P56">
-        <v>23076</v>
+        <v>18923</v>
       </c>
       <c r="Q56">
-        <v>209.8</v>
+        <v>172</v>
       </c>
       <c r="R56">
-        <v>705.2</v>
+        <v>1089.9</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -5043,40 +7125,79 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W56">
-        <v>6145</v>
+        <v>11227</v>
       </c>
       <c r="X56">
         <v>110</v>
       </c>
       <c r="Y56">
+        <v>386.2</v>
+      </c>
+      <c r="Z56">
+        <v>49</v>
+      </c>
+      <c r="AA56">
+        <v>44.5</v>
+      </c>
+      <c r="AB56">
+        <v>-0.8</v>
+      </c>
+      <c r="AC56">
+        <v>23076</v>
+      </c>
+      <c r="AD56">
+        <v>209.8</v>
+      </c>
+      <c r="AE56">
+        <v>705.2</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>6145</v>
+      </c>
+      <c r="AK56">
+        <v>110</v>
+      </c>
+      <c r="AL56">
         <v>887.5</v>
       </c>
-      <c r="Z56">
+      <c r="AM56">
         <v>26</v>
       </c>
-      <c r="AA56">
+      <c r="AN56">
         <v>23.6</v>
       </c>
-      <c r="AB56">
+      <c r="AO56">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:41">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>993</v>
+        <v>824</v>
       </c>
       <c r="D57">
-        <v>248.2</v>
+        <v>206</v>
       </c>
       <c r="E57">
-        <v>289.8</v>
+        <v>249.7</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5085,19 +7206,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>222</v>
+        <v>159.5</v>
       </c>
       <c r="I57">
-        <v>470.2</v>
+        <v>365.5</v>
       </c>
       <c r="J57">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="K57">
         <v>4</v>
       </c>
       <c r="L57">
-        <v>496.5</v>
+        <v>412</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -5106,16 +7227,16 @@
         <v>50</v>
       </c>
       <c r="O57">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="P57">
-        <v>1134</v>
+        <v>168</v>
       </c>
       <c r="Q57">
-        <v>283.5</v>
+        <v>42</v>
       </c>
       <c r="R57">
-        <v>329.9</v>
+        <v>58</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -5124,19 +7245,19 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>258.5</v>
+        <v>22.5</v>
       </c>
       <c r="V57">
-        <v>542</v>
+        <v>64.5</v>
       </c>
       <c r="W57">
-        <v>617</v>
+        <v>123</v>
       </c>
       <c r="X57">
         <v>4</v>
       </c>
       <c r="Y57">
-        <v>567</v>
+        <v>84</v>
       </c>
       <c r="Z57">
         <v>2</v>
@@ -5145,108 +7266,186 @@
         <v>50</v>
       </c>
       <c r="AB57">
+        <v>-0.5</v>
+      </c>
+      <c r="AC57">
+        <v>1134</v>
+      </c>
+      <c r="AD57">
+        <v>283.5</v>
+      </c>
+      <c r="AE57">
+        <v>329.9</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>258.5</v>
+      </c>
+      <c r="AI57">
+        <v>542</v>
+      </c>
+      <c r="AJ57">
+        <v>617</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
+      </c>
+      <c r="AL57">
+        <v>567</v>
+      </c>
+      <c r="AM57">
+        <v>2</v>
+      </c>
+      <c r="AN57">
+        <v>50</v>
+      </c>
+      <c r="AO57">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:41">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>138598</v>
+        <v>84463</v>
       </c>
       <c r="D58">
-        <v>2887.5</v>
+        <v>1759.6</v>
       </c>
       <c r="E58">
-        <v>3809.3</v>
+        <v>2325</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>403</v>
+        <v>319.2</v>
       </c>
       <c r="H58">
-        <v>1336.5</v>
+        <v>1005</v>
       </c>
       <c r="I58">
-        <v>3547.2</v>
+        <v>2179</v>
       </c>
       <c r="J58">
-        <v>16118</v>
+        <v>10957</v>
       </c>
       <c r="K58">
         <v>48</v>
       </c>
       <c r="L58">
-        <v>3465</v>
+        <v>2165.7</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N58">
-        <v>83.3</v>
+        <v>81.2</v>
       </c>
       <c r="O58">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P58">
-        <v>29860</v>
+        <v>53804</v>
       </c>
       <c r="Q58">
-        <v>622.1</v>
+        <v>1120.9</v>
       </c>
       <c r="R58">
-        <v>652.9</v>
+        <v>2161.6</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="U58">
-        <v>527.5</v>
+        <v>245</v>
       </c>
       <c r="V58">
-        <v>1000.2</v>
+        <v>1461</v>
       </c>
       <c r="W58">
-        <v>3428</v>
+        <v>12827</v>
       </c>
       <c r="X58">
         <v>48</v>
       </c>
       <c r="Y58">
+        <v>1345.1</v>
+      </c>
+      <c r="Z58">
+        <v>40</v>
+      </c>
+      <c r="AA58">
+        <v>83.3</v>
+      </c>
+      <c r="AB58">
+        <v>1.1</v>
+      </c>
+      <c r="AC58">
+        <v>29860</v>
+      </c>
+      <c r="AD58">
+        <v>622.1</v>
+      </c>
+      <c r="AE58">
+        <v>652.9</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>527.5</v>
+      </c>
+      <c r="AI58">
+        <v>1000.2</v>
+      </c>
+      <c r="AJ58">
+        <v>3428</v>
+      </c>
+      <c r="AK58">
+        <v>48</v>
+      </c>
+      <c r="AL58">
         <v>878.2</v>
       </c>
-      <c r="Z58">
+      <c r="AM58">
         <v>34</v>
       </c>
-      <c r="AA58">
+      <c r="AN58">
         <v>70.8</v>
       </c>
-      <c r="AB58">
+      <c r="AO58">
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:41">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59">
-        <v>107249</v>
+        <v>58943</v>
       </c>
       <c r="D59">
-        <v>1510.5</v>
+        <v>830.2</v>
       </c>
       <c r="E59">
-        <v>2819.6</v>
+        <v>1323.8</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5255,37 +7454,37 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="I59">
-        <v>1457</v>
+        <v>1077.5</v>
       </c>
       <c r="J59">
-        <v>17348</v>
+        <v>5881</v>
       </c>
       <c r="K59">
         <v>71</v>
       </c>
       <c r="L59">
-        <v>2102.9</v>
+        <v>1254.1</v>
       </c>
       <c r="M59">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N59">
-        <v>71.8</v>
+        <v>66.2</v>
       </c>
       <c r="O59">
         <v>0.3</v>
       </c>
       <c r="P59">
-        <v>25955</v>
+        <v>20871</v>
       </c>
       <c r="Q59">
-        <v>365.6</v>
+        <v>294</v>
       </c>
       <c r="R59">
-        <v>811.7</v>
+        <v>613</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -5294,43 +7493,82 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="V59">
-        <v>433.5</v>
+        <v>233</v>
       </c>
       <c r="W59">
-        <v>5746</v>
+        <v>3864</v>
       </c>
       <c r="X59">
         <v>71</v>
       </c>
       <c r="Y59">
+        <v>434.8</v>
+      </c>
+      <c r="Z59">
+        <v>48</v>
+      </c>
+      <c r="AA59">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="AB59">
+        <v>0.4</v>
+      </c>
+      <c r="AC59">
+        <v>25955</v>
+      </c>
+      <c r="AD59">
+        <v>365.6</v>
+      </c>
+      <c r="AE59">
+        <v>811.7</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>433.5</v>
+      </c>
+      <c r="AJ59">
+        <v>5746</v>
+      </c>
+      <c r="AK59">
+        <v>71</v>
+      </c>
+      <c r="AL59">
         <v>811.1</v>
       </c>
-      <c r="Z59">
+      <c r="AM59">
         <v>32</v>
       </c>
-      <c r="AA59">
+      <c r="AN59">
         <v>45.1</v>
       </c>
-      <c r="AB59">
+      <c r="AO59">
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:41">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60">
-        <v>167535</v>
+        <v>54573</v>
       </c>
       <c r="D60">
-        <v>1658.8</v>
+        <v>540.3</v>
       </c>
       <c r="E60">
-        <v>6372.4</v>
+        <v>959.4</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5339,37 +7577,37 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I60">
-        <v>970</v>
+        <v>559</v>
       </c>
       <c r="J60">
-        <v>52506</v>
+        <v>3970</v>
       </c>
       <c r="K60">
         <v>101</v>
       </c>
       <c r="L60">
-        <v>2888.5</v>
+        <v>1010.6</v>
       </c>
       <c r="M60">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N60">
-        <v>57.4</v>
+        <v>53.5</v>
       </c>
       <c r="O60">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P60">
-        <v>48765</v>
+        <v>18975</v>
       </c>
       <c r="Q60">
-        <v>482.8</v>
+        <v>187.9</v>
       </c>
       <c r="R60">
-        <v>2264.3</v>
+        <v>657.1</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -5378,43 +7616,82 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V60">
-        <v>266</v>
+        <v>114</v>
       </c>
       <c r="W60">
-        <v>21892</v>
+        <v>6137</v>
       </c>
       <c r="X60">
         <v>101</v>
       </c>
       <c r="Y60">
-        <v>1477.7</v>
+        <v>345</v>
       </c>
       <c r="Z60">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="AA60">
-        <v>32.7</v>
+        <v>54.5</v>
       </c>
       <c r="AB60">
         <v>-0.3</v>
       </c>
+      <c r="AC60">
+        <v>48765</v>
+      </c>
+      <c r="AD60">
+        <v>482.8</v>
+      </c>
+      <c r="AE60">
+        <v>2264.3</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>266</v>
+      </c>
+      <c r="AJ60">
+        <v>21892</v>
+      </c>
+      <c r="AK60">
+        <v>101</v>
+      </c>
+      <c r="AL60">
+        <v>1477.7</v>
+      </c>
+      <c r="AM60">
+        <v>33</v>
+      </c>
+      <c r="AN60">
+        <v>32.7</v>
+      </c>
+      <c r="AO60">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:41">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
-        <v>21831</v>
+        <v>7609</v>
       </c>
       <c r="D61">
-        <v>2425.7</v>
+        <v>845.4</v>
       </c>
       <c r="E61">
-        <v>3916.3</v>
+        <v>1036.8</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5423,37 +7700,37 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1040</v>
+        <v>921</v>
       </c>
       <c r="I61">
-        <v>1517</v>
+        <v>1256</v>
       </c>
       <c r="J61">
-        <v>12123</v>
+        <v>3159</v>
       </c>
       <c r="K61">
         <v>9</v>
       </c>
       <c r="L61">
-        <v>3638.5</v>
+        <v>1521.8</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>66.7</v>
+        <v>55.6</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="P61">
-        <v>2917</v>
+        <v>2078</v>
       </c>
       <c r="Q61">
-        <v>324.1</v>
+        <v>230.9</v>
       </c>
       <c r="R61">
-        <v>658.7</v>
+        <v>500.9</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5462,34 +7739,74 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="W61">
-        <v>1743</v>
+        <v>1547</v>
       </c>
       <c r="X61">
         <v>9</v>
       </c>
       <c r="Y61">
+        <v>415.6</v>
+      </c>
+      <c r="Z61">
+        <v>5</v>
+      </c>
+      <c r="AA61">
+        <v>55.6</v>
+      </c>
+      <c r="AB61">
+        <v>-0.2</v>
+      </c>
+      <c r="AC61">
+        <v>2917</v>
+      </c>
+      <c r="AD61">
+        <v>324.1</v>
+      </c>
+      <c r="AE61">
+        <v>658.7</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>1743</v>
+      </c>
+      <c r="AK61">
+        <v>9</v>
+      </c>
+      <c r="AL61">
         <v>1458.5</v>
       </c>
-      <c r="Z61">
+      <c r="AM61">
         <v>2</v>
       </c>
-      <c r="AA61">
+      <c r="AN61">
         <v>22.2</v>
       </c>
-      <c r="AB61">
+      <c r="AO61">
         <v>-0.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>

--- a/data/analysis/social_media_analytics/pivot_tables/region-size/museum_activity_groups__var2-region-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/region-size/museum_activity_groups__var2-region-size.xlsx
@@ -672,13 +672,13 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -708,16 +708,16 @@
         <v>25</v>
       </c>
       <c r="O4">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>4</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>-1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -792,13 +792,13 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="D5">
-        <v>133.3</v>
+        <v>183.1</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>549.3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="L5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -828,16 +828,16 @@
         <v>11.1</v>
       </c>
       <c r="O5">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="P5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="Q5">
-        <v>49.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R5">
-        <v>149</v>
+        <v>214.3</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X5">
         <v>9</v>
       </c>
       <c r="Y5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -870,13 +870,13 @@
         <v>-2.4</v>
       </c>
       <c r="AC5">
-        <v>619</v>
+        <v>796</v>
       </c>
       <c r="AD5">
-        <v>68.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="AE5">
-        <v>206.3</v>
+        <v>254.6</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>619</v>
+        <v>767</v>
       </c>
       <c r="AK5">
         <v>9</v>
       </c>
       <c r="AL5">
-        <v>619</v>
+        <v>398</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN5">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="AO5">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -951,16 +951,16 @@
         <v>25</v>
       </c>
       <c r="O6">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="R6">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -972,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="W6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -993,13 +993,13 @@
         <v>-1.7</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1008,25 +1008,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AK6">
         <v>4</v>
       </c>
+      <c r="AL6">
+        <v>113</v>
+      </c>
       <c r="AM6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO6">
-        <v>-1.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1071,7 +1074,7 @@
         <v>14.3</v>
       </c>
       <c r="O7">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="P7">
         <v>16</v>
@@ -1110,16 +1113,16 @@
         <v>14.3</v>
       </c>
       <c r="AB7">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AC7">
-        <v>223</v>
+        <v>1263</v>
       </c>
       <c r="AD7">
-        <v>31.9</v>
+        <v>180.4</v>
       </c>
       <c r="AE7">
-        <v>84.3</v>
+        <v>368.3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1131,25 +1134,25 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AJ7">
-        <v>223</v>
+        <v>981</v>
       </c>
       <c r="AK7">
         <v>7</v>
       </c>
       <c r="AL7">
-        <v>223</v>
+        <v>631.5</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>14.3</v>
+        <v>28.6</v>
       </c>
       <c r="AO7">
-        <v>-1.1</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1160,13 +1163,13 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>34690</v>
+        <v>40241</v>
       </c>
       <c r="D8">
-        <v>1156.3</v>
+        <v>1341.4</v>
       </c>
       <c r="E8">
-        <v>1582.8</v>
+        <v>1743.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1175,19 +1178,19 @@
         <v>27</v>
       </c>
       <c r="H8">
-        <v>690</v>
+        <v>923.5</v>
       </c>
       <c r="I8">
-        <v>1351</v>
+        <v>1577.8</v>
       </c>
       <c r="J8">
-        <v>6379</v>
+        <v>6927</v>
       </c>
       <c r="K8">
         <v>30</v>
       </c>
       <c r="L8">
-        <v>1508.3</v>
+        <v>1749.6</v>
       </c>
       <c r="M8">
         <v>23</v>
@@ -1199,34 +1202,34 @@
         <v>0.9</v>
       </c>
       <c r="P8">
-        <v>8587</v>
+        <v>9792</v>
       </c>
       <c r="Q8">
-        <v>286.2</v>
+        <v>326.4</v>
       </c>
       <c r="R8">
-        <v>372.5</v>
+        <v>421.2</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U8">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="V8">
-        <v>383.2</v>
+        <v>456.5</v>
       </c>
       <c r="W8">
-        <v>1307</v>
+        <v>1497</v>
       </c>
       <c r="X8">
         <v>30</v>
       </c>
       <c r="Y8">
-        <v>373.3</v>
+        <v>425.7</v>
       </c>
       <c r="Z8">
         <v>23</v>
@@ -1238,43 +1241,43 @@
         <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>17625</v>
+        <v>22010</v>
       </c>
       <c r="AD8">
-        <v>587.5</v>
+        <v>733.7</v>
       </c>
       <c r="AE8">
-        <v>652.9</v>
+        <v>890.4</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>13.8</v>
+        <v>33.2</v>
       </c>
       <c r="AH8">
-        <v>385</v>
+        <v>475</v>
       </c>
       <c r="AI8">
-        <v>853</v>
+        <v>1011.2</v>
       </c>
       <c r="AJ8">
-        <v>2727</v>
+        <v>3392</v>
       </c>
       <c r="AK8">
         <v>30</v>
       </c>
       <c r="AL8">
-        <v>801.1</v>
+        <v>880.4</v>
       </c>
       <c r="AM8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN8">
-        <v>73.3</v>
+        <v>83.3</v>
       </c>
       <c r="AO8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1283,34 +1286,34 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>59166</v>
+        <v>68200</v>
       </c>
       <c r="D9">
-        <v>1002.8</v>
+        <v>1155.9</v>
       </c>
       <c r="E9">
-        <v>2511.7</v>
+        <v>2965.6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="I9">
-        <v>886.5</v>
+        <v>962.5</v>
       </c>
       <c r="J9">
-        <v>17279</v>
+        <v>20844</v>
       </c>
       <c r="K9">
         <v>59</v>
       </c>
       <c r="L9">
-        <v>1286.2</v>
+        <v>1482.6</v>
       </c>
       <c r="M9">
         <v>46</v>
@@ -1319,85 +1322,85 @@
         <v>78</v>
       </c>
       <c r="O9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>15681</v>
+        <v>18761</v>
       </c>
       <c r="Q9">
-        <v>265.8</v>
+        <v>318</v>
       </c>
       <c r="R9">
-        <v>1047.6</v>
+        <v>1319</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V9">
-        <v>108</v>
+        <v>124.5</v>
       </c>
       <c r="W9">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X9">
         <v>59</v>
       </c>
       <c r="Y9">
-        <v>333.6</v>
+        <v>407.8</v>
       </c>
       <c r="Z9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA9">
-        <v>79.7</v>
+        <v>78</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AC9">
-        <v>28396</v>
+        <v>48467</v>
       </c>
       <c r="AD9">
-        <v>481.3</v>
+        <v>821.5</v>
       </c>
       <c r="AE9">
-        <v>703</v>
+        <v>975.9</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AH9">
-        <v>174</v>
+        <v>587</v>
       </c>
       <c r="AI9">
-        <v>692</v>
+        <v>1192</v>
       </c>
       <c r="AJ9">
-        <v>3252</v>
+        <v>5487</v>
       </c>
       <c r="AK9">
         <v>59</v>
       </c>
       <c r="AL9">
-        <v>887.4</v>
+        <v>1053.6</v>
       </c>
       <c r="AM9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AN9">
-        <v>54.2</v>
+        <v>78</v>
       </c>
       <c r="AO9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1406,13 +1409,13 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>29094</v>
+        <v>30153</v>
       </c>
       <c r="D10">
-        <v>220.4</v>
+        <v>228.4</v>
       </c>
       <c r="E10">
-        <v>552.6</v>
+        <v>577.4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1424,34 +1427,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>181.2</v>
+        <v>206.8</v>
       </c>
       <c r="J10">
-        <v>3200</v>
+        <v>3903</v>
       </c>
       <c r="K10">
         <v>132</v>
       </c>
       <c r="L10">
-        <v>477</v>
+        <v>502.6</v>
       </c>
       <c r="M10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N10">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="O10">
         <v>-0.7</v>
       </c>
       <c r="P10">
-        <v>11224</v>
+        <v>11503</v>
       </c>
       <c r="Q10">
-        <v>85</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="R10">
-        <v>274.3</v>
+        <v>293.1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1463,34 +1466,34 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>24.8</v>
+        <v>30.8</v>
       </c>
       <c r="W10">
-        <v>1547</v>
+        <v>1790</v>
       </c>
       <c r="X10">
         <v>132</v>
       </c>
       <c r="Y10">
-        <v>181</v>
+        <v>188.6</v>
       </c>
       <c r="Z10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA10">
-        <v>47</v>
+        <v>46.2</v>
       </c>
       <c r="AB10">
         <v>-0.6</v>
       </c>
       <c r="AC10">
-        <v>14979</v>
+        <v>46293</v>
       </c>
       <c r="AD10">
-        <v>113.5</v>
+        <v>350.7</v>
       </c>
       <c r="AE10">
-        <v>300.2</v>
+        <v>698.8</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1499,28 +1502,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>370.5</v>
       </c>
       <c r="AJ10">
-        <v>1676</v>
+        <v>4927</v>
       </c>
       <c r="AK10">
         <v>132</v>
       </c>
       <c r="AL10">
-        <v>554.8</v>
+        <v>670.9</v>
       </c>
       <c r="AM10">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="AN10">
-        <v>20.5</v>
+        <v>52.3</v>
       </c>
       <c r="AO10">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1529,13 +1532,13 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>3415</v>
+        <v>3707</v>
       </c>
       <c r="D11">
-        <v>426.9</v>
+        <v>463.4</v>
       </c>
       <c r="E11">
-        <v>978.8</v>
+        <v>1064.7</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1544,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>163.5</v>
+        <v>174.2</v>
       </c>
       <c r="J11">
-        <v>2806</v>
+        <v>3052</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
       <c r="L11">
-        <v>683</v>
+        <v>741.4</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1565,55 +1568,55 @@
         <v>62.5</v>
       </c>
       <c r="O11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P11">
-        <v>4800</v>
+        <v>5216</v>
       </c>
       <c r="Q11">
-        <v>600</v>
+        <v>652</v>
       </c>
       <c r="R11">
-        <v>1340.2</v>
+        <v>1468.2</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>250.2</v>
+        <v>260.5</v>
       </c>
       <c r="W11">
-        <v>3807</v>
+        <v>4177</v>
       </c>
       <c r="X11">
         <v>8</v>
       </c>
       <c r="Y11">
-        <v>960</v>
+        <v>869.3</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA11">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="AB11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC11">
-        <v>4524</v>
+        <v>5889</v>
       </c>
       <c r="AD11">
-        <v>565.5</v>
+        <v>736.1</v>
       </c>
       <c r="AE11">
-        <v>955.6</v>
+        <v>1072.7</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1622,28 +1625,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="AI11">
-        <v>877</v>
+        <v>1055.2</v>
       </c>
       <c r="AJ11">
-        <v>2696</v>
+        <v>3094</v>
       </c>
       <c r="AK11">
         <v>8</v>
       </c>
       <c r="AL11">
-        <v>1508</v>
+        <v>1472.2</v>
       </c>
       <c r="AM11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN11">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="AO11">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1654,34 +1657,34 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>44334</v>
+        <v>52482</v>
       </c>
       <c r="D12">
-        <v>1477.8</v>
+        <v>1749.4</v>
       </c>
       <c r="E12">
-        <v>1432.6</v>
+        <v>1712.5</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>440.5</v>
+        <v>547</v>
       </c>
       <c r="H12">
-        <v>848</v>
+        <v>959.5</v>
       </c>
       <c r="I12">
-        <v>2298.2</v>
+        <v>2715</v>
       </c>
       <c r="J12">
-        <v>5468</v>
+        <v>6365</v>
       </c>
       <c r="K12">
         <v>30</v>
       </c>
       <c r="L12">
-        <v>1583.4</v>
+        <v>1874.4</v>
       </c>
       <c r="M12">
         <v>28</v>
@@ -1690,37 +1693,37 @@
         <v>93.3</v>
       </c>
       <c r="O12">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P12">
-        <v>14657</v>
+        <v>16731</v>
       </c>
       <c r="Q12">
-        <v>488.6</v>
+        <v>557.7</v>
       </c>
       <c r="R12">
-        <v>576.6</v>
+        <v>652.3</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>121.5</v>
+        <v>137.2</v>
       </c>
       <c r="U12">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="V12">
-        <v>484.5</v>
+        <v>563</v>
       </c>
       <c r="W12">
-        <v>2205</v>
+        <v>2397</v>
       </c>
       <c r="X12">
         <v>30</v>
       </c>
       <c r="Y12">
-        <v>523.5</v>
+        <v>597.5</v>
       </c>
       <c r="Z12">
         <v>28</v>
@@ -1729,46 +1732,46 @@
         <v>93.3</v>
       </c>
       <c r="AB12">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AC12">
-        <v>16922</v>
+        <v>24896</v>
       </c>
       <c r="AD12">
-        <v>564.1</v>
+        <v>829.9</v>
       </c>
       <c r="AE12">
-        <v>597.3</v>
+        <v>631.5</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>432.8</v>
       </c>
       <c r="AH12">
-        <v>453</v>
+        <v>624</v>
       </c>
       <c r="AI12">
-        <v>876.5</v>
+        <v>1083.8</v>
       </c>
       <c r="AJ12">
-        <v>2371</v>
+        <v>2632</v>
       </c>
       <c r="AK12">
         <v>30</v>
       </c>
       <c r="AL12">
-        <v>846.1</v>
+        <v>889.1</v>
       </c>
       <c r="AM12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AN12">
-        <v>66.7</v>
+        <v>93.3</v>
       </c>
       <c r="AO12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1777,13 +1780,13 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>56735</v>
+        <v>67042</v>
       </c>
       <c r="D13">
-        <v>756.5</v>
+        <v>893.9</v>
       </c>
       <c r="E13">
-        <v>1784.8</v>
+        <v>2084.4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1792,76 +1795,76 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="I13">
-        <v>927</v>
+        <v>1063.5</v>
       </c>
       <c r="J13">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="K13">
         <v>75</v>
       </c>
       <c r="L13">
-        <v>1031.5</v>
+        <v>1264.9</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N13">
-        <v>73.3</v>
+        <v>70.7</v>
       </c>
       <c r="O13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P13">
-        <v>15860</v>
+        <v>18538</v>
       </c>
       <c r="Q13">
-        <v>211.5</v>
+        <v>247.2</v>
       </c>
       <c r="R13">
-        <v>789</v>
+        <v>917.8</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="V13">
-        <v>152</v>
+        <v>176.5</v>
       </c>
       <c r="W13">
-        <v>6662</v>
+        <v>7710</v>
       </c>
       <c r="X13">
         <v>75</v>
       </c>
       <c r="Y13">
-        <v>278.2</v>
+        <v>337.1</v>
       </c>
       <c r="Z13">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA13">
-        <v>76</v>
+        <v>73.3</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC13">
-        <v>25865</v>
+        <v>38560</v>
       </c>
       <c r="AD13">
-        <v>344.9</v>
+        <v>514.1</v>
       </c>
       <c r="AE13">
-        <v>794.9</v>
+        <v>547.1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1870,28 +1873,28 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="AI13">
-        <v>546</v>
+        <v>847.5</v>
       </c>
       <c r="AJ13">
-        <v>6335</v>
+        <v>2251</v>
       </c>
       <c r="AK13">
         <v>75</v>
       </c>
       <c r="AL13">
-        <v>760.7</v>
+        <v>714.1</v>
       </c>
       <c r="AM13">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AN13">
-        <v>45.3</v>
+        <v>72</v>
       </c>
       <c r="AO13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1900,13 +1903,13 @@
         <v>34</v>
       </c>
       <c r="C14">
-        <v>89216</v>
+        <v>104818</v>
       </c>
       <c r="D14">
-        <v>407.4</v>
+        <v>478.6</v>
       </c>
       <c r="E14">
-        <v>948.2</v>
+        <v>1115.2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1915,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14">
-        <v>308.5</v>
+        <v>361.5</v>
       </c>
       <c r="J14">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="K14">
         <v>219</v>
       </c>
       <c r="L14">
-        <v>749.7</v>
+        <v>880.8</v>
       </c>
       <c r="M14">
         <v>119</v>
@@ -1936,16 +1939,16 @@
         <v>54.3</v>
       </c>
       <c r="O14">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P14">
-        <v>27043</v>
+        <v>31568</v>
       </c>
       <c r="Q14">
-        <v>123.5</v>
+        <v>144.1</v>
       </c>
       <c r="R14">
-        <v>455.2</v>
+        <v>512.7</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1954,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>45.5</v>
+        <v>48.5</v>
       </c>
       <c r="W14">
-        <v>4541</v>
+        <v>5181</v>
       </c>
       <c r="X14">
         <v>219</v>
       </c>
       <c r="Y14">
-        <v>229.2</v>
+        <v>267.5</v>
       </c>
       <c r="Z14">
         <v>118</v>
@@ -1978,13 +1981,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC14">
-        <v>26182</v>
+        <v>54338</v>
       </c>
       <c r="AD14">
-        <v>119.6</v>
+        <v>248.1</v>
       </c>
       <c r="AE14">
-        <v>387.6</v>
+        <v>440.8</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1993,28 +1996,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>334.5</v>
       </c>
       <c r="AJ14">
-        <v>3292</v>
+        <v>2680</v>
       </c>
       <c r="AK14">
         <v>219</v>
       </c>
       <c r="AL14">
-        <v>654.6</v>
+        <v>460.5</v>
       </c>
       <c r="AM14">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="AN14">
-        <v>18.3</v>
+        <v>53.9</v>
       </c>
       <c r="AO14">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2023,13 +2026,13 @@
         <v>35</v>
       </c>
       <c r="C15">
-        <v>3056</v>
+        <v>3593</v>
       </c>
       <c r="D15">
-        <v>382</v>
+        <v>449.1</v>
       </c>
       <c r="E15">
-        <v>488.1</v>
+        <v>575.5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2038,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>90.5</v>
+        <v>90</v>
       </c>
       <c r="I15">
-        <v>841.2</v>
+        <v>1069.8</v>
       </c>
       <c r="J15">
-        <v>1088</v>
+        <v>1230</v>
       </c>
       <c r="K15">
         <v>8</v>
       </c>
       <c r="L15">
-        <v>764</v>
+        <v>898.2</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -2059,16 +2062,16 @@
         <v>50</v>
       </c>
       <c r="O15">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P15">
-        <v>572</v>
+        <v>674</v>
       </c>
       <c r="Q15">
-        <v>71.5</v>
+        <v>84.2</v>
       </c>
       <c r="R15">
-        <v>95.90000000000001</v>
+        <v>116.3</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2080,16 +2083,16 @@
         <v>8.5</v>
       </c>
       <c r="V15">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="W15">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="X15">
         <v>8</v>
       </c>
       <c r="Y15">
-        <v>143</v>
+        <v>168.5</v>
       </c>
       <c r="Z15">
         <v>4</v>
@@ -2101,13 +2104,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>795</v>
+        <v>2431</v>
       </c>
       <c r="AD15">
-        <v>99.40000000000001</v>
+        <v>303.9</v>
       </c>
       <c r="AE15">
-        <v>281.1</v>
+        <v>514.2</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2116,28 +2119,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>359.8</v>
       </c>
       <c r="AJ15">
-        <v>795</v>
+        <v>1205</v>
       </c>
       <c r="AK15">
         <v>8</v>
       </c>
       <c r="AL15">
-        <v>795</v>
+        <v>607.8</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN15">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AO15">
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2148,31 +2151,31 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="D16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="F16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="G16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="H16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="I16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="J16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2184,31 +2187,31 @@
         <v>2.1</v>
       </c>
       <c r="P16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Q16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="S16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="T16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="U16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="V16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="W16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2250,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>-1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2295,16 +2298,16 @@
         <v>25</v>
       </c>
       <c r="O17">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2316,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X17">
         <v>4</v>
       </c>
       <c r="Y17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -2337,13 +2340,13 @@
         <v>-1.7</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2355,22 +2358,25 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AK17">
         <v>4</v>
       </c>
+      <c r="AL17">
+        <v>61</v>
+      </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO17">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2418,13 +2424,13 @@
         <v>-1.3</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="R18">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2436,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
         <v>1</v>
-      </c>
-      <c r="W18">
-        <v>2</v>
       </c>
       <c r="X18">
         <v>3</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2457,13 +2463,13 @@
         <v>-1.3</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>72.2</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2475,22 +2481,25 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AK18">
         <v>3</v>
       </c>
+      <c r="AL18">
+        <v>125</v>
+      </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO18">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2499,13 +2508,13 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>49204</v>
+        <v>54004</v>
       </c>
       <c r="D19">
-        <v>7029.1</v>
+        <v>7714.9</v>
       </c>
       <c r="E19">
-        <v>17887.6</v>
+        <v>19654.6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2517,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="J19">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K19">
         <v>7</v>
       </c>
       <c r="L19">
-        <v>24602</v>
+        <v>27002</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -2535,16 +2544,16 @@
         <v>28.6</v>
       </c>
       <c r="O19">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="P19">
-        <v>21295</v>
+        <v>25062</v>
       </c>
       <c r="Q19">
-        <v>3042.1</v>
+        <v>3580.3</v>
       </c>
       <c r="R19">
-        <v>7869</v>
+        <v>9278.200000000001</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2556,16 +2565,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="W19">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X19">
         <v>7</v>
       </c>
       <c r="Y19">
-        <v>10647.5</v>
+        <v>12531</v>
       </c>
       <c r="Z19">
         <v>2</v>
@@ -2574,16 +2583,16 @@
         <v>28.6</v>
       </c>
       <c r="AB19">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AC19">
-        <v>675</v>
+        <v>1807</v>
       </c>
       <c r="AD19">
-        <v>96.40000000000001</v>
+        <v>258.1</v>
       </c>
       <c r="AE19">
-        <v>255.1</v>
+        <v>425</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2595,25 +2604,25 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>437.5</v>
       </c>
       <c r="AJ19">
-        <v>675</v>
+        <v>932</v>
       </c>
       <c r="AK19">
         <v>7</v>
       </c>
       <c r="AL19">
-        <v>675</v>
+        <v>602.3</v>
       </c>
       <c r="AM19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN19">
-        <v>14.3</v>
+        <v>42.9</v>
       </c>
       <c r="AO19">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2624,34 +2633,34 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>31393</v>
+        <v>38370</v>
       </c>
       <c r="D20">
-        <v>3139.3</v>
+        <v>3837</v>
       </c>
       <c r="E20">
-        <v>3334.9</v>
+        <v>3821.3</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>375</v>
+        <v>635.5</v>
       </c>
       <c r="H20">
-        <v>2555.5</v>
+        <v>3790</v>
       </c>
       <c r="I20">
-        <v>4353.8</v>
+        <v>4923</v>
       </c>
       <c r="J20">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K20">
         <v>10</v>
       </c>
       <c r="L20">
-        <v>4484.7</v>
+        <v>5481.4</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2660,37 +2669,37 @@
         <v>70</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P20">
-        <v>56883</v>
+        <v>69262</v>
       </c>
       <c r="Q20">
-        <v>5688.3</v>
+        <v>6926.2</v>
       </c>
       <c r="R20">
-        <v>5945.6</v>
+        <v>6845.9</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>687.8</v>
+        <v>880.2</v>
       </c>
       <c r="U20">
-        <v>4321</v>
+        <v>5462</v>
       </c>
       <c r="V20">
-        <v>7609.8</v>
+        <v>10341.2</v>
       </c>
       <c r="W20">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X20">
         <v>10</v>
       </c>
       <c r="Y20">
-        <v>7110.4</v>
+        <v>8657.799999999999</v>
       </c>
       <c r="Z20">
         <v>8</v>
@@ -2702,34 +2711,34 @@
         <v>1</v>
       </c>
       <c r="AC20">
-        <v>10253</v>
+        <v>12173</v>
       </c>
       <c r="AD20">
-        <v>1025.3</v>
+        <v>1217.3</v>
       </c>
       <c r="AE20">
-        <v>995.4</v>
+        <v>1151.9</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>72.8</v>
+        <v>98</v>
       </c>
       <c r="AH20">
-        <v>992</v>
+        <v>1206</v>
       </c>
       <c r="AI20">
-        <v>1514.5</v>
+        <v>1917.5</v>
       </c>
       <c r="AJ20">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK20">
         <v>10</v>
       </c>
       <c r="AL20">
-        <v>1464.7</v>
+        <v>1739</v>
       </c>
       <c r="AM20">
         <v>7</v>
@@ -2738,7 +2747,7 @@
         <v>70</v>
       </c>
       <c r="AO20">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2747,34 +2756,34 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>120283</v>
+        <v>144759</v>
       </c>
       <c r="D21">
-        <v>2863.9</v>
+        <v>3446.6</v>
       </c>
       <c r="E21">
-        <v>4508.3</v>
+        <v>5548.7</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>199.5</v>
+        <v>223.2</v>
       </c>
       <c r="H21">
-        <v>1089.5</v>
+        <v>1367.5</v>
       </c>
       <c r="I21">
-        <v>3101.8</v>
+        <v>3871</v>
       </c>
       <c r="J21">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K21">
         <v>42</v>
       </c>
       <c r="L21">
-        <v>3537.7</v>
+        <v>4257.6</v>
       </c>
       <c r="M21">
         <v>34</v>
@@ -2786,34 +2795,34 @@
         <v>1.1</v>
       </c>
       <c r="P21">
-        <v>71786</v>
+        <v>85295</v>
       </c>
       <c r="Q21">
-        <v>1709.2</v>
+        <v>2030.8</v>
       </c>
       <c r="R21">
-        <v>3564.4</v>
+        <v>4190</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>47.2</v>
+        <v>56</v>
       </c>
       <c r="U21">
-        <v>341.5</v>
+        <v>415.5</v>
       </c>
       <c r="V21">
-        <v>1921.2</v>
+        <v>2237.5</v>
       </c>
       <c r="W21">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X21">
         <v>42</v>
       </c>
       <c r="Y21">
-        <v>1994.1</v>
+        <v>2369.3</v>
       </c>
       <c r="Z21">
         <v>36</v>
@@ -2825,40 +2834,40 @@
         <v>1.3</v>
       </c>
       <c r="AC21">
-        <v>27006</v>
+        <v>40192</v>
       </c>
       <c r="AD21">
-        <v>643</v>
+        <v>957</v>
       </c>
       <c r="AE21">
-        <v>640.9</v>
+        <v>842.1</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>350.2</v>
       </c>
       <c r="AH21">
-        <v>555</v>
+        <v>837.5</v>
       </c>
       <c r="AI21">
-        <v>1054</v>
+        <v>1218</v>
       </c>
       <c r="AJ21">
-        <v>2421</v>
+        <v>3423</v>
       </c>
       <c r="AK21">
         <v>42</v>
       </c>
       <c r="AL21">
-        <v>900.2</v>
+        <v>1057.7</v>
       </c>
       <c r="AM21">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AN21">
-        <v>71.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="AO21">
         <v>1.4</v>
@@ -2870,34 +2879,34 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>68998</v>
+        <v>84473</v>
       </c>
       <c r="D22">
-        <v>1326.9</v>
+        <v>1624.5</v>
       </c>
       <c r="E22">
-        <v>1160.5</v>
+        <v>1424</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>480.5</v>
+        <v>604.8</v>
       </c>
       <c r="H22">
-        <v>1131</v>
+        <v>1395.5</v>
       </c>
       <c r="I22">
-        <v>1707.5</v>
+        <v>2095.5</v>
       </c>
       <c r="J22">
-        <v>5179</v>
+        <v>5934</v>
       </c>
       <c r="K22">
         <v>52</v>
       </c>
       <c r="L22">
-        <v>1437.5</v>
+        <v>1759.9</v>
       </c>
       <c r="M22">
         <v>48</v>
@@ -2909,34 +2918,34 @@
         <v>1.7</v>
       </c>
       <c r="P22">
-        <v>19838</v>
+        <v>23323</v>
       </c>
       <c r="Q22">
-        <v>381.5</v>
+        <v>448.5</v>
       </c>
       <c r="R22">
-        <v>427.9</v>
+        <v>501.2</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>83.8</v>
+        <v>93.2</v>
       </c>
       <c r="U22">
-        <v>255.5</v>
+        <v>287.5</v>
       </c>
       <c r="V22">
-        <v>492.2</v>
+        <v>602.8</v>
       </c>
       <c r="W22">
-        <v>1945</v>
+        <v>2377</v>
       </c>
       <c r="X22">
         <v>52</v>
       </c>
       <c r="Y22">
-        <v>413.3</v>
+        <v>485.9</v>
       </c>
       <c r="Z22">
         <v>48</v>
@@ -2948,43 +2957,43 @@
         <v>1.6</v>
       </c>
       <c r="AC22">
-        <v>20808</v>
+        <v>36238</v>
       </c>
       <c r="AD22">
-        <v>400.2</v>
+        <v>696.9</v>
       </c>
       <c r="AE22">
-        <v>465.2</v>
+        <v>562.2</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>331.2</v>
       </c>
       <c r="AH22">
-        <v>379.5</v>
+        <v>574</v>
       </c>
       <c r="AI22">
-        <v>701.5</v>
+        <v>974.8</v>
       </c>
       <c r="AJ22">
-        <v>1678</v>
+        <v>2139</v>
       </c>
       <c r="AK22">
         <v>52</v>
       </c>
       <c r="AL22">
-        <v>717.5</v>
+        <v>771</v>
       </c>
       <c r="AM22">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AN22">
-        <v>55.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AO22">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -2993,13 +3002,13 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>100042</v>
+        <v>118599</v>
       </c>
       <c r="D23">
-        <v>833.7</v>
+        <v>988.3</v>
       </c>
       <c r="E23">
-        <v>1198</v>
+        <v>1414.2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3008,19 +3017,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>309</v>
+        <v>357.5</v>
       </c>
       <c r="I23">
-        <v>1282.8</v>
+        <v>1637.2</v>
       </c>
       <c r="J23">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="K23">
         <v>120</v>
       </c>
       <c r="L23">
-        <v>1282.6</v>
+        <v>1520.5</v>
       </c>
       <c r="M23">
         <v>78</v>
@@ -3032,13 +3041,13 @@
         <v>0.3</v>
       </c>
       <c r="P23">
-        <v>47804</v>
+        <v>55134</v>
       </c>
       <c r="Q23">
-        <v>398.4</v>
+        <v>459.4</v>
       </c>
       <c r="R23">
-        <v>1266.1</v>
+        <v>1409.6</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3047,19 +3056,19 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V23">
-        <v>234.5</v>
+        <v>262.2</v>
       </c>
       <c r="W23">
-        <v>9196</v>
+        <v>10080</v>
       </c>
       <c r="X23">
         <v>120</v>
       </c>
       <c r="Y23">
-        <v>612.9</v>
+        <v>706.8</v>
       </c>
       <c r="Z23">
         <v>78</v>
@@ -3068,16 +3077,16 @@
         <v>65</v>
       </c>
       <c r="AB23">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC23">
-        <v>41014</v>
+        <v>42844</v>
       </c>
       <c r="AD23">
-        <v>341.8</v>
+        <v>357</v>
       </c>
       <c r="AE23">
-        <v>825</v>
+        <v>478.4</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3086,28 +3095,28 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AI23">
-        <v>498.5</v>
+        <v>612</v>
       </c>
       <c r="AJ23">
-        <v>7154</v>
+        <v>1831</v>
       </c>
       <c r="AK23">
         <v>120</v>
       </c>
       <c r="AL23">
-        <v>891.6</v>
+        <v>563.7</v>
       </c>
       <c r="AM23">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AN23">
-        <v>38.3</v>
+        <v>63.3</v>
       </c>
       <c r="AO23">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3116,13 +3125,13 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>4303</v>
+        <v>5343</v>
       </c>
       <c r="D24">
-        <v>307.4</v>
+        <v>381.6</v>
       </c>
       <c r="E24">
-        <v>468</v>
+        <v>587.3</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3131,19 +3140,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="I24">
-        <v>610</v>
+        <v>735.5</v>
       </c>
       <c r="J24">
-        <v>1343</v>
+        <v>1563</v>
       </c>
       <c r="K24">
         <v>14</v>
       </c>
       <c r="L24">
-        <v>537.9</v>
+        <v>667.9</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -3155,13 +3164,13 @@
         <v>-0.1</v>
       </c>
       <c r="P24">
-        <v>1023</v>
+        <v>1161</v>
       </c>
       <c r="Q24">
-        <v>73.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="R24">
-        <v>144.3</v>
+        <v>159.3</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3170,19 +3179,19 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>94.5</v>
+        <v>106.2</v>
       </c>
       <c r="W24">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="X24">
         <v>14</v>
       </c>
       <c r="Y24">
-        <v>146.1</v>
+        <v>165.9</v>
       </c>
       <c r="Z24">
         <v>7</v>
@@ -3194,13 +3203,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>16576</v>
+        <v>3479</v>
       </c>
       <c r="AD24">
-        <v>1184</v>
+        <v>248.5</v>
       </c>
       <c r="AE24">
-        <v>2932.9</v>
+        <v>391</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3209,28 +3218,28 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI24">
-        <v>23.2</v>
+        <v>351.8</v>
       </c>
       <c r="AJ24">
-        <v>8880</v>
+        <v>1122</v>
       </c>
       <c r="AK24">
         <v>14</v>
       </c>
       <c r="AL24">
-        <v>4144</v>
+        <v>497</v>
       </c>
       <c r="AM24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN24">
-        <v>28.6</v>
+        <v>50</v>
       </c>
       <c r="AO24">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3241,34 +3250,34 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>26445</v>
+        <v>32216</v>
       </c>
       <c r="D25">
-        <v>853.1</v>
+        <v>1039.2</v>
       </c>
       <c r="E25">
-        <v>799.5</v>
+        <v>991</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>64.5</v>
+        <v>86.5</v>
       </c>
       <c r="H25">
-        <v>898</v>
+        <v>1056</v>
       </c>
       <c r="I25">
-        <v>1237</v>
+        <v>1417.5</v>
       </c>
       <c r="J25">
-        <v>2868</v>
+        <v>3423</v>
       </c>
       <c r="K25">
         <v>31</v>
       </c>
       <c r="L25">
-        <v>1149.8</v>
+        <v>1400.7</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -3277,37 +3286,37 @@
         <v>74.2</v>
       </c>
       <c r="O25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P25">
-        <v>12271</v>
+        <v>14182</v>
       </c>
       <c r="Q25">
-        <v>395.8</v>
+        <v>457.5</v>
       </c>
       <c r="R25">
-        <v>542</v>
+        <v>638.3</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="V25">
-        <v>442.5</v>
+        <v>512.5</v>
       </c>
       <c r="W25">
-        <v>1866</v>
+        <v>2197</v>
       </c>
       <c r="X25">
         <v>31</v>
       </c>
       <c r="Y25">
-        <v>533.5</v>
+        <v>616.6</v>
       </c>
       <c r="Z25">
         <v>23</v>
@@ -3319,43 +3328,43 @@
         <v>0.7</v>
       </c>
       <c r="AC25">
-        <v>16513</v>
+        <v>21849</v>
       </c>
       <c r="AD25">
-        <v>532.7</v>
+        <v>704.8</v>
       </c>
       <c r="AE25">
-        <v>476.4</v>
+        <v>572.7</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>299.5</v>
       </c>
       <c r="AH25">
-        <v>537</v>
+        <v>680</v>
       </c>
       <c r="AI25">
-        <v>773.5</v>
+        <v>1017</v>
       </c>
       <c r="AJ25">
-        <v>1515</v>
+        <v>1988</v>
       </c>
       <c r="AK25">
         <v>31</v>
       </c>
       <c r="AL25">
-        <v>786.3</v>
+        <v>874</v>
       </c>
       <c r="AM25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AN25">
-        <v>67.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="AO25">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3364,13 +3373,13 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>10939</v>
+        <v>12682</v>
       </c>
       <c r="D26">
-        <v>420.7</v>
+        <v>487.8</v>
       </c>
       <c r="E26">
-        <v>567</v>
+        <v>654.8</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3379,103 +3388,103 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>242</v>
+        <v>289.5</v>
       </c>
       <c r="I26">
-        <v>557.5</v>
+        <v>657.5</v>
       </c>
       <c r="J26">
-        <v>2057</v>
+        <v>2129</v>
       </c>
       <c r="K26">
         <v>26</v>
       </c>
       <c r="L26">
-        <v>643.5</v>
+        <v>792.6</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>65.40000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="O26">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P26">
-        <v>2109</v>
+        <v>2148</v>
       </c>
       <c r="Q26">
-        <v>81.09999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="R26">
-        <v>120.7</v>
+        <v>127.8</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="V26">
-        <v>109.8</v>
+        <v>77.5</v>
       </c>
       <c r="W26">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="X26">
         <v>26</v>
       </c>
       <c r="Y26">
-        <v>111</v>
+        <v>119.3</v>
       </c>
       <c r="Z26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA26">
-        <v>73.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="AB26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AC26">
-        <v>8870</v>
+        <v>14095</v>
       </c>
       <c r="AD26">
-        <v>341.2</v>
+        <v>542.1</v>
       </c>
       <c r="AE26">
-        <v>475.1</v>
+        <v>609.8</v>
       </c>
       <c r="AF26">
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="AH26">
-        <v>42.5</v>
+        <v>348</v>
       </c>
       <c r="AI26">
-        <v>564</v>
+        <v>845.2</v>
       </c>
       <c r="AJ26">
-        <v>1492</v>
+        <v>2014</v>
       </c>
       <c r="AK26">
         <v>26</v>
       </c>
       <c r="AL26">
-        <v>682.3</v>
+        <v>741.8</v>
       </c>
       <c r="AM26">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AN26">
-        <v>50</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="AO26">
         <v>0.5</v>
@@ -3487,13 +3496,13 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>20980</v>
+        <v>23718</v>
       </c>
       <c r="D27">
-        <v>552.1</v>
+        <v>624.2</v>
       </c>
       <c r="E27">
-        <v>1030.6</v>
+        <v>1174.7</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3502,37 +3511,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="J27">
-        <v>4347</v>
+        <v>5153</v>
       </c>
       <c r="K27">
         <v>38</v>
       </c>
       <c r="L27">
-        <v>1049</v>
+        <v>1317.7</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N27">
-        <v>52.6</v>
+        <v>47.4</v>
       </c>
       <c r="O27">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="P27">
-        <v>4718</v>
+        <v>5603</v>
       </c>
       <c r="Q27">
-        <v>124.2</v>
+        <v>147.4</v>
       </c>
       <c r="R27">
-        <v>245.4</v>
+        <v>296.4</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3541,37 +3550,37 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="V27">
-        <v>58.2</v>
+        <v>72</v>
       </c>
       <c r="W27">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="X27">
         <v>38</v>
       </c>
       <c r="Y27">
-        <v>224.7</v>
+        <v>294.9</v>
       </c>
       <c r="Z27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA27">
-        <v>55.3</v>
+        <v>50</v>
       </c>
       <c r="AB27">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>8995</v>
+        <v>15170</v>
       </c>
       <c r="AD27">
-        <v>236.7</v>
+        <v>399.2</v>
       </c>
       <c r="AE27">
-        <v>519.6</v>
+        <v>602.8</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3580,28 +3589,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AI27">
-        <v>81</v>
+        <v>515.5</v>
       </c>
       <c r="AJ27">
-        <v>1774</v>
+        <v>1988</v>
       </c>
       <c r="AK27">
         <v>38</v>
       </c>
       <c r="AL27">
-        <v>899.5</v>
+        <v>722.4</v>
       </c>
       <c r="AM27">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AN27">
-        <v>26.3</v>
+        <v>55.3</v>
       </c>
       <c r="AO27">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3610,13 +3619,13 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>10828</v>
+        <v>14867</v>
       </c>
       <c r="D28">
-        <v>1082.8</v>
+        <v>1486.7</v>
       </c>
       <c r="E28">
-        <v>2441</v>
+        <v>3583.2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3625,19 +3634,19 @@
         <v>1.2</v>
       </c>
       <c r="H28">
-        <v>49.5</v>
+        <v>69</v>
       </c>
       <c r="I28">
-        <v>249</v>
+        <v>301.2</v>
       </c>
       <c r="J28">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="K28">
         <v>10</v>
       </c>
       <c r="L28">
-        <v>1546.9</v>
+        <v>2123.9</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -3646,37 +3655,37 @@
         <v>70</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P28">
-        <v>2018</v>
+        <v>2685</v>
       </c>
       <c r="Q28">
-        <v>201.8</v>
+        <v>268.5</v>
       </c>
       <c r="R28">
-        <v>518</v>
+        <v>716.1</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U28">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="V28">
-        <v>24.8</v>
+        <v>26.5</v>
       </c>
       <c r="W28">
-        <v>1654</v>
+        <v>2288</v>
       </c>
       <c r="X28">
         <v>10</v>
       </c>
       <c r="Y28">
-        <v>288.3</v>
+        <v>383.6</v>
       </c>
       <c r="Z28">
         <v>7</v>
@@ -3688,43 +3697,43 @@
         <v>0.5</v>
       </c>
       <c r="AC28">
-        <v>1059</v>
+        <v>5431</v>
       </c>
       <c r="AD28">
-        <v>105.9</v>
+        <v>543.1</v>
       </c>
       <c r="AE28">
-        <v>223.8</v>
+        <v>989.9</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>214.5</v>
       </c>
       <c r="AI28">
-        <v>91.5</v>
+        <v>547.2</v>
       </c>
       <c r="AJ28">
-        <v>702</v>
+        <v>3251</v>
       </c>
       <c r="AK28">
         <v>10</v>
       </c>
       <c r="AL28">
-        <v>353</v>
+        <v>775.9</v>
       </c>
       <c r="AM28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN28">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AO28">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3735,121 +3744,121 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>89453</v>
+        <v>105526</v>
       </c>
       <c r="D29">
-        <v>1789.1</v>
+        <v>2110.5</v>
       </c>
       <c r="E29">
-        <v>1870</v>
+        <v>2197.3</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>416.8</v>
+        <v>370.2</v>
       </c>
       <c r="H29">
-        <v>1097</v>
+        <v>1298.5</v>
       </c>
       <c r="I29">
-        <v>2668.8</v>
+        <v>3196.8</v>
       </c>
       <c r="J29">
-        <v>7874</v>
+        <v>8761</v>
       </c>
       <c r="K29">
         <v>50</v>
       </c>
       <c r="L29">
-        <v>2129.8</v>
+        <v>2573.8</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O29">
         <v>1.2</v>
       </c>
       <c r="P29">
-        <v>49334</v>
+        <v>58405</v>
       </c>
       <c r="Q29">
-        <v>986.7</v>
+        <v>1168.1</v>
       </c>
       <c r="R29">
-        <v>2828.9</v>
+        <v>3519.9</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>106.2</v>
+        <v>86.2</v>
       </c>
       <c r="U29">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="V29">
-        <v>763.2</v>
+        <v>933.8</v>
       </c>
       <c r="W29">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X29">
         <v>50</v>
       </c>
       <c r="Y29">
-        <v>1096.3</v>
+        <v>1327.4</v>
       </c>
       <c r="Z29">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA29">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB29">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC29">
-        <v>32228</v>
+        <v>39502</v>
       </c>
       <c r="AD29">
-        <v>644.6</v>
+        <v>790</v>
       </c>
       <c r="AE29">
-        <v>765.3</v>
+        <v>901.9</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="AH29">
-        <v>539</v>
+        <v>657</v>
       </c>
       <c r="AI29">
-        <v>797.2</v>
+        <v>1054</v>
       </c>
       <c r="AJ29">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK29">
         <v>50</v>
       </c>
       <c r="AL29">
-        <v>895.2</v>
+        <v>1039.5</v>
       </c>
       <c r="AM29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AN29">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AO29">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3858,13 +3867,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>55642</v>
+        <v>65756</v>
       </c>
       <c r="D30">
-        <v>670.4</v>
+        <v>792.2</v>
       </c>
       <c r="E30">
-        <v>1053.1</v>
+        <v>1234.1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3873,19 +3882,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I30">
-        <v>955.5</v>
+        <v>1142</v>
       </c>
       <c r="J30">
-        <v>4331</v>
+        <v>4945</v>
       </c>
       <c r="K30">
         <v>83</v>
       </c>
       <c r="L30">
-        <v>1112.8</v>
+        <v>1315.1</v>
       </c>
       <c r="M30">
         <v>50</v>
@@ -3894,16 +3903,16 @@
         <v>60.2</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P30">
-        <v>15884</v>
+        <v>18101</v>
       </c>
       <c r="Q30">
-        <v>191.4</v>
+        <v>218.1</v>
       </c>
       <c r="R30">
-        <v>364.4</v>
+        <v>418.4</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3912,37 +3921,37 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V30">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="W30">
-        <v>1766</v>
+        <v>2232</v>
       </c>
       <c r="X30">
         <v>83</v>
       </c>
       <c r="Y30">
-        <v>317.7</v>
+        <v>354.9</v>
       </c>
       <c r="Z30">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA30">
-        <v>60.2</v>
+        <v>61.4</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC30">
-        <v>47452</v>
+        <v>41424</v>
       </c>
       <c r="AD30">
-        <v>571.7</v>
+        <v>499.1</v>
       </c>
       <c r="AE30">
-        <v>1065.7</v>
+        <v>714.5</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3951,28 +3960,28 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="AI30">
-        <v>670</v>
+        <v>674.5</v>
       </c>
       <c r="AJ30">
-        <v>6327</v>
+        <v>3197</v>
       </c>
       <c r="AK30">
         <v>83</v>
       </c>
       <c r="AL30">
-        <v>1129.8</v>
+        <v>702.1</v>
       </c>
       <c r="AM30">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AN30">
-        <v>50.6</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -3981,13 +3990,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>62653</v>
+        <v>74949</v>
       </c>
       <c r="D31">
-        <v>574.8</v>
+        <v>687.6</v>
       </c>
       <c r="E31">
-        <v>1535.8</v>
+        <v>1893.9</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3996,19 +4005,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I31">
-        <v>593</v>
+        <v>702</v>
       </c>
       <c r="J31">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K31">
         <v>109</v>
       </c>
       <c r="L31">
-        <v>935.1</v>
+        <v>1118.6</v>
       </c>
       <c r="M31">
         <v>67</v>
@@ -4017,16 +4026,16 @@
         <v>61.5</v>
       </c>
       <c r="O31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P31">
-        <v>15061</v>
+        <v>19141</v>
       </c>
       <c r="Q31">
-        <v>138.2</v>
+        <v>175.6</v>
       </c>
       <c r="R31">
-        <v>334</v>
+        <v>454.1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4035,37 +4044,37 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V31">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="W31">
-        <v>1921</v>
+        <v>3142</v>
       </c>
       <c r="X31">
         <v>109</v>
       </c>
       <c r="Y31">
-        <v>212.1</v>
+        <v>265.8</v>
       </c>
       <c r="Z31">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31">
-        <v>65.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="AB31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC31">
-        <v>34480</v>
+        <v>50042</v>
       </c>
       <c r="AD31">
-        <v>316.3</v>
+        <v>459.1</v>
       </c>
       <c r="AE31">
-        <v>554.6</v>
+        <v>724.4</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4074,28 +4083,28 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AI31">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="AJ31">
-        <v>3550</v>
+        <v>4356</v>
       </c>
       <c r="AK31">
         <v>109</v>
       </c>
       <c r="AL31">
-        <v>676.1</v>
+        <v>714.9</v>
       </c>
       <c r="AM31">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AN31">
-        <v>46.8</v>
+        <v>64.2</v>
       </c>
       <c r="AO31">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4104,13 +4113,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>1060</v>
+        <v>1354</v>
       </c>
       <c r="D32">
-        <v>212</v>
+        <v>270.8</v>
       </c>
       <c r="E32">
-        <v>235.5</v>
+        <v>342.8</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4119,19 +4128,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="I32">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="J32">
-        <v>572</v>
+        <v>839</v>
       </c>
       <c r="K32">
         <v>5</v>
       </c>
       <c r="L32">
-        <v>353.3</v>
+        <v>451.3</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -4140,16 +4149,16 @@
         <v>60</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P32">
-        <v>323</v>
+        <v>443</v>
       </c>
       <c r="Q32">
-        <v>64.59999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R32">
-        <v>118.3</v>
+        <v>171.1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4161,16 +4170,16 @@
         <v>7</v>
       </c>
       <c r="V32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W32">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="X32">
         <v>5</v>
       </c>
       <c r="Y32">
-        <v>107.7</v>
+        <v>147.7</v>
       </c>
       <c r="Z32">
         <v>3</v>
@@ -4179,16 +4188,16 @@
         <v>60</v>
       </c>
       <c r="AB32">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>21467</v>
+        <v>1472</v>
       </c>
       <c r="AD32">
-        <v>4293.4</v>
+        <v>294.4</v>
       </c>
       <c r="AE32">
-        <v>8927.5</v>
+        <v>542.8</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -4197,28 +4206,28 @@
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>1012</v>
+        <v>222</v>
       </c>
       <c r="AJ32">
-        <v>20246</v>
+        <v>1250</v>
       </c>
       <c r="AK32">
         <v>5</v>
       </c>
       <c r="AL32">
-        <v>7155.7</v>
+        <v>736</v>
       </c>
       <c r="AM32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN32">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AO32">
-        <v>0.9</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4229,121 +4238,121 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>5968</v>
+        <v>6052</v>
       </c>
       <c r="D33">
-        <v>852.6</v>
+        <v>864.6</v>
       </c>
       <c r="E33">
-        <v>564.6</v>
+        <v>778.4</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>566.5</v>
+        <v>298</v>
       </c>
       <c r="H33">
-        <v>874</v>
+        <v>675</v>
       </c>
       <c r="I33">
-        <v>1096</v>
+        <v>1378</v>
       </c>
       <c r="J33">
-        <v>1769</v>
+        <v>2025</v>
       </c>
       <c r="K33">
         <v>7</v>
       </c>
       <c r="L33">
-        <v>994.7</v>
+        <v>1210.4</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>85.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="O33">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="P33">
-        <v>2354</v>
+        <v>2424</v>
       </c>
       <c r="Q33">
-        <v>336.3</v>
+        <v>346.3</v>
       </c>
       <c r="R33">
-        <v>363.1</v>
+        <v>464.8</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>96</v>
+        <v>37.5</v>
       </c>
       <c r="U33">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="V33">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="W33">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X33">
         <v>7</v>
       </c>
       <c r="Y33">
-        <v>392.3</v>
+        <v>484.8</v>
       </c>
       <c r="Z33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA33">
-        <v>85.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AB33">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AC33">
-        <v>4692</v>
+        <v>4314</v>
       </c>
       <c r="AD33">
-        <v>670.3</v>
+        <v>616.3</v>
       </c>
       <c r="AE33">
-        <v>396.1</v>
+        <v>439.5</v>
       </c>
       <c r="AF33">
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>519</v>
+        <v>346</v>
       </c>
       <c r="AH33">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="AI33">
-        <v>813</v>
+        <v>925</v>
       </c>
       <c r="AJ33">
-        <v>1292</v>
+        <v>1053</v>
       </c>
       <c r="AK33">
         <v>7</v>
       </c>
       <c r="AL33">
-        <v>782</v>
+        <v>862.8</v>
       </c>
       <c r="AM33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN33">
-        <v>85.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4352,13 +4361,13 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>18917</v>
+        <v>27833</v>
       </c>
       <c r="D34">
-        <v>945.8</v>
+        <v>1391.6</v>
       </c>
       <c r="E34">
-        <v>3297.5</v>
+        <v>5094.7</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4370,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>448</v>
+        <v>527.8</v>
       </c>
       <c r="J34">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K34">
         <v>20</v>
       </c>
       <c r="L34">
-        <v>2101.9</v>
+        <v>3092.6</v>
       </c>
       <c r="M34">
         <v>9</v>
@@ -4391,13 +4400,13 @@
         <v>-0.7</v>
       </c>
       <c r="P34">
-        <v>11195</v>
+        <v>18577</v>
       </c>
       <c r="Q34">
-        <v>559.8</v>
+        <v>928.8</v>
       </c>
       <c r="R34">
-        <v>2322.5</v>
+        <v>3948.6</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4409,16 +4418,16 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>58.8</v>
+        <v>67</v>
       </c>
       <c r="W34">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X34">
         <v>20</v>
       </c>
       <c r="Y34">
-        <v>1243.9</v>
+        <v>2064.1</v>
       </c>
       <c r="Z34">
         <v>9</v>
@@ -4430,13 +4439,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC34">
-        <v>14717</v>
+        <v>6546</v>
       </c>
       <c r="AD34">
-        <v>735.8</v>
+        <v>327.3</v>
       </c>
       <c r="AE34">
-        <v>1863.3</v>
+        <v>389.4</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4445,28 +4454,28 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="AI34">
-        <v>458.2</v>
+        <v>727</v>
       </c>
       <c r="AJ34">
-        <v>6887</v>
+        <v>1112</v>
       </c>
       <c r="AK34">
         <v>20</v>
       </c>
       <c r="AL34">
-        <v>2102.4</v>
+        <v>595.1</v>
       </c>
       <c r="AM34">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AN34">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AO34">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4475,13 +4484,13 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>15544</v>
+        <v>19135</v>
       </c>
       <c r="D35">
-        <v>272.7</v>
+        <v>335.7</v>
       </c>
       <c r="E35">
-        <v>769.7</v>
+        <v>955.3</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4493,16 +4502,16 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="J35">
-        <v>4946</v>
+        <v>6087</v>
       </c>
       <c r="K35">
         <v>57</v>
       </c>
       <c r="L35">
-        <v>647.7</v>
+        <v>797.3</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -4511,16 +4520,16 @@
         <v>42.1</v>
       </c>
       <c r="O35">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="P35">
-        <v>2546</v>
+        <v>3409</v>
       </c>
       <c r="Q35">
-        <v>44.7</v>
+        <v>59.8</v>
       </c>
       <c r="R35">
-        <v>103.6</v>
+        <v>140.8</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4532,16 +4541,16 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W35">
-        <v>428</v>
+        <v>689</v>
       </c>
       <c r="X35">
         <v>57</v>
       </c>
       <c r="Y35">
-        <v>110.7</v>
+        <v>148.2</v>
       </c>
       <c r="Z35">
         <v>23</v>
@@ -4550,16 +4559,16 @@
         <v>40.4</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AC35">
-        <v>15200</v>
+        <v>17467</v>
       </c>
       <c r="AD35">
-        <v>266.7</v>
+        <v>306.4</v>
       </c>
       <c r="AE35">
-        <v>975</v>
+        <v>417.8</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4568,28 +4577,28 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AJ35">
-        <v>6887</v>
+        <v>1516</v>
       </c>
       <c r="AK35">
         <v>57</v>
       </c>
       <c r="AL35">
-        <v>1266.7</v>
+        <v>563.5</v>
       </c>
       <c r="AM35">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AN35">
-        <v>21.1</v>
+        <v>54.4</v>
       </c>
       <c r="AO35">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4598,13 +4607,13 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>11337</v>
+        <v>13161</v>
       </c>
       <c r="D36">
-        <v>1133.7</v>
+        <v>1316.1</v>
       </c>
       <c r="E36">
-        <v>1795.9</v>
+        <v>2083.5</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4613,19 +4622,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>218.5</v>
+        <v>221.5</v>
       </c>
       <c r="I36">
-        <v>1752</v>
+        <v>2106.8</v>
       </c>
       <c r="J36">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K36">
         <v>10</v>
       </c>
       <c r="L36">
-        <v>1889.5</v>
+        <v>2193.5</v>
       </c>
       <c r="M36">
         <v>6</v>
@@ -4634,16 +4643,16 @@
         <v>60</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P36">
-        <v>2061</v>
+        <v>2392</v>
       </c>
       <c r="Q36">
-        <v>206.1</v>
+        <v>239.2</v>
       </c>
       <c r="R36">
-        <v>291.2</v>
+        <v>335.3</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4652,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V36">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="W36">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="X36">
         <v>10</v>
       </c>
       <c r="Y36">
-        <v>412.2</v>
+        <v>478.4</v>
       </c>
       <c r="Z36">
         <v>5</v>
@@ -4676,13 +4685,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>12079</v>
+        <v>6023</v>
       </c>
       <c r="AD36">
-        <v>1207.9</v>
+        <v>602.3</v>
       </c>
       <c r="AE36">
-        <v>2323.9</v>
+        <v>655.9</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4691,19 +4700,19 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>546</v>
+        <v>414.5</v>
       </c>
       <c r="AI36">
-        <v>1061.2</v>
+        <v>1160.2</v>
       </c>
       <c r="AJ36">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AK36">
         <v>10</v>
       </c>
       <c r="AL36">
-        <v>2013.2</v>
+        <v>1003.8</v>
       </c>
       <c r="AM36">
         <v>6</v>
@@ -4712,7 +4721,7 @@
         <v>60</v>
       </c>
       <c r="AO36">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4723,34 +4732,34 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="D37">
-        <v>585.5</v>
+        <v>638.5</v>
       </c>
       <c r="E37">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>292.8</v>
+        <v>319.2</v>
       </c>
       <c r="H37">
-        <v>585.5</v>
+        <v>638.5</v>
       </c>
       <c r="I37">
-        <v>878.2</v>
+        <v>957.8</v>
       </c>
       <c r="J37">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37">
-        <v>1171</v>
+        <v>1277</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -4759,37 +4768,37 @@
         <v>50</v>
       </c>
       <c r="O37">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P37">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="Q37">
-        <v>423.5</v>
+        <v>489</v>
       </c>
       <c r="R37">
-        <v>598.9</v>
+        <v>691.6</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>211.8</v>
+        <v>244.5</v>
       </c>
       <c r="U37">
-        <v>423.5</v>
+        <v>489</v>
       </c>
       <c r="V37">
-        <v>635.2</v>
+        <v>733.5</v>
       </c>
       <c r="W37">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="X37">
         <v>2</v>
       </c>
       <c r="Y37">
-        <v>847</v>
+        <v>978</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -4801,34 +4810,34 @@
         <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>1455</v>
+        <v>1691</v>
       </c>
       <c r="AD37">
-        <v>727.5</v>
+        <v>845.5</v>
       </c>
       <c r="AE37">
-        <v>470.2</v>
+        <v>502.8</v>
       </c>
       <c r="AF37">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AG37">
-        <v>561.2</v>
+        <v>667.8</v>
       </c>
       <c r="AH37">
-        <v>727.5</v>
+        <v>845.5</v>
       </c>
       <c r="AI37">
-        <v>893.8</v>
+        <v>1023.2</v>
       </c>
       <c r="AJ37">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="AK37">
         <v>2</v>
       </c>
       <c r="AL37">
-        <v>727.5</v>
+        <v>845.5</v>
       </c>
       <c r="AM37">
         <v>2</v>
@@ -4837,7 +4846,7 @@
         <v>100</v>
       </c>
       <c r="AO37">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4846,34 +4855,34 @@
         <v>32</v>
       </c>
       <c r="C38">
-        <v>82170</v>
+        <v>98937</v>
       </c>
       <c r="D38">
-        <v>1643.4</v>
+        <v>1978.7</v>
       </c>
       <c r="E38">
-        <v>2352.7</v>
+        <v>2801.7</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>49.2</v>
       </c>
       <c r="H38">
-        <v>579.5</v>
+        <v>649.5</v>
       </c>
       <c r="I38">
-        <v>1929</v>
+        <v>2489.8</v>
       </c>
       <c r="J38">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K38">
         <v>50</v>
       </c>
       <c r="L38">
-        <v>2106.9</v>
+        <v>2536.8</v>
       </c>
       <c r="M38">
         <v>39</v>
@@ -4882,37 +4891,37 @@
         <v>78</v>
       </c>
       <c r="O38">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>39967</v>
+        <v>46673</v>
       </c>
       <c r="Q38">
-        <v>799.3</v>
+        <v>933.5</v>
       </c>
       <c r="R38">
-        <v>1984.7</v>
+        <v>2288.9</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>9</v>
+        <v>13.8</v>
       </c>
       <c r="U38">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="V38">
-        <v>593</v>
+        <v>651</v>
       </c>
       <c r="W38">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X38">
         <v>50</v>
       </c>
       <c r="Y38">
-        <v>1051.8</v>
+        <v>1228.2</v>
       </c>
       <c r="Z38">
         <v>38</v>
@@ -4924,43 +4933,43 @@
         <v>0.8</v>
       </c>
       <c r="AC38">
-        <v>27953</v>
+        <v>46700</v>
       </c>
       <c r="AD38">
-        <v>559.1</v>
+        <v>934</v>
       </c>
       <c r="AE38">
-        <v>699</v>
+        <v>1102.6</v>
       </c>
       <c r="AF38">
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="AH38">
-        <v>247</v>
+        <v>829.5</v>
       </c>
       <c r="AI38">
-        <v>980.2</v>
+        <v>1381</v>
       </c>
       <c r="AJ38">
-        <v>3210</v>
+        <v>6193</v>
       </c>
       <c r="AK38">
         <v>50</v>
       </c>
       <c r="AL38">
-        <v>1035.3</v>
+        <v>1228.9</v>
       </c>
       <c r="AM38">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AN38">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AO38">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4969,13 +4978,13 @@
         <v>33</v>
       </c>
       <c r="C39">
-        <v>61392</v>
+        <v>68512</v>
       </c>
       <c r="D39">
-        <v>620.1</v>
+        <v>692</v>
       </c>
       <c r="E39">
-        <v>978</v>
+        <v>1121</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4984,37 +4993,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I39">
-        <v>875</v>
+        <v>1031</v>
       </c>
       <c r="J39">
-        <v>5691</v>
+        <v>5795</v>
       </c>
       <c r="K39">
         <v>99</v>
       </c>
       <c r="L39">
-        <v>1040.5</v>
+        <v>1268.7</v>
       </c>
       <c r="M39">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N39">
-        <v>59.6</v>
+        <v>54.5</v>
       </c>
       <c r="O39">
-        <v>-0</v>
+        <v>-0.2</v>
       </c>
       <c r="P39">
-        <v>11157</v>
+        <v>11927</v>
       </c>
       <c r="Q39">
-        <v>112.7</v>
+        <v>120.5</v>
       </c>
       <c r="R39">
-        <v>185.9</v>
+        <v>201.8</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -5023,37 +5032,37 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="V39">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="W39">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="X39">
         <v>99</v>
       </c>
       <c r="Y39">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="Z39">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AA39">
-        <v>60.6</v>
+        <v>56.6</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC39">
-        <v>28993</v>
+        <v>54725</v>
       </c>
       <c r="AD39">
-        <v>292.9</v>
+        <v>552.8</v>
       </c>
       <c r="AE39">
-        <v>776.1</v>
+        <v>1013.6</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5062,28 +5071,28 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="AI39">
-        <v>350.5</v>
+        <v>727.5</v>
       </c>
       <c r="AJ39">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK39">
         <v>99</v>
       </c>
       <c r="AL39">
-        <v>906</v>
+        <v>841.9</v>
       </c>
       <c r="AM39">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AN39">
-        <v>32.3</v>
+        <v>65.7</v>
       </c>
       <c r="AO39">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -5092,13 +5101,13 @@
         <v>34</v>
       </c>
       <c r="C40">
-        <v>155103</v>
+        <v>178991</v>
       </c>
       <c r="D40">
-        <v>492.4</v>
+        <v>568.2</v>
       </c>
       <c r="E40">
-        <v>2822.7</v>
+        <v>3052.9</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5110,34 +5119,34 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>251.5</v>
+        <v>301</v>
       </c>
       <c r="J40">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K40">
         <v>315</v>
       </c>
       <c r="L40">
-        <v>1115.8</v>
+        <v>1297</v>
       </c>
       <c r="M40">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N40">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="O40">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="P40">
-        <v>43964</v>
+        <v>52823</v>
       </c>
       <c r="Q40">
-        <v>139.6</v>
+        <v>167.7</v>
       </c>
       <c r="R40">
-        <v>689.7</v>
+        <v>835.5</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -5149,34 +5158,34 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>36.5</v>
+        <v>43</v>
       </c>
       <c r="W40">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X40">
         <v>315</v>
       </c>
       <c r="Y40">
-        <v>305.3</v>
+        <v>369.4</v>
       </c>
       <c r="Z40">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA40">
-        <v>45.7</v>
+        <v>45.4</v>
       </c>
       <c r="AB40">
         <v>-0.7</v>
       </c>
       <c r="AC40">
-        <v>98493</v>
+        <v>84111</v>
       </c>
       <c r="AD40">
-        <v>312.7</v>
+        <v>267</v>
       </c>
       <c r="AE40">
-        <v>2147.6</v>
+        <v>506.9</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5185,28 +5194,28 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="AJ40">
-        <v>36858</v>
+        <v>4716</v>
       </c>
       <c r="AK40">
         <v>315</v>
       </c>
       <c r="AL40">
-        <v>1492.3</v>
+        <v>486.2</v>
       </c>
       <c r="AM40">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="AN40">
-        <v>21</v>
+        <v>54.9</v>
       </c>
       <c r="AO40">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5215,13 +5224,13 @@
         <v>35</v>
       </c>
       <c r="C41">
-        <v>15705</v>
+        <v>18258</v>
       </c>
       <c r="D41">
-        <v>560.9</v>
+        <v>652.1</v>
       </c>
       <c r="E41">
-        <v>952.3</v>
+        <v>1083.4</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5233,16 +5242,16 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <v>901.8</v>
+        <v>1093.8</v>
       </c>
       <c r="J41">
-        <v>4124</v>
+        <v>4576</v>
       </c>
       <c r="K41">
         <v>28</v>
       </c>
       <c r="L41">
-        <v>1047</v>
+        <v>1217.2</v>
       </c>
       <c r="M41">
         <v>15</v>
@@ -5251,16 +5260,16 @@
         <v>53.6</v>
       </c>
       <c r="O41">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P41">
-        <v>5190</v>
+        <v>5574</v>
       </c>
       <c r="Q41">
-        <v>185.4</v>
+        <v>199.1</v>
       </c>
       <c r="R41">
-        <v>475.5</v>
+        <v>501.2</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5269,19 +5278,19 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V41">
-        <v>91.5</v>
+        <v>108</v>
       </c>
       <c r="W41">
-        <v>2400</v>
+        <v>2528</v>
       </c>
       <c r="X41">
         <v>28</v>
       </c>
       <c r="Y41">
-        <v>346</v>
+        <v>371.6</v>
       </c>
       <c r="Z41">
         <v>15</v>
@@ -5293,13 +5302,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC41">
-        <v>4009</v>
+        <v>10147</v>
       </c>
       <c r="AD41">
-        <v>143.2</v>
+        <v>362.4</v>
       </c>
       <c r="AE41">
-        <v>317.6</v>
+        <v>556.9</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5308,25 +5317,25 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI41">
-        <v>15</v>
+        <v>543.8</v>
       </c>
       <c r="AJ41">
-        <v>1206</v>
+        <v>2010</v>
       </c>
       <c r="AK41">
         <v>28</v>
       </c>
       <c r="AL41">
-        <v>572.7</v>
+        <v>724.8</v>
       </c>
       <c r="AM41">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AN41">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AO41">
         <v>-0.6</v>
@@ -5340,34 +5349,34 @@
         <v>32</v>
       </c>
       <c r="C42">
-        <v>117581</v>
+        <v>138592</v>
       </c>
       <c r="D42">
-        <v>1469.8</v>
+        <v>1732.4</v>
       </c>
       <c r="E42">
-        <v>2094.6</v>
+        <v>2486</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>225.8</v>
+        <v>339.5</v>
       </c>
       <c r="H42">
-        <v>533</v>
+        <v>695</v>
       </c>
       <c r="I42">
-        <v>1915.2</v>
+        <v>2290</v>
       </c>
       <c r="J42">
-        <v>14118</v>
+        <v>16882</v>
       </c>
       <c r="K42">
         <v>80</v>
       </c>
       <c r="L42">
-        <v>1729.1</v>
+        <v>2038.1</v>
       </c>
       <c r="M42">
         <v>68</v>
@@ -5379,34 +5388,34 @@
         <v>1.3</v>
       </c>
       <c r="P42">
-        <v>39502</v>
+        <v>46066</v>
       </c>
       <c r="Q42">
-        <v>493.8</v>
+        <v>575.8</v>
       </c>
       <c r="R42">
-        <v>756.9</v>
+        <v>913.6</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>50.8</v>
+        <v>60.8</v>
       </c>
       <c r="U42">
-        <v>200.5</v>
+        <v>237.5</v>
       </c>
       <c r="V42">
-        <v>717.2</v>
+        <v>739.5</v>
       </c>
       <c r="W42">
-        <v>4156</v>
+        <v>5018</v>
       </c>
       <c r="X42">
         <v>80</v>
       </c>
       <c r="Y42">
-        <v>572.5</v>
+        <v>667.6</v>
       </c>
       <c r="Z42">
         <v>69</v>
@@ -5418,43 +5427,43 @@
         <v>1.3</v>
       </c>
       <c r="AC42">
-        <v>41183</v>
+        <v>61737</v>
       </c>
       <c r="AD42">
-        <v>514.8</v>
+        <v>771.7</v>
       </c>
       <c r="AE42">
-        <v>528.7</v>
+        <v>618.4</v>
       </c>
       <c r="AF42">
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>315.8</v>
       </c>
       <c r="AH42">
-        <v>337</v>
+        <v>555</v>
       </c>
       <c r="AI42">
-        <v>1030</v>
+        <v>1344</v>
       </c>
       <c r="AJ42">
-        <v>1678</v>
+        <v>2067</v>
       </c>
       <c r="AK42">
         <v>80</v>
       </c>
       <c r="AL42">
-        <v>807.5</v>
+        <v>907.9</v>
       </c>
       <c r="AM42">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AN42">
-        <v>63.7</v>
+        <v>85</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5463,34 +5472,34 @@
         <v>33</v>
       </c>
       <c r="C43">
-        <v>151020</v>
+        <v>184411</v>
       </c>
       <c r="D43">
-        <v>1198.6</v>
+        <v>1463.6</v>
       </c>
       <c r="E43">
-        <v>4087.7</v>
+        <v>5178.7</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>11.2</v>
+        <v>16</v>
       </c>
       <c r="H43">
-        <v>239</v>
+        <v>271.5</v>
       </c>
       <c r="I43">
-        <v>1083.5</v>
+        <v>1254.5</v>
       </c>
       <c r="J43">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K43">
         <v>126</v>
       </c>
       <c r="L43">
-        <v>1556.9</v>
+        <v>1901.1</v>
       </c>
       <c r="M43">
         <v>97</v>
@@ -5502,34 +5511,34 @@
         <v>0.9</v>
       </c>
       <c r="P43">
-        <v>76778</v>
+        <v>84446</v>
       </c>
       <c r="Q43">
-        <v>609.3</v>
+        <v>670.2</v>
       </c>
       <c r="R43">
-        <v>4200.3</v>
+        <v>4366.6</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U43">
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="V43">
-        <v>200.8</v>
+        <v>243.8</v>
       </c>
       <c r="W43">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X43">
         <v>126</v>
       </c>
       <c r="Y43">
-        <v>791.5</v>
+        <v>870.6</v>
       </c>
       <c r="Z43">
         <v>97</v>
@@ -5538,16 +5547,16 @@
         <v>77</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC43">
-        <v>43232</v>
+        <v>60237</v>
       </c>
       <c r="AD43">
-        <v>343.1</v>
+        <v>478.1</v>
       </c>
       <c r="AE43">
-        <v>720.7</v>
+        <v>535.3</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5556,28 +5565,28 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="AI43">
-        <v>540</v>
+        <v>861.2</v>
       </c>
       <c r="AJ43">
-        <v>4996</v>
+        <v>2231</v>
       </c>
       <c r="AK43">
         <v>126</v>
       </c>
       <c r="AL43">
-        <v>900.7</v>
+        <v>647.7</v>
       </c>
       <c r="AM43">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="AN43">
-        <v>38.1</v>
+        <v>73.8</v>
       </c>
       <c r="AO43">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5586,13 +5595,13 @@
         <v>34</v>
       </c>
       <c r="C44">
-        <v>133468</v>
+        <v>158233</v>
       </c>
       <c r="D44">
-        <v>519.3</v>
+        <v>615.7</v>
       </c>
       <c r="E44">
-        <v>1351.9</v>
+        <v>1667.7</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5601,37 +5610,37 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J44">
-        <v>13896</v>
+        <v>18235</v>
       </c>
       <c r="K44">
         <v>257</v>
       </c>
       <c r="L44">
-        <v>920.5</v>
+        <v>1114.3</v>
       </c>
       <c r="M44">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N44">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="O44">
         <v>-0.2</v>
       </c>
       <c r="P44">
-        <v>38267</v>
+        <v>44248</v>
       </c>
       <c r="Q44">
-        <v>148.9</v>
+        <v>172.2</v>
       </c>
       <c r="R44">
-        <v>533</v>
+        <v>589.9</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5643,16 +5652,16 @@
         <v>3</v>
       </c>
       <c r="V44">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="W44">
-        <v>6504</v>
+        <v>6452</v>
       </c>
       <c r="X44">
         <v>257</v>
       </c>
       <c r="Y44">
-        <v>265.7</v>
+        <v>307.3</v>
       </c>
       <c r="Z44">
         <v>144</v>
@@ -5664,13 +5673,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC44">
-        <v>46032</v>
+        <v>66191</v>
       </c>
       <c r="AD44">
-        <v>179.1</v>
+        <v>257.6</v>
       </c>
       <c r="AE44">
-        <v>558.1</v>
+        <v>503.8</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5679,28 +5688,28 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AJ44">
-        <v>6047</v>
+        <v>3726</v>
       </c>
       <c r="AK44">
         <v>257</v>
       </c>
       <c r="AL44">
-        <v>807.6</v>
+        <v>453.4</v>
       </c>
       <c r="AM44">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AN44">
-        <v>22.2</v>
+        <v>56.8</v>
       </c>
       <c r="AO44">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -5709,13 +5718,13 @@
         <v>35</v>
       </c>
       <c r="C45">
-        <v>4341</v>
+        <v>5157</v>
       </c>
       <c r="D45">
-        <v>361.8</v>
+        <v>429.8</v>
       </c>
       <c r="E45">
-        <v>485.6</v>
+        <v>579.3</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5724,19 +5733,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>52.5</v>
+        <v>67.5</v>
       </c>
       <c r="I45">
-        <v>647</v>
+        <v>786.8</v>
       </c>
       <c r="J45">
-        <v>1261</v>
+        <v>1484</v>
       </c>
       <c r="K45">
         <v>12</v>
       </c>
       <c r="L45">
-        <v>620.1</v>
+        <v>736.7</v>
       </c>
       <c r="M45">
         <v>7</v>
@@ -5745,16 +5754,16 @@
         <v>58.3</v>
       </c>
       <c r="O45">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="P45">
-        <v>662</v>
+        <v>787</v>
       </c>
       <c r="Q45">
-        <v>55.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="R45">
-        <v>90.5</v>
+        <v>107.5</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5763,67 +5772,67 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="V45">
-        <v>71.8</v>
+        <v>80</v>
       </c>
       <c r="W45">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="X45">
         <v>12</v>
       </c>
       <c r="Y45">
-        <v>110.3</v>
+        <v>112.4</v>
       </c>
       <c r="Z45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA45">
-        <v>50</v>
+        <v>58.3</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AC45">
-        <v>3899</v>
+        <v>5990</v>
       </c>
       <c r="AD45">
-        <v>324.9</v>
+        <v>499.2</v>
       </c>
       <c r="AE45">
-        <v>518.9</v>
+        <v>577.4</v>
       </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>250.5</v>
       </c>
       <c r="AI45">
-        <v>592.2</v>
+        <v>889.2</v>
       </c>
       <c r="AJ45">
-        <v>1367</v>
+        <v>1607</v>
       </c>
       <c r="AK45">
         <v>12</v>
       </c>
       <c r="AL45">
-        <v>974.8</v>
+        <v>665.6</v>
       </c>
       <c r="AM45">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN45">
-        <v>33.3</v>
+        <v>75</v>
       </c>
       <c r="AO45">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5834,34 +5843,34 @@
         <v>32</v>
       </c>
       <c r="C46">
-        <v>45944</v>
+        <v>54161</v>
       </c>
       <c r="D46">
-        <v>792.1</v>
+        <v>933.8</v>
       </c>
       <c r="E46">
-        <v>868.1</v>
+        <v>1016.5</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>52.5</v>
+        <v>54.5</v>
       </c>
       <c r="H46">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="I46">
-        <v>1043.5</v>
+        <v>1306.8</v>
       </c>
       <c r="J46">
-        <v>4076</v>
+        <v>4938</v>
       </c>
       <c r="K46">
         <v>58</v>
       </c>
       <c r="L46">
-        <v>1021</v>
+        <v>1203.6</v>
       </c>
       <c r="M46">
         <v>45</v>
@@ -5870,37 +5879,37 @@
         <v>77.59999999999999</v>
       </c>
       <c r="O46">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>20823</v>
+        <v>23955</v>
       </c>
       <c r="Q46">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="R46">
-        <v>1008.4</v>
+        <v>1119.8</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>21.8</v>
+        <v>26</v>
       </c>
       <c r="U46">
-        <v>132.5</v>
+        <v>149.5</v>
       </c>
       <c r="V46">
-        <v>369.5</v>
+        <v>426</v>
       </c>
       <c r="W46">
-        <v>7636</v>
+        <v>8450</v>
       </c>
       <c r="X46">
         <v>58</v>
       </c>
       <c r="Y46">
-        <v>443</v>
+        <v>509.7</v>
       </c>
       <c r="Z46">
         <v>47</v>
@@ -5909,43 +5918,43 @@
         <v>81</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC46">
-        <v>25989</v>
+        <v>35507</v>
       </c>
       <c r="AD46">
-        <v>448.1</v>
+        <v>612.2</v>
       </c>
       <c r="AE46">
-        <v>492.1</v>
+        <v>583.8</v>
       </c>
       <c r="AF46">
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>145.5</v>
       </c>
       <c r="AH46">
-        <v>416.5</v>
+        <v>580</v>
       </c>
       <c r="AI46">
-        <v>729.8</v>
+        <v>909.8</v>
       </c>
       <c r="AJ46">
-        <v>2597</v>
+        <v>3346</v>
       </c>
       <c r="AK46">
         <v>58</v>
       </c>
       <c r="AL46">
-        <v>683.9</v>
+        <v>710.1</v>
       </c>
       <c r="AM46">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AN46">
-        <v>65.5</v>
+        <v>86.2</v>
       </c>
       <c r="AO46">
         <v>1.1</v>
@@ -5957,13 +5966,13 @@
         <v>33</v>
       </c>
       <c r="C47">
-        <v>55374</v>
+        <v>65068</v>
       </c>
       <c r="D47">
-        <v>485.7</v>
+        <v>570.8</v>
       </c>
       <c r="E47">
-        <v>807.9</v>
+        <v>970.5</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5972,19 +5981,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>85.5</v>
+        <v>90.5</v>
       </c>
       <c r="I47">
-        <v>599.2</v>
+        <v>665</v>
       </c>
       <c r="J47">
-        <v>3391</v>
+        <v>4337</v>
       </c>
       <c r="K47">
         <v>114</v>
       </c>
       <c r="L47">
-        <v>769.1</v>
+        <v>903.7</v>
       </c>
       <c r="M47">
         <v>72</v>
@@ -5996,13 +6005,13 @@
         <v>0.2</v>
       </c>
       <c r="P47">
-        <v>10465</v>
+        <v>12068</v>
       </c>
       <c r="Q47">
-        <v>91.8</v>
+        <v>105.9</v>
       </c>
       <c r="R47">
-        <v>186.5</v>
+        <v>212.5</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -6011,19 +6020,19 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="V47">
-        <v>103.8</v>
+        <v>121.8</v>
       </c>
       <c r="W47">
-        <v>1458</v>
+        <v>1509</v>
       </c>
       <c r="X47">
         <v>114</v>
       </c>
       <c r="Y47">
-        <v>143.4</v>
+        <v>165.3</v>
       </c>
       <c r="Z47">
         <v>73</v>
@@ -6035,13 +6044,13 @@
         <v>0.2</v>
       </c>
       <c r="AC47">
-        <v>74796</v>
+        <v>55307</v>
       </c>
       <c r="AD47">
-        <v>656.1</v>
+        <v>485.1</v>
       </c>
       <c r="AE47">
-        <v>3476.1</v>
+        <v>613.7</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -6050,28 +6059,28 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>223.5</v>
       </c>
       <c r="AI47">
-        <v>587.5</v>
+        <v>835</v>
       </c>
       <c r="AJ47">
-        <v>36948</v>
+        <v>3150</v>
       </c>
       <c r="AK47">
         <v>114</v>
       </c>
       <c r="AL47">
-        <v>1662.1</v>
+        <v>674.5</v>
       </c>
       <c r="AM47">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AN47">
-        <v>39.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -6080,13 +6089,13 @@
         <v>34</v>
       </c>
       <c r="C48">
-        <v>83091</v>
+        <v>98167</v>
       </c>
       <c r="D48">
-        <v>352.1</v>
+        <v>416</v>
       </c>
       <c r="E48">
-        <v>907</v>
+        <v>1066.8</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6095,37 +6104,37 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I48">
-        <v>417</v>
+        <v>461.8</v>
       </c>
       <c r="J48">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K48">
         <v>236</v>
       </c>
       <c r="L48">
-        <v>664.7</v>
+        <v>779.1</v>
       </c>
       <c r="M48">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N48">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="O48">
         <v>-0.3</v>
       </c>
       <c r="P48">
-        <v>17086</v>
+        <v>20316</v>
       </c>
       <c r="Q48">
-        <v>72.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="R48">
-        <v>215.1</v>
+        <v>257.5</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -6134,37 +6143,37 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>53.5</v>
+        <v>64</v>
       </c>
       <c r="W48">
-        <v>1782</v>
+        <v>2288</v>
       </c>
       <c r="X48">
         <v>236</v>
       </c>
       <c r="Y48">
-        <v>135.6</v>
+        <v>160</v>
       </c>
       <c r="Z48">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA48">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="AB48">
         <v>-0.3</v>
       </c>
       <c r="AC48">
-        <v>35881</v>
+        <v>62649</v>
       </c>
       <c r="AD48">
-        <v>152</v>
+        <v>265.5</v>
       </c>
       <c r="AE48">
-        <v>462.6</v>
+        <v>522.9</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6173,28 +6182,28 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>326.2</v>
       </c>
       <c r="AJ48">
-        <v>3705</v>
+        <v>5226</v>
       </c>
       <c r="AK48">
         <v>236</v>
       </c>
       <c r="AL48">
-        <v>780</v>
+        <v>450.7</v>
       </c>
       <c r="AM48">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="AN48">
-        <v>19.5</v>
+        <v>58.9</v>
       </c>
       <c r="AO48">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -6203,13 +6212,13 @@
         <v>35</v>
       </c>
       <c r="C49">
-        <v>7604</v>
+        <v>9141</v>
       </c>
       <c r="D49">
-        <v>543.1</v>
+        <v>652.9</v>
       </c>
       <c r="E49">
-        <v>945.2</v>
+        <v>1173.1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6221,16 +6230,16 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>781.2</v>
+        <v>907</v>
       </c>
       <c r="J49">
-        <v>2802</v>
+        <v>3692</v>
       </c>
       <c r="K49">
         <v>14</v>
       </c>
       <c r="L49">
-        <v>1267.3</v>
+        <v>1523.5</v>
       </c>
       <c r="M49">
         <v>6</v>
@@ -6239,16 +6248,16 @@
         <v>42.9</v>
       </c>
       <c r="O49">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="P49">
-        <v>2212</v>
+        <v>2366</v>
       </c>
       <c r="Q49">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="R49">
-        <v>314.9</v>
+        <v>329.7</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -6260,16 +6269,16 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>90.5</v>
+        <v>107.2</v>
       </c>
       <c r="W49">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="X49">
         <v>14</v>
       </c>
       <c r="Y49">
-        <v>368.7</v>
+        <v>394.3</v>
       </c>
       <c r="Z49">
         <v>6</v>
@@ -6281,43 +6290,43 @@
         <v>-0.8</v>
       </c>
       <c r="AC49">
-        <v>3612</v>
+        <v>6739</v>
       </c>
       <c r="AD49">
-        <v>258</v>
+        <v>481.4</v>
       </c>
       <c r="AE49">
-        <v>575.4</v>
+        <v>720.4</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="AJ49">
-        <v>1930</v>
+        <v>2496</v>
       </c>
       <c r="AK49">
         <v>14</v>
       </c>
       <c r="AL49">
-        <v>1204</v>
+        <v>612.6</v>
       </c>
       <c r="AM49">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AN49">
-        <v>21.4</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AO49">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -6328,34 +6337,34 @@
         <v>32</v>
       </c>
       <c r="C50">
-        <v>25671</v>
+        <v>30306</v>
       </c>
       <c r="D50">
-        <v>1026.8</v>
+        <v>1212.2</v>
       </c>
       <c r="E50">
-        <v>1446</v>
+        <v>1713.4</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H50">
-        <v>496</v>
+        <v>600</v>
       </c>
       <c r="I50">
-        <v>1045</v>
+        <v>1266</v>
       </c>
       <c r="J50">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K50">
         <v>25</v>
       </c>
       <c r="L50">
-        <v>1283.6</v>
+        <v>1515.3</v>
       </c>
       <c r="M50">
         <v>20</v>
@@ -6364,37 +6373,37 @@
         <v>80</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P50">
-        <v>4275</v>
+        <v>4913</v>
       </c>
       <c r="Q50">
-        <v>171</v>
+        <v>196.5</v>
       </c>
       <c r="R50">
-        <v>224.7</v>
+        <v>256.4</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U50">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="V50">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="W50">
-        <v>938</v>
+        <v>1056</v>
       </c>
       <c r="X50">
         <v>25</v>
       </c>
       <c r="Y50">
-        <v>213.8</v>
+        <v>245.6</v>
       </c>
       <c r="Z50">
         <v>20</v>
@@ -6406,43 +6415,43 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>9825</v>
+        <v>17457</v>
       </c>
       <c r="AD50">
-        <v>393</v>
+        <v>698.3</v>
       </c>
       <c r="AE50">
-        <v>436.2</v>
+        <v>561.2</v>
       </c>
       <c r="AF50">
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="AH50">
-        <v>326</v>
+        <v>464</v>
       </c>
       <c r="AI50">
-        <v>602</v>
+        <v>1080</v>
       </c>
       <c r="AJ50">
-        <v>1651</v>
+        <v>1979</v>
       </c>
       <c r="AK50">
         <v>25</v>
       </c>
       <c r="AL50">
-        <v>655</v>
+        <v>793.5</v>
       </c>
       <c r="AM50">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AN50">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AO50">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -6451,13 +6460,13 @@
         <v>33</v>
       </c>
       <c r="C51">
-        <v>32245</v>
+        <v>39030</v>
       </c>
       <c r="D51">
-        <v>597.1</v>
+        <v>722.8</v>
       </c>
       <c r="E51">
-        <v>914.3</v>
+        <v>1106</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6466,19 +6475,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>94.5</v>
+        <v>107</v>
       </c>
       <c r="I51">
-        <v>828.8</v>
+        <v>1031.5</v>
       </c>
       <c r="J51">
-        <v>3155</v>
+        <v>3771</v>
       </c>
       <c r="K51">
         <v>54</v>
       </c>
       <c r="L51">
-        <v>895.7</v>
+        <v>1084.2</v>
       </c>
       <c r="M51">
         <v>36</v>
@@ -6490,13 +6499,13 @@
         <v>0.4</v>
       </c>
       <c r="P51">
-        <v>4479</v>
+        <v>5279</v>
       </c>
       <c r="Q51">
-        <v>82.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="R51">
-        <v>191.7</v>
+        <v>219.6</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -6505,19 +6514,19 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V51">
-        <v>76</v>
+        <v>90.5</v>
       </c>
       <c r="W51">
-        <v>1236</v>
+        <v>1378</v>
       </c>
       <c r="X51">
         <v>54</v>
       </c>
       <c r="Y51">
-        <v>124.4</v>
+        <v>146.6</v>
       </c>
       <c r="Z51">
         <v>36</v>
@@ -6526,16 +6535,16 @@
         <v>66.7</v>
       </c>
       <c r="AB51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC51">
-        <v>39434</v>
+        <v>30514</v>
       </c>
       <c r="AD51">
-        <v>730.3</v>
+        <v>565.1</v>
       </c>
       <c r="AE51">
-        <v>2080.9</v>
+        <v>804.4</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6544,28 +6553,28 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="AI51">
-        <v>555</v>
+        <v>723.8</v>
       </c>
       <c r="AJ51">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK51">
         <v>54</v>
       </c>
       <c r="AL51">
-        <v>1714.5</v>
+        <v>847.6</v>
       </c>
       <c r="AM51">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AN51">
-        <v>42.6</v>
+        <v>66.7</v>
       </c>
       <c r="AO51">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -6574,13 +6583,13 @@
         <v>34</v>
       </c>
       <c r="C52">
-        <v>35503</v>
+        <v>40896</v>
       </c>
       <c r="D52">
-        <v>286.3</v>
+        <v>329.8</v>
       </c>
       <c r="E52">
-        <v>672</v>
+        <v>805.5</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -6592,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J52">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K52">
         <v>124</v>
       </c>
       <c r="L52">
-        <v>612.1</v>
+        <v>705.1</v>
       </c>
       <c r="M52">
         <v>58</v>
@@ -6610,16 +6619,16 @@
         <v>46.8</v>
       </c>
       <c r="O52">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="P52">
-        <v>10239</v>
+        <v>11967</v>
       </c>
       <c r="Q52">
-        <v>82.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="R52">
-        <v>325.1</v>
+        <v>407.2</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -6631,34 +6640,34 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W52">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X52">
         <v>124</v>
       </c>
       <c r="Y52">
-        <v>173.5</v>
+        <v>206.3</v>
       </c>
       <c r="Z52">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA52">
-        <v>47.6</v>
+        <v>46.8</v>
       </c>
       <c r="AB52">
         <v>-0.6</v>
       </c>
       <c r="AC52">
-        <v>52751</v>
+        <v>40085</v>
       </c>
       <c r="AD52">
-        <v>425.4</v>
+        <v>323.3</v>
       </c>
       <c r="AE52">
-        <v>1356.2</v>
+        <v>559.3</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -6667,28 +6676,28 @@
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI52">
-        <v>306.8</v>
+        <v>370</v>
       </c>
       <c r="AJ52">
-        <v>13336</v>
+        <v>2486</v>
       </c>
       <c r="AK52">
         <v>124</v>
       </c>
       <c r="AL52">
-        <v>1034.3</v>
+        <v>598.3</v>
       </c>
       <c r="AM52">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN52">
-        <v>41.1</v>
+        <v>54</v>
       </c>
       <c r="AO52">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -6697,13 +6706,13 @@
         <v>35</v>
       </c>
       <c r="C53">
-        <v>3884</v>
+        <v>4815</v>
       </c>
       <c r="D53">
-        <v>971</v>
+        <v>1203.8</v>
       </c>
       <c r="E53">
-        <v>1940</v>
+        <v>2405.5</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -6715,16 +6724,16 @@
         <v>1.5</v>
       </c>
       <c r="I53">
-        <v>972.5</v>
+        <v>1205.2</v>
       </c>
       <c r="J53">
-        <v>3881</v>
+        <v>4812</v>
       </c>
       <c r="K53">
         <v>4</v>
       </c>
       <c r="L53">
-        <v>1942</v>
+        <v>2407.5</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -6733,16 +6742,16 @@
         <v>50</v>
       </c>
       <c r="O53">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P53">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q53">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R53">
-        <v>117.3</v>
+        <v>125.3</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -6754,16 +6763,16 @@
         <v>0.5</v>
       </c>
       <c r="V53">
-        <v>59.5</v>
+        <v>63.5</v>
       </c>
       <c r="W53">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="X53">
         <v>4</v>
       </c>
       <c r="Y53">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Z53">
         <v>2</v>
@@ -6775,43 +6784,43 @@
         <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>2866</v>
+        <v>3739</v>
       </c>
       <c r="AD53">
-        <v>716.5</v>
+        <v>934.8</v>
       </c>
       <c r="AE53">
-        <v>1433</v>
+        <v>1680</v>
       </c>
       <c r="AF53">
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>144.5</v>
       </c>
       <c r="AI53">
-        <v>716.5</v>
+        <v>1041.8</v>
       </c>
       <c r="AJ53">
-        <v>2866</v>
+        <v>3450</v>
       </c>
       <c r="AK53">
         <v>4</v>
       </c>
       <c r="AL53">
-        <v>2866</v>
+        <v>1246.3</v>
       </c>
       <c r="AM53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN53">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AO53">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -6822,91 +6831,91 @@
         <v>32</v>
       </c>
       <c r="C54">
-        <v>81543</v>
+        <v>94637</v>
       </c>
       <c r="D54">
-        <v>1941.5</v>
+        <v>2253.3</v>
       </c>
       <c r="E54">
-        <v>3715.9</v>
+        <v>4486.1</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>280</v>
+        <v>290.8</v>
       </c>
       <c r="H54">
-        <v>910.5</v>
+        <v>1008.5</v>
       </c>
       <c r="I54">
-        <v>1630.8</v>
+        <v>1655.5</v>
       </c>
       <c r="J54">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K54">
         <v>42</v>
       </c>
       <c r="L54">
-        <v>2329.8</v>
+        <v>2783.4</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N54">
-        <v>83.3</v>
+        <v>81</v>
       </c>
       <c r="O54">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P54">
-        <v>21890</v>
+        <v>24740</v>
       </c>
       <c r="Q54">
-        <v>521.2</v>
+        <v>589</v>
       </c>
       <c r="R54">
-        <v>933.1</v>
+        <v>1119.4</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>61.2</v>
+        <v>63</v>
       </c>
       <c r="U54">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="V54">
-        <v>478.5</v>
+        <v>493.5</v>
       </c>
       <c r="W54">
-        <v>4588</v>
+        <v>5485</v>
       </c>
       <c r="X54">
         <v>42</v>
       </c>
       <c r="Y54">
-        <v>625.4</v>
+        <v>727.6</v>
       </c>
       <c r="Z54">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA54">
-        <v>83.3</v>
+        <v>81</v>
       </c>
       <c r="AB54">
         <v>1.1</v>
       </c>
       <c r="AC54">
-        <v>18112</v>
+        <v>32968</v>
       </c>
       <c r="AD54">
-        <v>431.2</v>
+        <v>785</v>
       </c>
       <c r="AE54">
-        <v>473.6</v>
+        <v>813.6</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6915,28 +6924,28 @@
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>448</v>
+        <v>735</v>
       </c>
       <c r="AI54">
-        <v>768.2</v>
+        <v>1006</v>
       </c>
       <c r="AJ54">
-        <v>1636</v>
+        <v>3366</v>
       </c>
       <c r="AK54">
         <v>42</v>
       </c>
       <c r="AL54">
-        <v>823.3</v>
+        <v>1098.9</v>
       </c>
       <c r="AM54">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AN54">
-        <v>52.4</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO54">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -6945,13 +6954,13 @@
         <v>33</v>
       </c>
       <c r="C55">
-        <v>44005</v>
+        <v>51926</v>
       </c>
       <c r="D55">
-        <v>611.2</v>
+        <v>721.2</v>
       </c>
       <c r="E55">
-        <v>876.8</v>
+        <v>1069.5</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6960,37 +6969,37 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>133.5</v>
+        <v>139</v>
       </c>
       <c r="I55">
-        <v>1100.8</v>
+        <v>1353.2</v>
       </c>
       <c r="J55">
-        <v>3894</v>
+        <v>5153</v>
       </c>
       <c r="K55">
         <v>72</v>
       </c>
       <c r="L55">
-        <v>1000.1</v>
+        <v>1207.6</v>
       </c>
       <c r="M55">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N55">
-        <v>61.1</v>
+        <v>59.7</v>
       </c>
       <c r="O55">
         <v>0.1</v>
       </c>
       <c r="P55">
-        <v>8348</v>
+        <v>9804</v>
       </c>
       <c r="Q55">
-        <v>115.9</v>
+        <v>136.2</v>
       </c>
       <c r="R55">
-        <v>192.4</v>
+        <v>229.5</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -6999,37 +7008,37 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V55">
-        <v>126.5</v>
+        <v>136.2</v>
       </c>
       <c r="W55">
-        <v>797</v>
+        <v>920</v>
       </c>
       <c r="X55">
         <v>72</v>
       </c>
       <c r="Y55">
-        <v>173.9</v>
+        <v>208.6</v>
       </c>
       <c r="Z55">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA55">
-        <v>66.7</v>
+        <v>65.3</v>
       </c>
       <c r="AB55">
         <v>0.3</v>
       </c>
       <c r="AC55">
-        <v>26180</v>
+        <v>38646</v>
       </c>
       <c r="AD55">
-        <v>363.6</v>
+        <v>536.8</v>
       </c>
       <c r="AE55">
-        <v>775.3</v>
+        <v>649.7</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -7038,28 +7047,28 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="AI55">
-        <v>471.5</v>
+        <v>925.2</v>
       </c>
       <c r="AJ55">
-        <v>5694</v>
+        <v>2833</v>
       </c>
       <c r="AK55">
         <v>72</v>
       </c>
       <c r="AL55">
-        <v>844.5</v>
+        <v>772.9</v>
       </c>
       <c r="AM55">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="AN55">
-        <v>43.1</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AO55">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -7068,13 +7077,13 @@
         <v>34</v>
       </c>
       <c r="C56">
-        <v>33692</v>
+        <v>39957</v>
       </c>
       <c r="D56">
-        <v>306.3</v>
+        <v>363.2</v>
       </c>
       <c r="E56">
-        <v>739.9</v>
+        <v>885.5</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7086,16 +7095,16 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>152.8</v>
+        <v>201.2</v>
       </c>
       <c r="J56">
-        <v>4765</v>
+        <v>6036</v>
       </c>
       <c r="K56">
         <v>110</v>
       </c>
       <c r="L56">
-        <v>701.9</v>
+        <v>832.4</v>
       </c>
       <c r="M56">
         <v>48</v>
@@ -7107,13 +7116,13 @@
         <v>-0.8</v>
       </c>
       <c r="P56">
-        <v>18923</v>
+        <v>22890</v>
       </c>
       <c r="Q56">
-        <v>172</v>
+        <v>208.1</v>
       </c>
       <c r="R56">
-        <v>1089.9</v>
+        <v>1351.9</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -7125,34 +7134,34 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>24</v>
+        <v>28.8</v>
       </c>
       <c r="W56">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X56">
         <v>110</v>
       </c>
       <c r="Y56">
-        <v>386.2</v>
+        <v>448.8</v>
       </c>
       <c r="Z56">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA56">
-        <v>44.5</v>
+        <v>46.4</v>
       </c>
       <c r="AB56">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AC56">
-        <v>23076</v>
+        <v>25624</v>
       </c>
       <c r="AD56">
-        <v>209.8</v>
+        <v>232.9</v>
       </c>
       <c r="AE56">
-        <v>705.2</v>
+        <v>465.5</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -7164,25 +7173,25 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>248.8</v>
       </c>
       <c r="AJ56">
-        <v>6145</v>
+        <v>2638</v>
       </c>
       <c r="AK56">
         <v>110</v>
       </c>
       <c r="AL56">
-        <v>887.5</v>
+        <v>474.5</v>
       </c>
       <c r="AM56">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="AN56">
-        <v>23.6</v>
+        <v>49.1</v>
       </c>
       <c r="AO56">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -7191,13 +7200,13 @@
         <v>35</v>
       </c>
       <c r="C57">
-        <v>824</v>
+        <v>538</v>
       </c>
       <c r="D57">
-        <v>206</v>
+        <v>134.5</v>
       </c>
       <c r="E57">
-        <v>249.7</v>
+        <v>269</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7206,37 +7215,37 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>159.5</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>365.5</v>
+        <v>134.5</v>
       </c>
       <c r="J57">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="K57">
         <v>4</v>
       </c>
       <c r="L57">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O57">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="P57">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="Q57">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="R57">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -7245,67 +7254,67 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>64.5</v>
+        <v>11.5</v>
       </c>
       <c r="W57">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="X57">
         <v>4</v>
       </c>
       <c r="Y57">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="Z57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AC57">
-        <v>1134</v>
+        <v>1426</v>
       </c>
       <c r="AD57">
-        <v>283.5</v>
+        <v>356.5</v>
       </c>
       <c r="AE57">
-        <v>329.9</v>
+        <v>394</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="AH57">
-        <v>258.5</v>
+        <v>339</v>
       </c>
       <c r="AI57">
-        <v>542</v>
+        <v>669.2</v>
       </c>
       <c r="AJ57">
-        <v>617</v>
+        <v>748</v>
       </c>
       <c r="AK57">
         <v>4</v>
       </c>
       <c r="AL57">
-        <v>567</v>
+        <v>475.3</v>
       </c>
       <c r="AM57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN57">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO57">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -7316,34 +7325,34 @@
         <v>32</v>
       </c>
       <c r="C58">
-        <v>84463</v>
+        <v>98843</v>
       </c>
       <c r="D58">
-        <v>1759.6</v>
+        <v>2059.2</v>
       </c>
       <c r="E58">
-        <v>2325</v>
+        <v>2660.9</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>319.2</v>
+        <v>391.8</v>
       </c>
       <c r="H58">
-        <v>1005</v>
+        <v>1246</v>
       </c>
       <c r="I58">
-        <v>2179</v>
+        <v>2538</v>
       </c>
       <c r="J58">
-        <v>10957</v>
+        <v>13083</v>
       </c>
       <c r="K58">
         <v>48</v>
       </c>
       <c r="L58">
-        <v>2165.7</v>
+        <v>2534.4</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -7355,34 +7364,34 @@
         <v>1.1</v>
       </c>
       <c r="P58">
-        <v>53804</v>
+        <v>59685</v>
       </c>
       <c r="Q58">
-        <v>1120.9</v>
+        <v>1243.4</v>
       </c>
       <c r="R58">
-        <v>2161.6</v>
+        <v>2323.6</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>62</v>
+        <v>91.5</v>
       </c>
       <c r="U58">
-        <v>245</v>
+        <v>253.5</v>
       </c>
       <c r="V58">
-        <v>1461</v>
+        <v>1612.5</v>
       </c>
       <c r="W58">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X58">
         <v>48</v>
       </c>
       <c r="Y58">
-        <v>1345.1</v>
+        <v>1492.1</v>
       </c>
       <c r="Z58">
         <v>40</v>
@@ -7391,46 +7400,46 @@
         <v>83.3</v>
       </c>
       <c r="AB58">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AC58">
-        <v>29860</v>
+        <v>39319</v>
       </c>
       <c r="AD58">
-        <v>622.1</v>
+        <v>819.1</v>
       </c>
       <c r="AE58">
-        <v>652.9</v>
+        <v>762.8</v>
       </c>
       <c r="AF58">
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>247.5</v>
       </c>
       <c r="AH58">
-        <v>527.5</v>
+        <v>759</v>
       </c>
       <c r="AI58">
-        <v>1000.2</v>
+        <v>1265.2</v>
       </c>
       <c r="AJ58">
-        <v>3428</v>
+        <v>4105</v>
       </c>
       <c r="AK58">
         <v>48</v>
       </c>
       <c r="AL58">
-        <v>878.2</v>
+        <v>1008.2</v>
       </c>
       <c r="AM58">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AN58">
-        <v>70.8</v>
+        <v>81.2</v>
       </c>
       <c r="AO58">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -7439,13 +7448,13 @@
         <v>33</v>
       </c>
       <c r="C59">
-        <v>58943</v>
+        <v>56476</v>
       </c>
       <c r="D59">
-        <v>830.2</v>
+        <v>795.4</v>
       </c>
       <c r="E59">
-        <v>1323.8</v>
+        <v>1305.9</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7454,37 +7463,37 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I59">
-        <v>1077.5</v>
+        <v>1093.5</v>
       </c>
       <c r="J59">
-        <v>5881</v>
+        <v>7077</v>
       </c>
       <c r="K59">
         <v>71</v>
       </c>
       <c r="L59">
-        <v>1254.1</v>
+        <v>1255</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N59">
-        <v>66.2</v>
+        <v>63.4</v>
       </c>
       <c r="O59">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P59">
-        <v>20871</v>
+        <v>19905</v>
       </c>
       <c r="Q59">
-        <v>294</v>
+        <v>280.4</v>
       </c>
       <c r="R59">
-        <v>613</v>
+        <v>663</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -7493,67 +7502,67 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="V59">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="W59">
-        <v>3864</v>
+        <v>4680</v>
       </c>
       <c r="X59">
         <v>71</v>
       </c>
       <c r="Y59">
-        <v>434.8</v>
+        <v>432.7</v>
       </c>
       <c r="Z59">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA59">
-        <v>67.59999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="AB59">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC59">
-        <v>25955</v>
+        <v>39011</v>
       </c>
       <c r="AD59">
-        <v>365.6</v>
+        <v>549.5</v>
       </c>
       <c r="AE59">
-        <v>811.7</v>
+        <v>666.7</v>
       </c>
       <c r="AF59">
         <v>0</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="AI59">
-        <v>433.5</v>
+        <v>780.5</v>
       </c>
       <c r="AJ59">
-        <v>5746</v>
+        <v>3410</v>
       </c>
       <c r="AK59">
         <v>71</v>
       </c>
       <c r="AL59">
-        <v>811.1</v>
+        <v>722.4</v>
       </c>
       <c r="AM59">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="AN59">
-        <v>45.1</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AO59">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -7562,13 +7571,13 @@
         <v>34</v>
       </c>
       <c r="C60">
-        <v>54573</v>
+        <v>60708</v>
       </c>
       <c r="D60">
-        <v>540.3</v>
+        <v>601.1</v>
       </c>
       <c r="E60">
-        <v>959.4</v>
+        <v>1105.9</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -7577,37 +7586,37 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I60">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="J60">
-        <v>3970</v>
+        <v>4961</v>
       </c>
       <c r="K60">
         <v>101</v>
       </c>
       <c r="L60">
-        <v>1010.6</v>
+        <v>1145.4</v>
       </c>
       <c r="M60">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N60">
-        <v>53.5</v>
+        <v>52.5</v>
       </c>
       <c r="O60">
         <v>-0.3</v>
       </c>
       <c r="P60">
-        <v>18975</v>
+        <v>19602</v>
       </c>
       <c r="Q60">
-        <v>187.9</v>
+        <v>194.1</v>
       </c>
       <c r="R60">
-        <v>657.1</v>
+        <v>694</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -7616,37 +7625,37 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V60">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="W60">
-        <v>6137</v>
+        <v>6511</v>
       </c>
       <c r="X60">
         <v>101</v>
       </c>
       <c r="Y60">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="Z60">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA60">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="AB60">
         <v>-0.3</v>
       </c>
       <c r="AC60">
-        <v>48765</v>
+        <v>33114</v>
       </c>
       <c r="AD60">
-        <v>482.8</v>
+        <v>327.9</v>
       </c>
       <c r="AE60">
-        <v>2264.3</v>
+        <v>581.2</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -7655,28 +7664,28 @@
         <v>0</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI60">
-        <v>266</v>
+        <v>419</v>
       </c>
       <c r="AJ60">
-        <v>21892</v>
+        <v>3458</v>
       </c>
       <c r="AK60">
         <v>101</v>
       </c>
       <c r="AL60">
-        <v>1477.7</v>
+        <v>542.9</v>
       </c>
       <c r="AM60">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="AN60">
-        <v>32.7</v>
+        <v>60.4</v>
       </c>
       <c r="AO60">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -7685,13 +7694,13 @@
         <v>35</v>
       </c>
       <c r="C61">
-        <v>7609</v>
+        <v>9105</v>
       </c>
       <c r="D61">
-        <v>845.4</v>
+        <v>1011.7</v>
       </c>
       <c r="E61">
-        <v>1036.8</v>
+        <v>1169.9</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -7700,19 +7709,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>921</v>
+        <v>952</v>
       </c>
       <c r="I61">
-        <v>1256</v>
+        <v>1675</v>
       </c>
       <c r="J61">
-        <v>3159</v>
+        <v>3423</v>
       </c>
       <c r="K61">
         <v>9</v>
       </c>
       <c r="L61">
-        <v>1521.8</v>
+        <v>1821</v>
       </c>
       <c r="M61">
         <v>5</v>
@@ -7721,16 +7730,16 @@
         <v>55.6</v>
       </c>
       <c r="O61">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P61">
-        <v>2078</v>
+        <v>2251</v>
       </c>
       <c r="Q61">
-        <v>230.9</v>
+        <v>250.1</v>
       </c>
       <c r="R61">
-        <v>500.9</v>
+        <v>512.3</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -7739,19 +7748,19 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="V61">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="W61">
-        <v>1547</v>
+        <v>1583</v>
       </c>
       <c r="X61">
         <v>9</v>
       </c>
       <c r="Y61">
-        <v>415.6</v>
+        <v>450.2</v>
       </c>
       <c r="Z61">
         <v>5</v>
@@ -7763,13 +7772,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC61">
-        <v>2917</v>
+        <v>5629</v>
       </c>
       <c r="AD61">
-        <v>324.1</v>
+        <v>625.4</v>
       </c>
       <c r="AE61">
-        <v>658.7</v>
+        <v>651.8</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -7778,28 +7787,28 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AI61">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="AJ61">
-        <v>1743</v>
+        <v>1632</v>
       </c>
       <c r="AK61">
         <v>9</v>
       </c>
       <c r="AL61">
-        <v>1458.5</v>
+        <v>1125.8</v>
       </c>
       <c r="AM61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN61">
-        <v>22.2</v>
+        <v>55.6</v>
       </c>
       <c r="AO61">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
